--- a/results/train/DeepBench_NV_TitanX.xlsx
+++ b/results/train/DeepBench_NV_TitanX.xlsx
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">K </t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>Forward (msec)</t>
@@ -273,6 +267,12 @@
   <si>
     <t>IMPLICIT_GEMM</t>
   </si>
+  <si>
+    <t>R (Filter height)</t>
+  </si>
+  <si>
+    <t>S (Filter width)</t>
+  </si>
 </sst>
 </file>
 
@@ -343,8 +343,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,7 +435,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="71">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -441,6 +461,16 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -466,6 +496,16 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -821,10 +861,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -850,7 +890,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -5053,52 +5093,52 @@
         <v>13</v>
       </c>
       <c r="H174" t="s">
+        <v>83</v>
+      </c>
+      <c r="I174" t="s">
+        <v>82</v>
+      </c>
+      <c r="J174" t="s">
+        <v>38</v>
+      </c>
+      <c r="K174" t="s">
+        <v>37</v>
+      </c>
+      <c r="L174" t="s">
+        <v>40</v>
+      </c>
+      <c r="M174" t="s">
+        <v>39</v>
+      </c>
+      <c r="N174" t="s">
         <v>14</v>
       </c>
-      <c r="I174" t="s">
+      <c r="O174" t="s">
         <v>15</v>
       </c>
-      <c r="J174" t="s">
-        <v>39</v>
-      </c>
-      <c r="K174" t="s">
-        <v>40</v>
-      </c>
-      <c r="L174" t="s">
+      <c r="P174" t="s">
+        <v>16</v>
+      </c>
+      <c r="R174" t="s">
         <v>41</v>
       </c>
-      <c r="M174" t="s">
+      <c r="S174" t="s">
         <v>42</v>
       </c>
-      <c r="N174" t="s">
-        <v>16</v>
-      </c>
-      <c r="O174" t="s">
+      <c r="T174" t="s">
+        <v>75</v>
+      </c>
+      <c r="U174" t="s">
+        <v>43</v>
+      </c>
+      <c r="V174" t="s">
+        <v>44</v>
+      </c>
+      <c r="W174" t="s">
+        <v>45</v>
+      </c>
+      <c r="X174" t="s">
         <v>17</v>
-      </c>
-      <c r="P174" t="s">
-        <v>18</v>
-      </c>
-      <c r="R174" t="s">
-        <v>43</v>
-      </c>
-      <c r="S174" t="s">
-        <v>44</v>
-      </c>
-      <c r="T174" t="s">
-        <v>77</v>
-      </c>
-      <c r="U174" t="s">
-        <v>45</v>
-      </c>
-      <c r="V174" t="s">
-        <v>46</v>
-      </c>
-      <c r="W174" t="s">
-        <v>47</v>
-      </c>
-      <c r="X174" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -5118,10 +5158,10 @@
         <v>32</v>
       </c>
       <c r="H175">
+        <v>20</v>
+      </c>
+      <c r="I175">
         <v>5</v>
-      </c>
-      <c r="I175">
-        <v>20</v>
       </c>
       <c r="J175">
         <v>0</v>
@@ -5139,17 +5179,17 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P175" s="1">
         <v>0.36199999999999999</v>
       </c>
       <c r="R175" s="4">
-        <f>(D175-H175+1+2*J175)/L175</f>
+        <f>(D175-I175+1+2*K175)/M175</f>
         <v>78.5</v>
       </c>
       <c r="S175" s="4">
-        <f>(C175-I175+1+2*K175)/M175</f>
+        <f>(C175-H175+1+2*J175)/L175</f>
         <v>340.5</v>
       </c>
       <c r="T175" s="10">
@@ -5157,18 +5197,18 @@
         <v>0.57299999999999995</v>
       </c>
       <c r="U175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(N175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
         <v>3.2429800947867298</v>
       </c>
       <c r="V175" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$H175*$I175)/(P175/1000)/10^12</f>
+        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
         <v>1.8902453038674036</v>
       </c>
       <c r="X175" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA175" s="1"/>
       <c r="AC175" s="1"/>
@@ -5190,10 +5230,10 @@
         <v>32</v>
       </c>
       <c r="H176">
+        <v>20</v>
+      </c>
+      <c r="I176">
         <v>5</v>
-      </c>
-      <c r="I176">
-        <v>20</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -5211,17 +5251,17 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P176" s="1">
         <v>0.67300000000000004</v>
       </c>
       <c r="R176" s="4">
-        <f t="shared" ref="R176:R257" si="9">(D176-H176+1+2*J176)/L176</f>
+        <f>(D176-I176+1+2*K176)/M176</f>
         <v>78.5</v>
       </c>
       <c r="S176" s="4">
-        <f t="shared" ref="S176:S257" si="10">(C176-I176+1+2*K176)/M176</f>
+        <f>(C176-H176+1+2*J176)/L176</f>
         <v>340.5</v>
       </c>
       <c r="T176" s="10">
@@ -5229,18 +5269,18 @@
         <v>1.0720000000000001</v>
       </c>
       <c r="U176" s="1">
-        <f t="shared" ref="U176:W210" si="11">(2*$R176*$S176*$F176*$G176*$E176*$H176*$I176)/(N176/1000)/10^12</f>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
         <v>3.4299187969924816</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W176" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
         <v>2.0334882615156014</v>
       </c>
       <c r="X176" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA176" s="1"/>
       <c r="AC176" s="1"/>
@@ -5262,10 +5302,10 @@
         <v>32</v>
       </c>
       <c r="H177">
+        <v>20</v>
+      </c>
+      <c r="I177">
         <v>5</v>
-      </c>
-      <c r="I177">
-        <v>20</v>
       </c>
       <c r="J177">
         <v>0</v>
@@ -5283,17 +5323,17 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P177" s="1">
         <v>1.296</v>
       </c>
       <c r="R177" s="4">
-        <f t="shared" si="9"/>
+        <f>(D177-I177+1+2*K177)/M177</f>
         <v>78.5</v>
       </c>
       <c r="S177" s="4">
-        <f t="shared" si="10"/>
+        <f>(C177-H177+1+2*J177)/L177</f>
         <v>340.5</v>
       </c>
       <c r="T177" s="10">
@@ -5301,18 +5341,18 @@
         <v>2.0640000000000001</v>
       </c>
       <c r="U177" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
         <v>3.5638999999999998</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W177" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
         <v>2.1119407407407409</v>
       </c>
       <c r="X177" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA177" s="1"/>
       <c r="AC177" s="1"/>
@@ -5334,10 +5374,10 @@
         <v>32</v>
       </c>
       <c r="H178">
+        <v>20</v>
+      </c>
+      <c r="I178">
         <v>5</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -5355,17 +5395,17 @@
         <v>1.506</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P178" s="1">
         <v>2.7850000000000001</v>
       </c>
       <c r="R178" s="4">
-        <f t="shared" si="9"/>
+        <f>(D178-I178+1+2*K178)/M178</f>
         <v>78.5</v>
       </c>
       <c r="S178" s="4">
-        <f t="shared" si="10"/>
+        <f>(C178-H178+1+2*J178)/L178</f>
         <v>340.5</v>
       </c>
       <c r="T178" s="10">
@@ -5373,18 +5413,18 @@
         <v>4.2910000000000004</v>
       </c>
       <c r="U178" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
         <v>3.6348940239043825</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W178" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
         <v>1.9655836265709155</v>
       </c>
       <c r="X178" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA178" s="1"/>
       <c r="AC178" s="1"/>
@@ -5406,10 +5446,10 @@
         <v>32</v>
       </c>
       <c r="H179">
+        <v>10</v>
+      </c>
+      <c r="I179">
         <v>5</v>
-      </c>
-      <c r="I179">
-        <v>10</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -5433,11 +5473,11 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="R179" s="4">
-        <f t="shared" si="9"/>
+        <f>(D179-I179+1+2*K179)/M179</f>
         <v>37.5</v>
       </c>
       <c r="S179" s="4">
-        <f t="shared" si="10"/>
+        <f>(C179-H179+1+2*J179)/L179</f>
         <v>166</v>
       </c>
       <c r="T179" s="1">
@@ -5445,19 +5485,19 @@
         <v>4.5860000000000003</v>
       </c>
       <c r="U179" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
         <v>3.469061224489796</v>
       </c>
       <c r="V179" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
         <v>0.82463130659767137</v>
       </c>
       <c r="W179" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
         <v>3.3593675889328063</v>
       </c>
       <c r="X179" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA179" s="1"/>
       <c r="AC179" s="1"/>
@@ -5479,10 +5519,10 @@
         <v>32</v>
       </c>
       <c r="H180">
+        <v>10</v>
+      </c>
+      <c r="I180">
         <v>5</v>
-      </c>
-      <c r="I180">
-        <v>10</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -5506,31 +5546,31 @@
         <v>1.476</v>
       </c>
       <c r="R180" s="4">
-        <f t="shared" si="9"/>
+        <f>(D180-I180+1+2*K180)/M180</f>
         <v>37.5</v>
       </c>
       <c r="S180" s="4">
-        <f t="shared" si="10"/>
+        <f>(C180-H180+1+2*J180)/L180</f>
         <v>166</v>
       </c>
       <c r="T180" s="1">
-        <f t="shared" ref="T180:T182" si="12">N180+O180+P180</f>
+        <f t="shared" ref="T180:T182" si="9">N180+O180+P180</f>
         <v>8.963000000000001</v>
       </c>
       <c r="U180" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
         <v>3.67930735930736</v>
       </c>
       <c r="V180" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
         <v>0.83584986067857725</v>
       </c>
       <c r="W180" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
         <v>3.454959349593496</v>
       </c>
       <c r="X180" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA180" s="1"/>
       <c r="AC180" s="1"/>
@@ -5552,10 +5592,10 @@
         <v>32</v>
       </c>
       <c r="H181">
+        <v>10</v>
+      </c>
+      <c r="I181">
         <v>5</v>
-      </c>
-      <c r="I181">
-        <v>10</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -5579,31 +5619,31 @@
         <v>2.8559999999999999</v>
       </c>
       <c r="R181" s="4">
+        <f>(D181-I181+1+2*K181)/M181</f>
+        <v>37.5</v>
+      </c>
+      <c r="S181" s="4">
+        <f>(C181-H181+1+2*J181)/L181</f>
+        <v>166</v>
+      </c>
+      <c r="T181" s="1">
         <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="S181" s="4">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-      <c r="T181" s="1">
-        <f t="shared" si="12"/>
         <v>17.463999999999999</v>
       </c>
       <c r="U181" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
         <v>4.0504527402700559</v>
       </c>
       <c r="V181" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
         <v>0.84359305210918112</v>
       </c>
       <c r="W181" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
         <v>3.5710924369747898</v>
       </c>
       <c r="X181" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA181" s="1"/>
       <c r="AC181" s="1"/>
@@ -5625,10 +5665,10 @@
         <v>32</v>
       </c>
       <c r="H182">
+        <v>10</v>
+      </c>
+      <c r="I182">
         <v>5</v>
-      </c>
-      <c r="I182">
-        <v>10</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -5652,31 +5692,31 @@
         <v>5.665</v>
       </c>
       <c r="R182" s="4">
+        <f>(D182-I182+1+2*K182)/M182</f>
+        <v>37.5</v>
+      </c>
+      <c r="S182" s="4">
+        <f>(C182-H182+1+2*J182)/L182</f>
+        <v>166</v>
+      </c>
+      <c r="T182" s="1">
         <f t="shared" si="9"/>
-        <v>37.5</v>
-      </c>
-      <c r="S182" s="4">
-        <f t="shared" si="10"/>
-        <v>166</v>
-      </c>
-      <c r="T182" s="1">
-        <f t="shared" si="12"/>
         <v>34.585999999999999</v>
       </c>
       <c r="U182" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
         <v>4.2214569536423845</v>
       </c>
       <c r="V182" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
         <v>0.84677985802648514</v>
       </c>
       <c r="W182" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
         <v>3.6007202118270079</v>
       </c>
       <c r="X182" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA182" s="1"/>
       <c r="AC182" s="1"/>
@@ -5719,17 +5759,17 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P183" s="1">
         <v>0.751</v>
       </c>
       <c r="R183" s="4">
-        <f t="shared" si="9"/>
+        <f>(D183-I183+1+2*K183)/M183</f>
         <v>48</v>
       </c>
       <c r="S183" s="4">
-        <f t="shared" si="10"/>
+        <f>(C183-H183+1+2*J183)/L183</f>
         <v>480</v>
       </c>
       <c r="T183" s="1">
@@ -5737,18 +5777,18 @@
         <v>0.98399999999999999</v>
       </c>
       <c r="U183" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
         <v>0.45565802575107295</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W183" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
         <v>0.14136926764314245</v>
       </c>
       <c r="X183" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA183" s="1"/>
       <c r="AC183" s="1"/>
@@ -5797,11 +5837,11 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="R184" s="4">
-        <f t="shared" si="9"/>
+        <f>(D184-I184+1+2*K184)/M184</f>
         <v>24</v>
       </c>
       <c r="S184" s="4">
-        <f t="shared" si="10"/>
+        <f>(C184-H184+1+2*J184)/L184</f>
         <v>240</v>
       </c>
       <c r="T184" s="1">
@@ -5809,19 +5849,19 @@
         <v>1.4780000000000002</v>
       </c>
       <c r="U184" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
         <v>3.0552034532374095</v>
       </c>
       <c r="V184" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(O184/1000)/10^12</f>
         <v>2.8124058278145698</v>
       </c>
       <c r="W184" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
         <v>0.94582022271714916</v>
       </c>
       <c r="X184" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA184" s="1"/>
       <c r="AC184" s="1"/>
@@ -5870,31 +5910,31 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="R185" s="4">
-        <f t="shared" si="9"/>
+        <f>(D185-I185+1+2*K185)/M185</f>
         <v>12</v>
       </c>
       <c r="S185" s="4">
-        <f t="shared" si="10"/>
+        <f>(C185-H185+1+2*J185)/L185</f>
         <v>120</v>
       </c>
       <c r="T185" s="1">
-        <f t="shared" ref="T185:T186" si="13">N185+O185+P185</f>
+        <f t="shared" ref="T185:T186" si="10">N185+O185+P185</f>
         <v>0.93</v>
       </c>
       <c r="U185" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
         <v>3.5389440000000003</v>
       </c>
       <c r="V185" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(O185/1000)/10^12</f>
         <v>5.7388281081081081</v>
       </c>
       <c r="W185" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
         <v>1.5670600738007379</v>
       </c>
       <c r="X185" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA185" s="1"/>
       <c r="AC185" s="1"/>
@@ -5943,31 +5983,31 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="R186" s="4">
-        <f t="shared" si="9"/>
+        <f>(D186-I186+1+2*K186)/M186</f>
         <v>6</v>
       </c>
       <c r="S186" s="4">
+        <f>(C186-H186+1+2*J186)/L186</f>
+        <v>60</v>
+      </c>
+      <c r="T186" s="1">
         <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="T186" s="1">
-        <f t="shared" si="13"/>
         <v>0.63900000000000001</v>
       </c>
       <c r="U186" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
         <v>5.7003124832214764</v>
       </c>
       <c r="V186" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(O186/1000)/10^12</f>
         <v>6.2451952941176474</v>
       </c>
       <c r="W186" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
         <v>2.3992840677966103</v>
       </c>
       <c r="X186" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA186" s="1"/>
       <c r="AC186" s="1"/>
@@ -6010,17 +6050,17 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P187" s="1">
         <v>0.17499999999999999</v>
       </c>
       <c r="R187" s="4">
-        <f t="shared" si="9"/>
+        <f>(D187-I187+1+2*K187)/M187</f>
         <v>54</v>
       </c>
       <c r="S187" s="4">
-        <f t="shared" si="10"/>
+        <f>(C187-H187+1+2*J187)/L187</f>
         <v>54</v>
       </c>
       <c r="T187" s="1">
@@ -6028,18 +6068,18 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="U187" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
         <v>1.3216650491803279</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W187" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
         <v>0.46069467428571431</v>
       </c>
       <c r="X187" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA187" s="1"/>
       <c r="AC187" s="1"/>
@@ -6088,11 +6128,11 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="R188" s="4">
-        <f t="shared" si="9"/>
+        <f>(D188-I188+1+2*K188)/M188</f>
         <v>54</v>
       </c>
       <c r="S188" s="4">
-        <f t="shared" si="10"/>
+        <f>(C188-H188+1+2*J188)/L188</f>
         <v>54</v>
       </c>
       <c r="T188" s="1">
@@ -6100,19 +6140,19 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="U188" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
         <v>5.7909992727272721</v>
       </c>
       <c r="V188" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(O188/1000)/10^12</f>
         <v>5.7715663892617455</v>
       </c>
       <c r="W188" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
         <v>3.0767921001788907</v>
       </c>
       <c r="X188" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA188" s="1"/>
       <c r="AC188" s="1"/>
@@ -6161,31 +6201,31 @@
         <v>0.497</v>
       </c>
       <c r="R189" s="4">
-        <f t="shared" si="9"/>
+        <f>(D189-I189+1+2*K189)/M189</f>
         <v>27</v>
       </c>
       <c r="S189" s="4">
-        <f t="shared" si="10"/>
+        <f>(C189-H189+1+2*J189)/L189</f>
         <v>27</v>
       </c>
       <c r="T189" s="1">
-        <f t="shared" ref="T189:T191" si="14">N189+O189+P189</f>
+        <f t="shared" ref="T189:T191" si="11">N189+O189+P189</f>
         <v>1.077</v>
       </c>
       <c r="U189" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
         <v>5.9307820137931033</v>
       </c>
       <c r="V189" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(O189/1000)/10^12</f>
         <v>5.9307820137931033</v>
       </c>
       <c r="W189" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
         <v>3.4606172716297783</v>
       </c>
       <c r="X189" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA189" s="1"/>
       <c r="AC189" s="1"/>
@@ -6234,31 +6274,31 @@
         <v>0.314</v>
       </c>
       <c r="R190" s="4">
-        <f t="shared" si="9"/>
+        <f>(D190-I190+1+2*K190)/M190</f>
         <v>14</v>
       </c>
       <c r="S190" s="4">
-        <f t="shared" si="10"/>
+        <f>(C190-H190+1+2*J190)/L190</f>
         <v>14</v>
       </c>
       <c r="T190" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.66300000000000003</v>
       </c>
       <c r="U190" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
         <v>5.6051153454545455</v>
       </c>
       <c r="V190" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(O190/1000)/10^12</f>
         <v>5.0263262608695651</v>
       </c>
       <c r="W190" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
         <v>2.945363159235669</v>
       </c>
       <c r="X190" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA190" s="1"/>
       <c r="AC190" s="1"/>
@@ -6307,31 +6347,31 @@
         <v>0.432</v>
       </c>
       <c r="R191" s="4">
-        <f t="shared" si="9"/>
+        <f>(D191-I191+1+2*K191)/M191</f>
         <v>7</v>
       </c>
       <c r="S191" s="4">
-        <f t="shared" si="10"/>
+        <f>(C191-H191+1+2*J191)/L191</f>
         <v>7</v>
       </c>
       <c r="T191" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>1.1639999999999999</v>
       </c>
       <c r="U191" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
         <v>2.4728450053475939</v>
       </c>
       <c r="V191" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(O191/1000)/10^12</f>
         <v>2.5833632178770953</v>
       </c>
       <c r="W191" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
         <v>2.1408426666666669</v>
       </c>
       <c r="X191" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA191" s="1"/>
       <c r="AC191" s="1"/>
@@ -6374,17 +6414,17 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P192" s="1">
         <v>1.899</v>
       </c>
       <c r="R192" s="4">
-        <f t="shared" si="9"/>
+        <f>(D192-I192+1+2*K192)/M192</f>
         <v>224</v>
       </c>
       <c r="S192" s="4">
-        <f t="shared" si="10"/>
+        <f>(C192-H192+1+2*J192)/L192</f>
         <v>224</v>
       </c>
       <c r="T192" s="1">
@@ -6392,18 +6432,18 @@
         <v>2.5720000000000001</v>
       </c>
       <c r="U192" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
         <v>2.0613165646359581</v>
       </c>
       <c r="V192" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W192" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
         <v>0.73052451184834122</v>
       </c>
       <c r="X192" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA192" s="1"/>
       <c r="AC192" s="1"/>
@@ -6452,11 +6492,11 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="R193" s="4">
-        <f t="shared" si="9"/>
+        <f>(D193-I193+1+2*K193)/M193</f>
         <v>112</v>
       </c>
       <c r="S193" s="4">
-        <f t="shared" si="10"/>
+        <f>(C193-H193+1+2*J193)/L193</f>
         <v>112</v>
       </c>
       <c r="T193" s="1">
@@ -6464,19 +6504,19 @@
         <v>7.2859999999999996</v>
       </c>
       <c r="U193" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
         <v>7.8128323717001065</v>
       </c>
       <c r="V193" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(O193/1000)/10^12</f>
         <v>8.5782634852173913</v>
       </c>
       <c r="W193" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
         <v>4.0353162017998372</v>
       </c>
       <c r="X193" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA193" s="1"/>
       <c r="AC193" s="1"/>
@@ -6526,31 +6566,31 @@
         <v>3.3759999999999999</v>
       </c>
       <c r="R194" s="4">
-        <f t="shared" si="9"/>
+        <f>(D194-I194+1+2*K194)/M194</f>
         <v>56</v>
       </c>
       <c r="S194" s="4">
-        <f t="shared" si="10"/>
+        <f>(C194-H194+1+2*J194)/L194</f>
         <v>56</v>
       </c>
       <c r="T194" s="1">
-        <f t="shared" ref="T194:T197" si="15">N194+O194+P194</f>
+        <f t="shared" ref="T194:T197" si="12">N194+O194+P194</f>
         <v>12.074999999999999</v>
       </c>
       <c r="U194" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
         <v>2.1602196367883213</v>
       </c>
       <c r="V194" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(O194/1000)/10^12</f>
         <v>8.002977021092482</v>
       </c>
       <c r="W194" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
         <v>4.3831470710900478</v>
       </c>
       <c r="X194" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA194" s="1"/>
       <c r="AC194" s="1"/>
@@ -6600,31 +6640,31 @@
         <v>3.5739999999999998</v>
       </c>
       <c r="R195" s="4">
-        <f t="shared" si="9"/>
+        <f>(D195-I195+1+2*K195)/M195</f>
         <v>28</v>
       </c>
       <c r="S195" s="4">
-        <f t="shared" si="10"/>
+        <f>(C195-H195+1+2*J195)/L195</f>
         <v>28</v>
       </c>
       <c r="T195" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>7.4039999999999999</v>
       </c>
       <c r="U195" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
         <v>7.5190571707317071</v>
       </c>
       <c r="V195" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(O195/1000)/10^12</f>
         <v>7.9471023157894729</v>
       </c>
       <c r="W195" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
         <v>4.1403202327923898</v>
       </c>
       <c r="X195" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA195" s="1"/>
       <c r="AC195" s="1"/>
@@ -6673,31 +6713,31 @@
         <v>2.1240000000000001</v>
       </c>
       <c r="R196" s="4">
-        <f t="shared" si="9"/>
+        <f>(D196-I196+1+2*K196)/M196</f>
         <v>14</v>
       </c>
       <c r="S196" s="4">
-        <f t="shared" si="10"/>
+        <f>(C196-H196+1+2*J196)/L196</f>
         <v>14</v>
       </c>
       <c r="T196" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>4.2650000000000006</v>
       </c>
       <c r="U196" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
         <v>6.7630276563071288</v>
       </c>
       <c r="V196" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(O196/1000)/10^12</f>
         <v>7.066621065902579</v>
       </c>
       <c r="W196" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
         <v>3.4834050169491522</v>
       </c>
       <c r="X196" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA196" s="1"/>
       <c r="AC196" s="1"/>
@@ -6746,31 +6786,31 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="R197" s="4">
-        <f t="shared" si="9"/>
+        <f>(D197-I197+1+2*K197)/M197</f>
         <v>7</v>
       </c>
       <c r="S197" s="4">
-        <f t="shared" si="10"/>
+        <f>(C197-H197+1+2*J197)/L197</f>
         <v>7</v>
       </c>
       <c r="T197" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>2.1790000000000003</v>
       </c>
       <c r="U197" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
         <v>2.6199547648725217</v>
       </c>
       <c r="V197" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(O197/1000)/10^12</f>
         <v>2.7983177972768529</v>
       </c>
       <c r="W197" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
         <v>2.2779409655172413</v>
       </c>
       <c r="X197" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA197" s="1"/>
       <c r="AC197" s="1"/>
@@ -6813,17 +6853,17 @@
         <v>1.3169999999999999</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P198" s="1">
         <v>3.665</v>
       </c>
       <c r="R198" s="4">
-        <f t="shared" si="9"/>
+        <f>(D198-I198+1+2*K198)/M198</f>
         <v>224</v>
       </c>
       <c r="S198" s="4">
-        <f t="shared" si="10"/>
+        <f>(C198-H198+1+2*J198)/L198</f>
         <v>224</v>
       </c>
       <c r="T198" s="1">
@@ -6831,18 +6871,18 @@
         <v>4.9820000000000002</v>
       </c>
       <c r="U198" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
         <v>2.1067062232346241</v>
       </c>
       <c r="V198" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W198" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
         <v>0.75703467830832205</v>
       </c>
       <c r="X198" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA198" s="1"/>
       <c r="AC198" s="1"/>
@@ -6891,11 +6931,11 @@
         <v>7.1449999999999996</v>
       </c>
       <c r="R199" s="4">
-        <f t="shared" si="9"/>
+        <f>(D199-I199+1+2*K199)/M199</f>
         <v>112</v>
       </c>
       <c r="S199" s="4">
-        <f t="shared" si="10"/>
+        <f>(C199-H199+1+2*J199)/L199</f>
         <v>112</v>
       </c>
       <c r="T199" s="1">
@@ -6903,19 +6943,19 @@
         <v>14.311999999999999</v>
       </c>
       <c r="U199" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
         <v>7.8731069497206709</v>
       </c>
       <c r="V199" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(O199/1000)/10^12</f>
         <v>8.6839815211267606</v>
       </c>
       <c r="W199" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
         <v>4.1420586457662703</v>
       </c>
       <c r="X199" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA199" s="1"/>
       <c r="AC199" s="1"/>
@@ -6965,31 +7005,31 @@
         <v>6.4320000000000004</v>
       </c>
       <c r="R200" s="4">
-        <f t="shared" si="9"/>
+        <f>(D200-I200+1+2*K200)/M200</f>
         <v>56</v>
       </c>
       <c r="S200" s="4">
-        <f t="shared" si="10"/>
+        <f>(C200-H200+1+2*J200)/L200</f>
         <v>56</v>
       </c>
       <c r="T200" s="1">
-        <f t="shared" ref="T200:T203" si="16">N200+O200+P200</f>
+        <f t="shared" ref="T200:T203" si="13">N200+O200+P200</f>
         <v>28.115000000000002</v>
       </c>
       <c r="U200" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
         <v>2.7827935142454159</v>
       </c>
       <c r="V200" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(O200/1000)/10^12</f>
         <v>2.6787662041998548</v>
       </c>
       <c r="W200" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
         <v>4.6012140895522382</v>
       </c>
       <c r="X200" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AA200" s="1"/>
       <c r="AC200" s="1"/>
@@ -7039,31 +7079,31 @@
         <v>6.7119999999999997</v>
       </c>
       <c r="R201" s="4">
-        <f t="shared" si="9"/>
+        <f>(D201-I201+1+2*K201)/M201</f>
         <v>28</v>
       </c>
       <c r="S201" s="4">
-        <f t="shared" si="10"/>
+        <f>(C201-H201+1+2*J201)/L201</f>
         <v>28</v>
       </c>
       <c r="T201" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>14.167999999999999</v>
       </c>
       <c r="U201" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
         <v>7.681030112639502</v>
       </c>
       <c r="V201" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(O201/1000)/10^12</f>
         <v>8.2139908476269774</v>
       </c>
       <c r="W201" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
         <v>4.4092683289630505</v>
       </c>
       <c r="X201" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA201" s="1"/>
       <c r="AC201" s="1"/>
@@ -7112,31 +7152,31 @@
         <v>3.6</v>
       </c>
       <c r="R202" s="4">
-        <f t="shared" si="9"/>
+        <f>(D202-I202+1+2*K202)/M202</f>
         <v>14</v>
       </c>
       <c r="S202" s="4">
-        <f t="shared" si="10"/>
+        <f>(C202-H202+1+2*J202)/L202</f>
         <v>14</v>
       </c>
       <c r="T202" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>7.5879999999999992</v>
       </c>
       <c r="U202" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
         <v>7.2894110896551743</v>
       </c>
       <c r="V202" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(O202/1000)/10^12</f>
         <v>7.5574588927477011</v>
       </c>
       <c r="W202" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
         <v>4.1104179199999997</v>
       </c>
       <c r="X202" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA202" s="1"/>
       <c r="AC202" s="1"/>
@@ -7185,31 +7225,31 @@
         <v>2.593</v>
       </c>
       <c r="R203" s="4">
-        <f t="shared" si="9"/>
+        <f>(D203-I203+1+2*K203)/M203</f>
         <v>7</v>
       </c>
       <c r="S203" s="4">
-        <f t="shared" si="10"/>
+        <f>(C203-H203+1+2*J203)/L203</f>
         <v>7</v>
       </c>
       <c r="T203" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>4.9279999999999999</v>
       </c>
       <c r="U203" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
         <v>3.1009020352053644</v>
       </c>
       <c r="V203" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(O203/1000)/10^12</f>
         <v>3.2393836497373028</v>
       </c>
       <c r="W203" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
         <v>1.4266780285383727</v>
       </c>
       <c r="X203" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA203" s="1"/>
       <c r="AC203" s="1"/>
@@ -7252,17 +7292,17 @@
         <v>1.016</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P204" s="1">
         <v>2.2530000000000001</v>
       </c>
       <c r="R204" s="4">
-        <f t="shared" si="9"/>
+        <f>(D204-I204+1+2*K204)/M204</f>
         <v>112</v>
       </c>
       <c r="S204" s="4">
-        <f t="shared" si="10"/>
+        <f>(C204-H204+1+2*J204)/L204</f>
         <v>112</v>
       </c>
       <c r="T204" s="1">
@@ -7270,18 +7310,18 @@
         <v>3.2690000000000001</v>
       </c>
       <c r="U204" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
         <v>3.7169748661417326</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W204" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
         <v>1.6761857363515309</v>
       </c>
       <c r="X204" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA204" s="1"/>
       <c r="AC204" s="1"/>
@@ -7330,11 +7370,11 @@
         <v>1.175</v>
       </c>
       <c r="R205" s="4">
-        <f t="shared" si="9"/>
+        <f>(D205-I205+1+2*K205)/M205</f>
         <v>28</v>
       </c>
       <c r="S205" s="4">
-        <f t="shared" si="10"/>
+        <f>(C205-H205+1+2*J205)/L205</f>
         <v>28</v>
       </c>
       <c r="T205" s="1">
@@ -7342,19 +7382,19 @@
         <v>3.0190000000000001</v>
       </c>
       <c r="U205" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
         <v>3.2740159728122342</v>
       </c>
       <c r="V205" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>5.7773865067466259</v>
       </c>
       <c r="W205" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
         <v>3.2795887659574467</v>
       </c>
       <c r="X205" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA205" s="1"/>
       <c r="AC205" s="1"/>
@@ -7403,31 +7443,31 @@
         <v>0.218</v>
       </c>
       <c r="R206" s="4">
-        <f t="shared" si="9"/>
+        <f>(D206-I206+1+2*K206)/M206</f>
         <v>28</v>
       </c>
       <c r="S206" s="4">
-        <f t="shared" si="10"/>
+        <f>(C206-H206+1+2*J206)/L206</f>
         <v>28</v>
       </c>
       <c r="T206" s="1">
-        <f t="shared" ref="T206:T228" si="17">N206+O206+P206</f>
+        <f t="shared" ref="T206:T228" si="14">N206+O206+P206</f>
         <v>0.48199999999999998</v>
       </c>
       <c r="U206" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
         <v>2.4274121574803149</v>
       </c>
       <c r="V206" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
         <v>2.2502287883211674</v>
       </c>
       <c r="W206" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
         <v>1.4141346055045871</v>
       </c>
       <c r="X206" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA206" s="1"/>
       <c r="AC206" s="1"/>
@@ -7476,31 +7516,31 @@
         <v>1.974</v>
       </c>
       <c r="R207" s="4">
-        <f t="shared" si="9"/>
+        <f>(D207-I207+1+2*K207)/M207</f>
         <v>14</v>
       </c>
       <c r="S207" s="4">
-        <f t="shared" si="10"/>
+        <f>(C207-H207+1+2*J207)/L207</f>
         <v>14</v>
       </c>
       <c r="T207" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>6.891</v>
       </c>
       <c r="U207" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>1.2939948959032908</v>
       </c>
       <c r="V207" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
         <v>1.9873732851985559</v>
       </c>
       <c r="W207" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>1.952136170212766</v>
       </c>
       <c r="X207" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA207" s="1"/>
       <c r="AC207" s="1"/>
@@ -7549,31 +7589,31 @@
         <v>0.314</v>
       </c>
       <c r="R208" s="4">
-        <f t="shared" si="9"/>
+        <f>(D208-I208+1+2*K208)/M208</f>
         <v>14</v>
       </c>
       <c r="S208" s="4">
-        <f t="shared" si="10"/>
+        <f>(C208-H208+1+2*J208)/L208</f>
         <v>14</v>
       </c>
       <c r="T208" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.72300000000000009</v>
       </c>
       <c r="U208" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
         <v>2.9930227572815538</v>
       </c>
       <c r="V208" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
         <v>3.0372546206896551</v>
       </c>
       <c r="W208" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
         <v>1.9635754394904461</v>
       </c>
       <c r="X208" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA208" s="1"/>
       <c r="AC208" s="1"/>
@@ -7622,31 +7662,31 @@
         <v>0.221</v>
       </c>
       <c r="R209" s="4">
-        <f t="shared" si="9"/>
+        <f>(D209-I209+1+2*K209)/M209</f>
         <v>7</v>
       </c>
       <c r="S209" s="4">
-        <f t="shared" si="10"/>
+        <f>(C209-H209+1+2*J209)/L209</f>
         <v>7</v>
       </c>
       <c r="T209" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.56399999999999995</v>
       </c>
       <c r="U209" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
         <v>1.8451461657458565</v>
       </c>
       <c r="V209" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
         <v>2.0615521975308639</v>
       </c>
       <c r="W209" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
         <v>1.5111830588235293</v>
       </c>
       <c r="X209" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA209" s="1"/>
       <c r="AC209" s="1"/>
@@ -7695,31 +7735,31 @@
         <v>1.3520000000000001</v>
       </c>
       <c r="R210" s="4">
-        <f t="shared" si="9"/>
+        <f>(D210-I210+1+2*K210)/M210</f>
         <v>7</v>
       </c>
       <c r="S210" s="4">
-        <f t="shared" si="10"/>
+        <f>(C210-H210+1+2*J210)/L210</f>
         <v>7</v>
       </c>
       <c r="T210" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>4.694</v>
       </c>
       <c r="U210" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
         <v>3.1843197559115182</v>
       </c>
       <c r="V210" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
         <v>2.0554619399310683</v>
       </c>
       <c r="W210" s="1">
-        <f t="shared" si="11"/>
+        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
         <v>3.0877538461538458</v>
       </c>
       <c r="X210" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AA210" s="1"/>
       <c r="AC210" s="1"/>
@@ -7768,31 +7808,31 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="R211" s="4">
-        <f t="shared" si="9"/>
+        <f>(D211-I211+1+2*K211)/M211</f>
         <v>56</v>
       </c>
       <c r="S211" s="4">
-        <f t="shared" si="10"/>
+        <f>(C211-H211+1+2*J211)/L211</f>
         <v>56</v>
       </c>
       <c r="T211" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.1829999999999998</v>
       </c>
       <c r="U211" s="1">
-        <f t="shared" ref="U211:W228" si="18">(2*$R211*$S211*$F211*$G211*$E211*$H211*$I211)/(N211/1000)/10^12</f>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
         <v>6.1247949139072855</v>
       </c>
       <c r="V211" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
         <v>6.1247949139072855</v>
       </c>
       <c r="W211" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
         <v>3.1946253264248705</v>
       </c>
       <c r="X211" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="212" spans="2:29">
@@ -7839,31 +7879,31 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="R212" s="4">
-        <f t="shared" si="9"/>
+        <f>(D212-I212+1+2*K212)/M212</f>
         <v>28</v>
       </c>
       <c r="S212" s="4">
-        <f t="shared" si="10"/>
+        <f>(C212-H212+1+2*J212)/L212</f>
         <v>28</v>
       </c>
       <c r="T212" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.436</v>
       </c>
       <c r="U212" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
         <v>2.0971519999999999</v>
       </c>
       <c r="V212" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
         <v>1.2845055999999999</v>
       </c>
       <c r="W212" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
         <v>1.1546117752808989</v>
       </c>
       <c r="X212" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="213" spans="2:29">
@@ -7910,31 +7950,31 @@
         <v>0.59</v>
       </c>
       <c r="R213" s="4">
-        <f t="shared" si="9"/>
+        <f>(D213-I213+1+2*K213)/M213</f>
         <v>28</v>
       </c>
       <c r="S213" s="4">
-        <f t="shared" si="10"/>
+        <f>(C213-H213+1+2*J213)/L213</f>
         <v>28</v>
       </c>
       <c r="T213" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.1559999999999999</v>
       </c>
       <c r="U213" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
         <v>6.5360002261484098</v>
       </c>
       <c r="V213" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
         <v>6.5360002261484098</v>
       </c>
       <c r="W213" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
         <v>3.1350645152542378</v>
       </c>
       <c r="X213" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="214" spans="2:29">
@@ -7982,31 +8022,31 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="R214" s="4">
-        <f t="shared" si="9"/>
+        <f>(D214-I214+1+2*K214)/M214</f>
         <v>14</v>
       </c>
       <c r="S214" s="4">
-        <f t="shared" si="10"/>
+        <f>(C214-H214+1+2*J214)/L214</f>
         <v>14</v>
       </c>
       <c r="T214" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="U214" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
         <v>2.1633778526315788</v>
       </c>
       <c r="V214" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
         <v>0.92576980180180179</v>
       </c>
       <c r="W214" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
         <v>1.4892818550724636</v>
       </c>
       <c r="X214" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="215" spans="2:29">
@@ -8053,31 +8093,31 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="R215" s="4">
-        <f t="shared" si="9"/>
+        <f>(D215-I215+1+2*K215)/M215</f>
         <v>14</v>
       </c>
       <c r="S215" s="4">
-        <f t="shared" si="10"/>
+        <f>(C215-H215+1+2*J215)/L215</f>
         <v>14</v>
       </c>
       <c r="T215" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.35599999999999998</v>
       </c>
       <c r="U215" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
         <v>1.9207560373831776</v>
       </c>
       <c r="V215" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
         <v>1.7717318620689655</v>
       </c>
       <c r="W215" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
         <v>1.545269894736842</v>
       </c>
       <c r="X215" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="2:29">
@@ -8124,31 +8164,31 @@
         <v>0.439</v>
       </c>
       <c r="R216" s="4">
-        <f t="shared" si="9"/>
+        <f>(D216-I216+1+2*K216)/M216</f>
         <v>14</v>
       </c>
       <c r="S216" s="4">
-        <f t="shared" si="10"/>
+        <f>(C216-H216+1+2*J216)/L216</f>
         <v>14</v>
       </c>
       <c r="T216" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.032</v>
       </c>
       <c r="U216" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
         <v>6.2070069261744969</v>
       </c>
       <c r="V216" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
         <v>6.2701290305084756</v>
       </c>
       <c r="W216" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
         <v>4.2134124464692482</v>
       </c>
       <c r="X216" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="217" spans="2:29">
@@ -8196,31 +8236,31 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="R217" s="4">
-        <f t="shared" si="9"/>
+        <f>(D217-I217+1+2*K217)/M217</f>
         <v>7</v>
       </c>
       <c r="S217" s="4">
-        <f t="shared" si="10"/>
+        <f>(C217-H217+1+2*J217)/L217</f>
         <v>7</v>
       </c>
       <c r="T217" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.45199999999999996</v>
       </c>
       <c r="U217" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
         <v>1.8515396036036036</v>
       </c>
       <c r="V217" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
         <v>1.0704213333333332</v>
       </c>
       <c r="W217" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
         <v>1.3793348724832217</v>
       </c>
       <c r="X217" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="2:29">
@@ -8268,31 +8308,31 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="R218" s="4">
-        <f t="shared" si="9"/>
+        <f>(D218-I218+1+2*K218)/M218</f>
         <v>7</v>
       </c>
       <c r="S218" s="4">
-        <f t="shared" si="10"/>
+        <f>(C218-H218+1+2*J218)/L218</f>
         <v>7</v>
       </c>
       <c r="T218" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.36199999999999999</v>
       </c>
       <c r="U218" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
         <v>1.8855128073394498</v>
       </c>
       <c r="V218" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
         <v>1.7717318620689655</v>
       </c>
       <c r="W218" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
         <v>1.500152525547445</v>
       </c>
       <c r="X218" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="219" spans="2:29">
@@ -8340,31 +8380,31 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="R219" s="4">
-        <f t="shared" si="9"/>
+        <f>(D219-I219+1+2*K219)/M219</f>
         <v>6.5</v>
       </c>
       <c r="S219" s="4">
-        <f t="shared" si="10"/>
+        <f>(C219-H219+1+2*J219)/L219</f>
         <v>6.5</v>
       </c>
       <c r="T219" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.304</v>
       </c>
       <c r="U219" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
         <v>1.8036574452926208</v>
       </c>
       <c r="V219" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
         <v>1.5476798602620088</v>
       </c>
       <c r="W219" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
         <v>1.5647624194260485</v>
       </c>
       <c r="X219" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="2:29">
@@ -8411,31 +8451,31 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="R220" s="4">
-        <f t="shared" si="9"/>
+        <f>(D220-I220+1+2*K220)/M220</f>
         <v>56</v>
       </c>
       <c r="S220" s="4">
-        <f t="shared" si="10"/>
+        <f>(C220-H220+1+2*J220)/L220</f>
         <v>56</v>
       </c>
       <c r="T220" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>2.2149999999999999</v>
       </c>
       <c r="U220" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
         <v>6.5015397680140605</v>
       </c>
       <c r="V220" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
         <v>6.4901335578947377</v>
       </c>
       <c r="W220" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
         <v>3.4380819033457244</v>
       </c>
       <c r="X220" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="221" spans="2:29">
@@ -8482,31 +8522,31 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="R221" s="4">
-        <f t="shared" si="9"/>
+        <f>(D221-I221+1+2*K221)/M221</f>
         <v>28</v>
       </c>
       <c r="S221" s="4">
-        <f t="shared" si="10"/>
+        <f>(C221-H221+1+2*J221)/L221</f>
         <v>28</v>
       </c>
       <c r="T221" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="U221" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
         <v>2.553054608695652</v>
       </c>
       <c r="V221" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
         <v>1.1079293584905658</v>
       </c>
       <c r="W221" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
         <v>1.2570085382262997</v>
       </c>
       <c r="X221" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="222" spans="2:29">
@@ -8553,31 +8593,31 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="R222" s="4">
-        <f t="shared" si="9"/>
+        <f>(D222-I222+1+2*K222)/M222</f>
         <v>28</v>
       </c>
       <c r="S222" s="4">
-        <f t="shared" si="10"/>
+        <f>(C222-H222+1+2*J222)/L222</f>
         <v>28</v>
       </c>
       <c r="T222" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.9690000000000001</v>
       </c>
       <c r="U222" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
         <v>7.1278923468208086</v>
       </c>
       <c r="V222" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
         <v>7.1278923468208086</v>
       </c>
       <c r="W222" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
         <v>3.9735511578947365</v>
       </c>
       <c r="X222" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="2:29">
@@ -8624,31 +8664,31 @@
         <v>0.224</v>
       </c>
       <c r="R223" s="4">
-        <f t="shared" si="9"/>
+        <f>(D223-I223+1+2*K223)/M223</f>
         <v>14</v>
       </c>
       <c r="S223" s="4">
-        <f t="shared" si="10"/>
+        <f>(C223-H223+1+2*J223)/L223</f>
         <v>14</v>
       </c>
       <c r="T223" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.79199999999999993</v>
       </c>
       <c r="U223" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
         <v>1.4524444946996466</v>
       </c>
       <c r="V223" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
         <v>1.442251901754386</v>
       </c>
       <c r="W223" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
         <v>1.835008</v>
       </c>
       <c r="X223" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224" spans="2:29">
@@ -8696,34 +8736,34 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="R224" s="4">
-        <f t="shared" si="9"/>
+        <f>(D224-I224+1+2*K224)/M224</f>
         <v>14</v>
       </c>
       <c r="S224" s="4">
-        <f t="shared" si="10"/>
+        <f>(C224-H224+1+2*J224)/L224</f>
         <v>14</v>
       </c>
       <c r="T224" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.51</v>
       </c>
       <c r="U224" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
         <v>2.7042223157894738</v>
       </c>
       <c r="V224" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
         <v>2.5372950123456786</v>
       </c>
       <c r="W224" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
         <v>2.0971519999999999</v>
       </c>
       <c r="X224" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="2:24">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8767,34 +8807,34 @@
         <v>0.625</v>
       </c>
       <c r="R225" s="4">
-        <f t="shared" si="9"/>
+        <f>(D225-I225+1+2*K225)/M225</f>
         <v>14</v>
       </c>
       <c r="S225" s="4">
-        <f t="shared" si="10"/>
+        <f>(C225-H225+1+2*J225)/L225</f>
         <v>14</v>
       </c>
       <c r="T225" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>1.764</v>
       </c>
       <c r="U225" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
         <v>6.9406681575984983</v>
       </c>
       <c r="V225" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
         <v>6.1045810693069305</v>
       </c>
       <c r="W225" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
         <v>5.9190018047999997</v>
       </c>
       <c r="X225" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="226" spans="2:24">
       <c r="C226" s="2">
         <v>14</v>
       </c>
@@ -8838,34 +8878,34 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="R226" s="4">
-        <f t="shared" si="9"/>
+        <f>(D226-I226+1+2*K226)/M226</f>
         <v>7</v>
       </c>
       <c r="S226" s="4">
-        <f t="shared" si="10"/>
+        <f>(C226-H226+1+2*J226)/L226</f>
         <v>7</v>
       </c>
       <c r="T226" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.61599999999999999</v>
       </c>
       <c r="U226" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
         <v>2.5372950123456786</v>
       </c>
       <c r="V226" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
         <v>1.6441671680000001</v>
       </c>
       <c r="W226" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
         <v>2.0149107450980392</v>
       </c>
       <c r="X226" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="2:24">
       <c r="B227" s="2"/>
       <c r="C227">
         <v>7</v>
@@ -8910,34 +8950,34 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="R227" s="4">
-        <f t="shared" si="9"/>
+        <f>(D227-I227+1+2*K227)/M227</f>
         <v>7</v>
       </c>
       <c r="S227" s="4">
-        <f t="shared" si="10"/>
+        <f>(C227-H227+1+2*J227)/L227</f>
         <v>7</v>
       </c>
       <c r="T227" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>0.57899999999999996</v>
       </c>
       <c r="U227" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
         <v>2.186392510638298</v>
       </c>
       <c r="V227" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
         <v>2.0865065583756341</v>
       </c>
       <c r="W227" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
         <v>2.1187721237113402</v>
       </c>
       <c r="X227" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="2:24">
       <c r="B228" s="2"/>
       <c r="C228">
         <v>7</v>
@@ -8982,34 +9022,34 @@
         <v>0.82</v>
       </c>
       <c r="R228" s="4">
-        <f t="shared" si="9"/>
+        <f>(D228-I228+1+2*K228)/M228</f>
         <v>6.5</v>
       </c>
       <c r="S228" s="4">
-        <f t="shared" si="10"/>
+        <f>(C228-H228+1+2*J228)/L228</f>
         <v>6.5</v>
       </c>
       <c r="T228" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>2.3359999999999999</v>
       </c>
       <c r="U228" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
         <v>2.1447424387291978</v>
       </c>
       <c r="V228" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
         <v>1.6580991251461989</v>
       </c>
       <c r="W228" s="1">
-        <f t="shared" si="18"/>
+        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
         <v>1.7288716487804878</v>
       </c>
       <c r="X228" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="2:24">
       <c r="B229" s="2"/>
       <c r="C229">
         <v>700</v>
@@ -9048,17 +9088,17 @@
         <v>0.72</v>
       </c>
       <c r="O229" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P229">
         <v>2.11</v>
       </c>
       <c r="R229" s="4">
-        <f t="shared" si="9"/>
+        <f>(D229-I229+1+2*K229)/M229</f>
         <v>79.5</v>
       </c>
       <c r="S229" s="4">
-        <f t="shared" si="10"/>
+        <f>(C229-H229+1+2*J229)/L229</f>
         <v>349</v>
       </c>
       <c r="T229" s="1">
@@ -9066,21 +9106,21 @@
         <v>2.83</v>
       </c>
       <c r="U229" s="1">
-        <f t="shared" ref="U229:V268" si="19">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(N229/1000)/10^12</f>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
         <v>1.9730133333333335</v>
       </c>
       <c r="V229" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="W229" s="1">
-        <f t="shared" ref="W229:W268" si="20">(2*$R229*$S229*$F229*$G229*$E229*$H229*$I229)/(P229/1000)/10^12</f>
+        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
         <v>0.67325573459715637</v>
       </c>
       <c r="X229" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="2:24">
       <c r="B230" s="2"/>
       <c r="C230">
         <v>350</v>
@@ -9125,34 +9165,34 @@
         <v>10.319000000000001</v>
       </c>
       <c r="R230" s="4">
-        <f t="shared" si="9"/>
+        <f>(D230-I230+1+2*K230)/M230</f>
         <v>80</v>
       </c>
       <c r="S230" s="4">
-        <f t="shared" si="10"/>
+        <f>(C230-H230+1+2*J230)/L230</f>
         <v>350</v>
       </c>
       <c r="T230" s="1">
-        <f t="shared" ref="T230:T268" si="21">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="15">N230+O230+P230</f>
         <v>18.944000000000003</v>
       </c>
       <c r="U230" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
         <v>7.6636064965197228</v>
       </c>
       <c r="V230" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>7.6547263035921205</v>
       </c>
       <c r="W230" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
         <v>3.2009055141002034</v>
       </c>
       <c r="X230" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="231" spans="2:24">
       <c r="B231" s="2"/>
       <c r="C231">
         <v>350</v>
@@ -9197,34 +9237,34 @@
         <v>10.050000000000001</v>
       </c>
       <c r="R231" s="4">
-        <f t="shared" si="9"/>
+        <f>(D231-I231+1+2*K231)/M231</f>
         <v>39</v>
       </c>
       <c r="S231" s="4">
-        <f t="shared" si="10"/>
+        <f>(C231-H231+1+2*J231)/L231</f>
         <v>174</v>
       </c>
       <c r="T231" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>40.265000000000001</v>
       </c>
       <c r="U231" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
         <v>4.8115037974683545</v>
       </c>
       <c r="V231" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
         <v>2.1205764638565707</v>
       </c>
       <c r="W231" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
         <v>4.4251472238805967</v>
       </c>
       <c r="X231" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="2:24">
       <c r="B232" s="2"/>
       <c r="C232">
         <v>175</v>
@@ -9269,34 +9309,34 @@
         <v>7.391</v>
       </c>
       <c r="R232" s="4">
-        <f t="shared" si="9"/>
+        <f>(D232-I232+1+2*K232)/M232</f>
         <v>40</v>
       </c>
       <c r="S232" s="4">
-        <f t="shared" si="10"/>
+        <f>(C232-H232+1+2*J232)/L232</f>
         <v>175</v>
       </c>
       <c r="T232" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>14.782</v>
       </c>
       <c r="U232" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
         <v>8.9102087941731849</v>
       </c>
       <c r="V232" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
         <v>8.9658371335504885</v>
       </c>
       <c r="W232" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
         <v>4.4689682045731303</v>
       </c>
       <c r="X232" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="233" spans="2:24">
       <c r="B233" s="2"/>
       <c r="C233">
         <v>175</v>
@@ -9341,34 +9381,34 @@
         <v>9.359</v>
       </c>
       <c r="R233" s="4">
-        <f t="shared" si="9"/>
+        <f>(D233-I233+1+2*K233)/M233</f>
         <v>19</v>
       </c>
       <c r="S233" s="4">
-        <f t="shared" si="10"/>
+        <f>(C233-H233+1+2*J233)/L233</f>
         <v>86.5</v>
       </c>
       <c r="T233" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>34.680999999999997</v>
       </c>
       <c r="U233" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
         <v>4.6947113871635615</v>
       </c>
       <c r="V233" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
         <v>2.6685268751935585</v>
       </c>
       <c r="W233" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
         <v>4.6034155785874562</v>
       </c>
       <c r="X233" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="234" spans="2:24">
       <c r="B234" s="2"/>
       <c r="C234">
         <v>84</v>
@@ -9413,34 +9453,34 @@
         <v>6.2809999999999997</v>
       </c>
       <c r="R234" s="4">
-        <f t="shared" si="9"/>
+        <f>(D234-I234+1+2*K234)/M234</f>
         <v>20</v>
       </c>
       <c r="S234" s="4">
-        <f t="shared" si="10"/>
+        <f>(C234-H234+1+2*J234)/L234</f>
         <v>84</v>
       </c>
       <c r="T234" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>13.024000000000001</v>
       </c>
       <c r="U234" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
         <v>9.348153962264151</v>
       </c>
       <c r="V234" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
         <v>9.4625300626678612</v>
       </c>
       <c r="W234" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
         <v>5.0483901034867058</v>
       </c>
       <c r="X234" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="235" spans="2:24">
       <c r="B235" s="2"/>
       <c r="C235">
         <v>84</v>
@@ -9485,34 +9525,34 @@
         <v>8.5009999999999994</v>
       </c>
       <c r="R235" s="4">
-        <f t="shared" si="9"/>
+        <f>(D235-I235+1+2*K235)/M235</f>
         <v>9</v>
       </c>
       <c r="S235" s="4">
-        <f t="shared" si="10"/>
+        <f>(C235-H235+1+2*J235)/L235</f>
         <v>41</v>
       </c>
       <c r="T235" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>29.792999999999999</v>
       </c>
       <c r="U235" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
         <v>4.7318643023113616</v>
       </c>
       <c r="V235" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
         <v>2.9502443309187956</v>
       </c>
       <c r="W235" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
         <v>4.55151798611928</v>
       </c>
       <c r="X235" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="236" spans="2:24">
       <c r="B236" s="2"/>
       <c r="C236">
         <v>42</v>
@@ -9557,35 +9597,34 @@
         <v>2.907</v>
       </c>
       <c r="R236" s="4">
-        <f t="shared" si="9"/>
+        <f>(D236-I236+1+2*K236)/M236</f>
         <v>10</v>
       </c>
       <c r="S236" s="4">
-        <f t="shared" si="10"/>
+        <f>(C236-H236+1+2*J236)/L236</f>
         <v>42</v>
       </c>
       <c r="T236" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>10.849</v>
       </c>
       <c r="U236" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
         <v>8.0032655830388695</v>
       </c>
       <c r="V236" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
         <v>7.967069909547738</v>
       </c>
       <c r="W236" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
         <v>10.907787492260063</v>
       </c>
       <c r="X236" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24">
-      <c r="A237" s="2"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="237" spans="2:24">
       <c r="B237" s="2"/>
       <c r="C237">
         <v>112</v>
@@ -9630,35 +9669,34 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="R237" s="4">
-        <f t="shared" si="9"/>
+        <f>(D237-I237+1+2*K237)/M237</f>
         <v>112</v>
       </c>
       <c r="S237" s="4">
-        <f t="shared" si="10"/>
+        <f>(C237-H237+1+2*J237)/L237</f>
         <v>112</v>
       </c>
       <c r="T237" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.5169999999999999</v>
       </c>
       <c r="U237" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
         <v>2.9255643558718858</v>
       </c>
       <c r="V237" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
         <v>2.6518825290322585</v>
       </c>
       <c r="W237" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
         <v>0.88777924838012956</v>
       </c>
       <c r="X237" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24">
-      <c r="A238" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="2:24">
       <c r="B238" s="2"/>
       <c r="C238">
         <v>56</v>
@@ -9703,35 +9741,34 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="R238" s="4">
-        <f t="shared" si="9"/>
+        <f>(D238-I238+1+2*K238)/M238</f>
         <v>56</v>
       </c>
       <c r="S238" s="4">
-        <f t="shared" si="10"/>
+        <f>(C238-H238+1+2*J238)/L238</f>
         <v>56</v>
       </c>
       <c r="T238" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="U238" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
         <v>2.8644027317073175</v>
       </c>
       <c r="V238" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
         <v>3.0223661176470591</v>
       </c>
       <c r="W238" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
         <v>1.5481800075329568</v>
       </c>
       <c r="X238" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24">
-      <c r="A239" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239" spans="2:24">
       <c r="B239" s="2"/>
       <c r="C239">
         <v>56</v>
@@ -9776,35 +9813,34 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="R239" s="4">
-        <f t="shared" si="9"/>
+        <f>(D239-I239+1+2*K239)/M239</f>
         <v>56</v>
       </c>
       <c r="S239" s="4">
-        <f t="shared" si="10"/>
+        <f>(C239-H239+1+2*J239)/L239</f>
         <v>56</v>
       </c>
       <c r="T239" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.139</v>
       </c>
       <c r="U239" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>3.236549543307087</v>
       </c>
       <c r="V239" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
         <v>2.7221310728476826</v>
       </c>
       <c r="W239" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>1.4100919108061751</v>
       </c>
       <c r="X239" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24">
-      <c r="A240" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="2:24">
       <c r="B240" s="2"/>
       <c r="C240">
         <v>56</v>
@@ -9849,35 +9885,34 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="R240" s="4">
-        <f t="shared" si="9"/>
+        <f>(D240-I240+1+2*K240)/M240</f>
         <v>28</v>
       </c>
       <c r="S240" s="4">
-        <f t="shared" si="10"/>
+        <f>(C240-H240+1+2*J240)/L240</f>
         <v>28</v>
       </c>
       <c r="T240" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="U240" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
         <v>2.6518825290322585</v>
       </c>
       <c r="V240" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
         <v>0.87642173134328372</v>
       </c>
       <c r="W240" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
         <v>1.4946974254545453</v>
       </c>
       <c r="X240" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24">
-      <c r="A241" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="241" spans="2:24">
       <c r="B241" s="2"/>
       <c r="C241" s="2">
         <v>28</v>
@@ -9922,35 +9957,34 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="R241" s="4">
-        <f t="shared" si="9"/>
+        <f>(D241-I241+1+2*K241)/M241</f>
         <v>28</v>
       </c>
       <c r="S241" s="4">
-        <f t="shared" si="10"/>
+        <f>(C241-H241+1+2*J241)/L241</f>
         <v>28</v>
       </c>
       <c r="T241" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.89799999999999991</v>
       </c>
       <c r="U241" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
         <v>3.425348266666667</v>
       </c>
       <c r="V241" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
         <v>2.805746020477816</v>
       </c>
       <c r="W241" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
         <v>2.2522837917808221</v>
       </c>
       <c r="X241" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24">
-      <c r="A242" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="2:24">
       <c r="B242" s="2"/>
       <c r="C242" s="2">
         <v>28</v>
@@ -9995,35 +10029,34 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="R242" s="4">
-        <f t="shared" si="9"/>
+        <f>(D242-I242+1+2*K242)/M242</f>
         <v>28</v>
       </c>
       <c r="S242" s="4">
-        <f t="shared" si="10"/>
+        <f>(C242-H242+1+2*J242)/L242</f>
         <v>28</v>
       </c>
       <c r="T242" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="U242" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
         <v>2.9255643558718858</v>
       </c>
       <c r="V242" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
         <v>3.2622364444444445</v>
       </c>
       <c r="W242" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
         <v>2.2709491270718232</v>
       </c>
       <c r="X242" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24">
-      <c r="A243" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="2:24">
       <c r="B243" s="2"/>
       <c r="C243" s="2">
         <v>28</v>
@@ -10068,35 +10101,34 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="R243" s="4">
-        <f t="shared" si="9"/>
+        <f>(D243-I243+1+2*K243)/M243</f>
         <v>14</v>
       </c>
       <c r="S243" s="4">
-        <f t="shared" si="10"/>
+        <f>(C243-H243+1+2*J243)/L243</f>
         <v>14</v>
       </c>
       <c r="T243" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.81900000000000006</v>
       </c>
       <c r="U243" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
         <v>2.2099021075268817</v>
       </c>
       <c r="V243" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
         <v>1.0432532791878171</v>
       </c>
       <c r="W243" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
         <v>1.7198401338912137</v>
       </c>
       <c r="X243" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24">
-      <c r="A244" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="2:24">
       <c r="B244" s="2"/>
       <c r="C244" s="2">
         <v>14</v>
@@ -10141,35 +10173,34 @@
         <v>0.317</v>
       </c>
       <c r="R244" s="4">
-        <f t="shared" si="9"/>
+        <f>(D244-I244+1+2*K244)/M244</f>
         <v>14</v>
       </c>
       <c r="S244" s="4">
-        <f t="shared" si="10"/>
+        <f>(C244-H244+1+2*J244)/L244</f>
         <v>14</v>
       </c>
       <c r="T244" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="U244" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
         <v>3.4111352033195019</v>
       </c>
       <c r="V244" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
         <v>2.3354647272727274</v>
       </c>
       <c r="W244" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
         <v>2.5933236088328075</v>
       </c>
       <c r="X244" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24">
-      <c r="A245" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="2:24">
       <c r="B245" s="2"/>
       <c r="C245" s="2">
         <v>28</v>
@@ -10214,35 +10245,34 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="R245" s="4">
-        <f t="shared" si="9"/>
+        <f>(D245-I245+1+2*K245)/M245</f>
         <v>14</v>
       </c>
       <c r="S245" s="4">
-        <f t="shared" si="10"/>
+        <f>(C245-H245+1+2*J245)/L245</f>
         <v>14</v>
       </c>
       <c r="T245" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.0609999999999999</v>
       </c>
       <c r="U245" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
         <v>3.369195016393443</v>
       </c>
       <c r="V245" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
         <v>1.7091134802494803</v>
       </c>
       <c r="W245" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
         <v>2.6909446284779053</v>
       </c>
       <c r="X245" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24">
-      <c r="A246" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="2:24">
       <c r="B246" s="2"/>
       <c r="C246" s="2">
         <v>14</v>
@@ -10287,35 +10317,34 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="R246" s="4">
-        <f t="shared" si="9"/>
+        <f>(D246-I246+1+2*K246)/M246</f>
         <v>14</v>
       </c>
       <c r="S246" s="4">
-        <f t="shared" si="10"/>
+        <f>(C246-H246+1+2*J246)/L246</f>
         <v>14</v>
       </c>
       <c r="T246" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.91399999999999992</v>
       </c>
       <c r="U246" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
         <v>2.4108022991202342</v>
       </c>
       <c r="V246" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
         <v>3.2622364444444445</v>
       </c>
       <c r="W246" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
         <v>2.5610080498442369</v>
       </c>
       <c r="X246" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24">
-      <c r="A247" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="2:24">
       <c r="B247" s="2"/>
       <c r="C247" s="2">
         <v>14</v>
@@ -10360,35 +10389,34 @@
         <v>0.317</v>
       </c>
       <c r="R247" s="4">
-        <f t="shared" si="9"/>
+        <f>(D247-I247+1+2*K247)/M247</f>
         <v>14</v>
       </c>
       <c r="S247" s="4">
-        <f t="shared" si="10"/>
+        <f>(C247-H247+1+2*J247)/L247</f>
         <v>14</v>
       </c>
       <c r="T247" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.90900000000000003</v>
       </c>
       <c r="U247" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
         <v>3.4111352033195019</v>
       </c>
       <c r="V247" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
         <v>2.3421184729344731</v>
       </c>
       <c r="W247" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
         <v>2.5933236088328075</v>
       </c>
       <c r="X247" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24">
-      <c r="A248" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="2:24">
       <c r="B248" s="2"/>
       <c r="C248" s="2">
         <v>14</v>
@@ -10433,35 +10461,34 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="R248" s="4">
-        <f t="shared" si="9"/>
+        <f>(D248-I248+1+2*K248)/M248</f>
         <v>7</v>
       </c>
       <c r="S248" s="4">
-        <f t="shared" si="10"/>
+        <f>(C248-H248+1+2*J248)/L248</f>
         <v>7</v>
       </c>
       <c r="T248" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>0.73399999999999999</v>
       </c>
       <c r="U248" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
         <v>1.9388763773584905</v>
       </c>
       <c r="V248" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
         <v>1.4627821779359429</v>
       </c>
       <c r="W248" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
         <v>1.705567601659751</v>
       </c>
       <c r="X248" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24">
-      <c r="A249" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="249" spans="2:24">
       <c r="B249" s="2"/>
       <c r="C249" s="2">
         <v>7</v>
@@ -10506,35 +10533,34 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="R249" s="4">
-        <f t="shared" si="9"/>
+        <f>(D249-I249+1+2*K249)/M249</f>
         <v>7</v>
       </c>
       <c r="S249" s="4">
-        <f t="shared" si="10"/>
+        <f>(C249-H249+1+2*J249)/L249</f>
         <v>7</v>
       </c>
       <c r="T249" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.9550000000000001</v>
       </c>
       <c r="U249" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
         <v>2.6125537627118649</v>
       </c>
       <c r="V249" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
         <v>2.7940907311178247</v>
       </c>
       <c r="W249" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
         <v>3.1618599384615385</v>
       </c>
       <c r="X249" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24">
-      <c r="A250" s="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="2:24">
       <c r="B250" s="2"/>
       <c r="C250" s="2">
         <v>7</v>
@@ -10579,35 +10605,34 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="R250" s="4">
-        <f t="shared" si="9"/>
+        <f>(D250-I250+1+2*K250)/M250</f>
         <v>7</v>
       </c>
       <c r="S250" s="4">
-        <f t="shared" si="10"/>
+        <f>(C250-H250+1+2*J250)/L250</f>
         <v>7</v>
       </c>
       <c r="T250" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.202</v>
       </c>
       <c r="U250" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
         <v>2.3288486798866859</v>
       </c>
       <c r="V250" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
         <v>2.0971519999999999</v>
       </c>
       <c r="W250" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
         <v>1.7988699868708973</v>
       </c>
       <c r="X250" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24">
-      <c r="A251" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="2:24">
       <c r="B251" s="2"/>
       <c r="C251" s="2">
         <v>14</v>
@@ -10652,35 +10677,34 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="R251" s="4">
-        <f t="shared" si="9"/>
+        <f>(D251-I251+1+2*K251)/M251</f>
         <v>7</v>
       </c>
       <c r="S251" s="4">
-        <f t="shared" si="10"/>
+        <f>(C251-H251+1+2*J251)/L251</f>
         <v>7</v>
       </c>
       <c r="T251" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.3540000000000001</v>
       </c>
       <c r="U251" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
         <v>2.510178882442748</v>
       </c>
       <c r="V251" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
         <v>2.1242469870801033</v>
       </c>
       <c r="W251" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
         <v>1.7774780194594595</v>
       </c>
       <c r="X251" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24">
-      <c r="A252" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="252" spans="2:24">
       <c r="B252" s="2"/>
       <c r="C252" s="2">
         <v>7</v>
@@ -10725,35 +10749,34 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="R252" s="4">
-        <f t="shared" si="9"/>
+        <f>(D252-I252+1+2*K252)/M252</f>
         <v>7</v>
       </c>
       <c r="S252" s="4">
-        <f t="shared" si="10"/>
+        <f>(C252-H252+1+2*J252)/L252</f>
         <v>7</v>
       </c>
       <c r="T252" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.22</v>
       </c>
       <c r="U252" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
         <v>2.1025155601023018</v>
       </c>
       <c r="V252" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
         <v>2.2646930688705234</v>
       </c>
       <c r="W252" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
         <v>1.764127862660944</v>
       </c>
       <c r="X252" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24">
-      <c r="A253" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="253" spans="2:24">
       <c r="B253" s="2"/>
       <c r="C253">
         <v>112</v>
@@ -10798,35 +10821,34 @@
         <v>1.81</v>
       </c>
       <c r="R253" s="4">
-        <f t="shared" si="9"/>
+        <f>(D253-I253+1+2*K253)/M253</f>
         <v>112</v>
       </c>
       <c r="S253" s="4">
-        <f t="shared" si="10"/>
+        <f>(C253-H253+1+2*J253)/L253</f>
         <v>112</v>
       </c>
       <c r="T253" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.9180000000000001</v>
       </c>
       <c r="U253" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
         <v>3.0560728029739774</v>
       </c>
       <c r="V253" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
         <v>2.884503803508772</v>
       </c>
       <c r="W253" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
         <v>0.90837965082872929</v>
       </c>
       <c r="X253" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24">
-      <c r="A254" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="254" spans="2:24">
       <c r="B254" s="2"/>
       <c r="C254">
         <v>56</v>
@@ -10871,35 +10893,34 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="R254" s="4">
-        <f t="shared" si="9"/>
+        <f>(D254-I254+1+2*K254)/M254</f>
         <v>56</v>
       </c>
       <c r="S254" s="4">
-        <f t="shared" si="10"/>
+        <f>(C254-H254+1+2*J254)/L254</f>
         <v>56</v>
       </c>
       <c r="T254" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.968</v>
       </c>
       <c r="U254" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
         <v>3.1437230745697895</v>
       </c>
       <c r="V254" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
         <v>3.5056869253731349</v>
       </c>
       <c r="W254" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
         <v>1.6845975081967215</v>
       </c>
       <c r="X254" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24">
-      <c r="A255" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="255" spans="2:24">
       <c r="B255" s="2"/>
       <c r="C255">
         <v>56</v>
@@ -10944,35 +10965,34 @@
         <v>1.127</v>
       </c>
       <c r="R255" s="4">
-        <f t="shared" si="9"/>
+        <f>(D255-I255+1+2*K255)/M255</f>
         <v>56</v>
       </c>
       <c r="S255" s="4">
-        <f t="shared" si="10"/>
+        <f>(C255-H255+1+2*J255)/L255</f>
         <v>56</v>
       </c>
       <c r="T255" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>2.113</v>
       </c>
       <c r="U255" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
         <v>3.7030792072072072</v>
       </c>
       <c r="V255" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
         <v>3.0335187601476012</v>
       </c>
       <c r="W255" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
         <v>1.458888347826087</v>
       </c>
       <c r="X255" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24">
-      <c r="A256" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="256" spans="2:24">
       <c r="B256" s="2"/>
       <c r="C256">
         <v>56</v>
@@ -11017,35 +11037,34 @@
         <v>0.495</v>
       </c>
       <c r="R256" s="4">
-        <f t="shared" si="9"/>
+        <f>(D256-I256+1+2*K256)/M256</f>
         <v>28</v>
       </c>
       <c r="S256" s="4">
-        <f t="shared" si="10"/>
+        <f>(C256-H256+1+2*J256)/L256</f>
         <v>28</v>
       </c>
       <c r="T256" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.5449999999999999</v>
       </c>
       <c r="U256" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
         <v>3.3830600164609055</v>
       </c>
       <c r="V256" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
         <v>1.0186909343246591</v>
       </c>
       <c r="W256" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
         <v>1.6607749171717172</v>
       </c>
       <c r="X256" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24">
-      <c r="A257" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="257" spans="2:24">
       <c r="B257" s="2"/>
       <c r="C257" s="2">
         <v>28</v>
@@ -11090,35 +11109,34 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="R257" s="4">
-        <f t="shared" si="9"/>
+        <f>(D257-I257+1+2*K257)/M257</f>
         <v>28</v>
       </c>
       <c r="S257" s="4">
-        <f t="shared" si="10"/>
+        <f>(C257-H257+1+2*J257)/L257</f>
         <v>28</v>
       </c>
       <c r="T257" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.494</v>
       </c>
       <c r="U257" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
         <v>3.7971528129330254</v>
       </c>
       <c r="V257" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
         <v>3.5742764521739132</v>
       </c>
       <c r="W257" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
         <v>2.7357190815307821</v>
       </c>
       <c r="X257" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24">
-      <c r="A258" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="258" spans="2:24">
       <c r="B258" s="2"/>
       <c r="C258" s="2">
         <v>28</v>
@@ -11163,35 +11181,34 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="R258" s="4">
-        <f t="shared" ref="R258:R268" si="22">(D258-H258+1+2*J258)/L258</f>
+        <f>(D258-I258+1+2*K258)/M258</f>
         <v>28</v>
       </c>
       <c r="S258" s="4">
-        <f t="shared" ref="S258:S268" si="23">(C258-I258+1+2*K258)/M258</f>
+        <f>(C258-H258+1+2*J258)/L258</f>
         <v>28</v>
       </c>
       <c r="T258" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.5009999999999999</v>
       </c>
       <c r="U258" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
         <v>3.6700159999999999</v>
       </c>
       <c r="V258" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
         <v>3.6537048177777778</v>
       </c>
       <c r="W258" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
         <v>2.7266453864013265</v>
       </c>
       <c r="X258" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24">
-      <c r="A259" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="2:24">
       <c r="B259" s="2"/>
       <c r="C259" s="2">
         <v>28</v>
@@ -11236,35 +11253,34 @@
         <v>0.36</v>
       </c>
       <c r="R259" s="4">
-        <f t="shared" si="22"/>
+        <f>(D259-I259+1+2*K259)/M259</f>
         <v>14</v>
       </c>
       <c r="S259" s="4">
-        <f t="shared" si="23"/>
+        <f>(C259-H259+1+2*J259)/L259</f>
         <v>14</v>
       </c>
       <c r="T259" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.294</v>
       </c>
       <c r="U259" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
         <v>2.9048889893992933</v>
       </c>
       <c r="V259" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
         <v>1.2628012043010752</v>
       </c>
       <c r="W259" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
         <v>2.2835655111111115</v>
       </c>
       <c r="X259" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24">
-      <c r="A260" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="260" spans="2:24">
       <c r="B260" s="2"/>
       <c r="C260" s="2">
         <v>14</v>
@@ -11309,35 +11325,34 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="R260" s="4">
-        <f t="shared" si="22"/>
+        <f>(D260-I260+1+2*K260)/M260</f>
         <v>14</v>
       </c>
       <c r="S260" s="4">
-        <f t="shared" si="23"/>
+        <f>(C260-H260+1+2*J260)/L260</f>
         <v>14</v>
       </c>
       <c r="T260" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.4729999999999999</v>
       </c>
       <c r="U260" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
         <v>3.905385197149644</v>
       </c>
       <c r="V260" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
         <v>3.0847414033771106</v>
       </c>
       <c r="W260" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
         <v>3.1679521541425815</v>
       </c>
       <c r="X260" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24">
-      <c r="A261" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="2:24">
       <c r="B261" s="2"/>
       <c r="C261" s="2">
         <v>28</v>
@@ -11382,35 +11397,34 @@
         <v>1.0389999999999999</v>
       </c>
       <c r="R261" s="4">
-        <f t="shared" si="22"/>
+        <f>(D261-I261+1+2*K261)/M261</f>
         <v>14</v>
       </c>
       <c r="S261" s="4">
-        <f t="shared" si="23"/>
+        <f>(C261-H261+1+2*J261)/L261</f>
         <v>14</v>
       </c>
       <c r="T261" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.4059999999999997</v>
       </c>
       <c r="U261" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
         <v>3.8370295635939322</v>
       </c>
       <c r="V261" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
         <v>2.1777048582781453</v>
       </c>
       <c r="W261" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
         <v>3.1649031145332049</v>
       </c>
       <c r="X261" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24">
-      <c r="A262" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="2:24">
       <c r="B262" s="2"/>
       <c r="C262" s="2">
         <v>14</v>
@@ -11455,35 +11469,34 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="R262" s="4">
-        <f t="shared" si="22"/>
+        <f>(D262-I262+1+2*K262)/M262</f>
         <v>14</v>
       </c>
       <c r="S262" s="4">
-        <f t="shared" si="23"/>
+        <f>(C262-H262+1+2*J262)/L262</f>
         <v>14</v>
       </c>
       <c r="T262" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.4830000000000001</v>
       </c>
       <c r="U262" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
         <v>3.161859938461538</v>
       </c>
       <c r="V262" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
         <v>3.762396265446224</v>
       </c>
       <c r="W262" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
         <v>3.1257930950570341</v>
       </c>
       <c r="X262" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24">
-      <c r="A263" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="2:24">
       <c r="B263" s="2"/>
       <c r="C263" s="2">
         <v>14</v>
@@ -11528,35 +11541,34 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="R263" s="4">
-        <f t="shared" si="22"/>
+        <f>(D263-I263+1+2*K263)/M263</f>
         <v>14</v>
       </c>
       <c r="S263" s="4">
-        <f t="shared" si="23"/>
+        <f>(C263-H263+1+2*J263)/L263</f>
         <v>14</v>
       </c>
       <c r="T263" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.4729999999999999</v>
       </c>
       <c r="U263" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
         <v>3.905385197149644</v>
       </c>
       <c r="V263" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
         <v>3.0847414033771106</v>
       </c>
       <c r="W263" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
         <v>3.1679521541425815</v>
       </c>
       <c r="X263" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24">
-      <c r="A264" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="2:24">
       <c r="B264" s="2"/>
       <c r="C264" s="2">
         <v>14</v>
@@ -11601,35 +11613,34 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="R264" s="4">
-        <f t="shared" si="22"/>
+        <f>(D264-I264+1+2*K264)/M264</f>
         <v>7</v>
       </c>
       <c r="S264" s="4">
-        <f t="shared" si="23"/>
+        <f>(C264-H264+1+2*J264)/L264</f>
         <v>7</v>
       </c>
       <c r="T264" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.2770000000000001</v>
       </c>
       <c r="U264" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
         <v>2.3759641156069367</v>
       </c>
       <c r="V264" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
         <v>1.5569764848484846</v>
       </c>
       <c r="W264" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
         <v>2.0399096377171215</v>
       </c>
       <c r="X264" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24">
-      <c r="A265" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="2:24">
       <c r="B265" s="2"/>
       <c r="C265" s="2">
         <v>7</v>
@@ -11674,35 +11685,34 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="R265" s="4">
-        <f t="shared" si="22"/>
+        <f>(D265-I265+1+2*K265)/M265</f>
         <v>7</v>
       </c>
       <c r="S265" s="4">
-        <f t="shared" si="23"/>
+        <f>(C265-H265+1+2*J265)/L265</f>
         <v>7</v>
       </c>
       <c r="T265" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>3.0250000000000004</v>
       </c>
       <c r="U265" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
         <v>3.0598644565756823</v>
       </c>
       <c r="V265" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
         <v>3.1918689628990506</v>
       </c>
       <c r="W265" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
         <v>5.6307094794520545</v>
       </c>
       <c r="X265" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24">
-      <c r="A266" s="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="2:24">
       <c r="B266" s="2"/>
       <c r="C266" s="2">
         <v>7</v>
@@ -11747,35 +11757,34 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="R266" s="4">
-        <f t="shared" si="22"/>
+        <f>(D266-I266+1+2*K266)/M266</f>
         <v>7</v>
       </c>
       <c r="S266" s="4">
-        <f t="shared" si="23"/>
+        <f>(C266-H266+1+2*J266)/L266</f>
         <v>7</v>
       </c>
       <c r="T266" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.835</v>
       </c>
       <c r="U266" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
         <v>3.1557911094049906</v>
       </c>
       <c r="V266" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
         <v>2.4430418543833579</v>
       </c>
       <c r="W266" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
         <v>2.5650033822152887</v>
       </c>
       <c r="X266" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24">
-      <c r="A267" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="2:24">
       <c r="B267" s="2"/>
       <c r="C267" s="2">
         <v>14</v>
@@ -11820,35 +11829,34 @@
         <v>1.631</v>
       </c>
       <c r="R267" s="4">
-        <f t="shared" si="22"/>
+        <f>(D267-I267+1+2*K267)/M267</f>
         <v>7</v>
       </c>
       <c r="S267" s="4">
-        <f t="shared" si="23"/>
+        <f>(C267-H267+1+2*J267)/L267</f>
         <v>7</v>
       </c>
       <c r="T267" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>4.1459999999999999</v>
       </c>
       <c r="U267" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
         <v>3.3282736194331988</v>
       </c>
       <c r="V267" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
         <v>2.1534605998690246</v>
       </c>
       <c r="W267" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
         <v>2.0161461287553646</v>
       </c>
       <c r="X267" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24">
-      <c r="A268" s="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="268" spans="2:24">
       <c r="B268" s="2"/>
       <c r="C268" s="2">
         <v>7</v>
@@ -11893,62 +11901,62 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="R268" s="4">
-        <f t="shared" si="22"/>
+        <f>(D268-I268+1+2*K268)/M268</f>
         <v>7</v>
       </c>
       <c r="S268" s="4">
-        <f t="shared" si="23"/>
+        <f>(C268-H268+1+2*J268)/L268</f>
         <v>7</v>
       </c>
       <c r="T268" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="15"/>
         <v>1.8680000000000001</v>
       </c>
       <c r="U268" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
         <v>2.4911623757575758</v>
       </c>
       <c r="V268" s="1">
-        <f t="shared" si="19"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
         <v>3.073209659813084</v>
       </c>
       <c r="W268" s="1">
-        <f t="shared" si="20"/>
+        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
         <v>2.4430418543833579</v>
       </c>
       <c r="X268" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="2:24">
       <c r="D271" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="273" spans="1:10">
       <c r="A273" t="s">
+        <v>21</v>
+      </c>
+      <c r="C273" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" t="s">
+        <v>2</v>
+      </c>
+      <c r="E273" t="s">
         <v>23</v>
       </c>
-      <c r="C273" t="s">
+      <c r="G273" t="s">
         <v>24</v>
       </c>
-      <c r="D273" t="s">
-        <v>2</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="H273" t="s">
         <v>25</v>
       </c>
-      <c r="G273" t="s">
-        <v>26</v>
-      </c>
-      <c r="H273" t="s">
-        <v>27</v>
-      </c>
       <c r="I273" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J273" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="275" spans="1:10">
@@ -11993,11 +12001,11 @@
         <v>9.9450000000000003</v>
       </c>
       <c r="I276" s="1">
-        <f t="shared" ref="I276:J286" si="24">(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(G276/1000)/10^12</f>
+        <f t="shared" ref="I276:J286" si="16">(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(G276/1000)/10^12</f>
         <v>0.94089352818371608</v>
       </c>
       <c r="J276" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.99699708396178977</v>
       </c>
     </row>
@@ -12018,11 +12026,11 @@
         <v>12.762</v>
       </c>
       <c r="I277" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.506745080161082</v>
       </c>
       <c r="J277" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.5538530010970066</v>
       </c>
     </row>
@@ -12043,11 +12051,11 @@
         <v>15.997</v>
       </c>
       <c r="I278" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.3886138279932543</v>
       </c>
       <c r="J278" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.4792488591610926</v>
       </c>
     </row>
@@ -12068,11 +12076,11 @@
         <v>8.2349999999999994</v>
       </c>
       <c r="I279" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.76811131708433456</v>
       </c>
       <c r="J279" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.81512140862173654</v>
       </c>
     </row>
@@ -12093,11 +12101,11 @@
         <v>8.8049999999999997</v>
       </c>
       <c r="I280" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.4589273636166049</v>
       </c>
       <c r="J280" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.5247075070982394</v>
       </c>
     </row>
@@ -12118,11 +12126,11 @@
         <v>11.754</v>
       </c>
       <c r="I281" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.1882721434392831</v>
       </c>
       <c r="J281" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.2843371788327378</v>
       </c>
     </row>
@@ -12143,11 +12151,11 @@
         <v>17.943000000000001</v>
       </c>
       <c r="I282" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.8082940278213573</v>
       </c>
       <c r="J282" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.9928216240316559</v>
       </c>
     </row>
@@ -12168,11 +12176,11 @@
         <v>12.574999999999999</v>
       </c>
       <c r="I283" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.81030734760101986</v>
       </c>
       <c r="J283" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>0.83402051689860834</v>
       </c>
     </row>
@@ -12193,11 +12201,11 @@
         <v>11.189</v>
       </c>
       <c r="I284" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.7619165056698867</v>
       </c>
       <c r="J284" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>1.87466404504424</v>
       </c>
     </row>
@@ -12218,11 +12226,11 @@
         <v>15.411</v>
       </c>
       <c r="I285" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.6561499303532989</v>
       </c>
       <c r="J285" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>2.722161572902472</v>
       </c>
     </row>
@@ -12243,11 +12251,11 @@
         <v>25.521999999999998</v>
       </c>
       <c r="I286" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.2352303539754761</v>
       </c>
       <c r="J286" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="16"/>
         <v>3.2874564689287675</v>
       </c>
     </row>
@@ -12256,28 +12264,28 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" t="s">
+        <v>26</v>
+      </c>
+      <c r="C290" t="s">
+        <v>22</v>
+      </c>
+      <c r="D290" t="s">
+        <v>2</v>
+      </c>
+      <c r="E290" t="s">
+        <v>23</v>
+      </c>
+      <c r="G290" t="s">
+        <v>27</v>
+      </c>
+      <c r="H290" t="s">
         <v>28</v>
       </c>
-      <c r="C290" t="s">
-        <v>24</v>
-      </c>
-      <c r="D290" t="s">
-        <v>2</v>
-      </c>
-      <c r="E290" t="s">
-        <v>25</v>
-      </c>
-      <c r="G290" t="s">
-        <v>29</v>
-      </c>
-      <c r="H290" t="s">
-        <v>30</v>
-      </c>
       <c r="I290" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J290" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="291" spans="1:10">
@@ -12322,11 +12330,11 @@
         <v>3.173</v>
       </c>
       <c r="I292" s="1">
-        <f t="shared" ref="I292:J307" si="25">(8*$E292*$D292*$C292*$C292)/(G292/1000)/10^12</f>
+        <f t="shared" ref="I292:J307" si="17">(8*$E292*$D292*$C292*$C292)/(G292/1000)/10^12</f>
         <v>0.4885619103086779</v>
       </c>
       <c r="J292" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.52874932240781591</v>
       </c>
     </row>
@@ -12347,11 +12355,11 @@
         <v>3.9420000000000002</v>
       </c>
       <c r="I293" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.96531737629459158</v>
       </c>
       <c r="J293" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.85120324708269912</v>
       </c>
     </row>
@@ -12372,11 +12380,11 @@
         <v>7.0670000000000002</v>
       </c>
       <c r="I294" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.5925216896060748</v>
       </c>
       <c r="J294" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.94960894297438792</v>
       </c>
     </row>
@@ -12397,11 +12405,11 @@
         <v>5.2850000000000001</v>
       </c>
       <c r="I295" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.61443750228895799</v>
       </c>
       <c r="J295" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.63489937559129617</v>
       </c>
     </row>
@@ -12422,11 +12430,11 @@
         <v>12.397</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.3171514033366045</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.54133148342340887</v>
       </c>
     </row>
@@ -12447,11 +12455,11 @@
         <v>14.587999999999999</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.1348453634483855</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.92005571702769406</v>
       </c>
     </row>
@@ -12472,11 +12480,11 @@
         <v>9.593</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.9524357237131542</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.798243052225581</v>
       </c>
     </row>
@@ -12497,11 +12505,11 @@
         <v>12.689</v>
       </c>
       <c r="I299" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.79872487502975487</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.0577486641973362</v>
       </c>
     </row>
@@ -12522,11 +12530,11 @@
         <v>11.444000000000001</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.3856688233202989</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.345643621111499</v>
       </c>
     </row>
@@ -12547,11 +12555,11 @@
         <v>16.218</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.261670182260024</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.3103398199531386</v>
       </c>
     </row>
@@ -12572,11 +12580,11 @@
         <v>30.824999999999999</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.4042732443486257</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.4833473609083541</v>
       </c>
     </row>
@@ -12597,11 +12605,11 @@
         <v>56.017000000000003</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.89110163324923652</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.95840711212667573</v>
       </c>
     </row>
@@ -12622,11 +12630,11 @@
         <v>38.359000000000002</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>1.023605620698202</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.7991913866367732</v>
       </c>
     </row>
@@ -12647,11 +12655,11 @@
         <v>56.636000000000003</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>2.0216367597081666</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.7917290204110454</v>
       </c>
     </row>
@@ -12672,11 +12680,11 @@
         <v>112.19199999999999</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.9506666936485302</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>3.8282295493439826</v>
       </c>
     </row>
@@ -12697,11 +12705,11 @@
         <v>12.196</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.6925738189156958</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="17"/>
         <v>0.61903469990160709</v>
       </c>
     </row>
@@ -12722,11 +12730,11 @@
         <v>13.625</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" ref="I308:J312" si="26">(8*$E308*$D308*$C308*$C308)/(G308/1000)/10^12</f>
+        <f t="shared" ref="I308:J312" si="18">(8*$E308*$D308*$C308*$C308)/(G308/1000)/10^12</f>
         <v>0.83408796332099644</v>
       </c>
       <c r="J308" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.1082197724770642</v>
       </c>
     </row>
@@ -12747,11 +12755,11 @@
         <v>15.438000000000001</v>
       </c>
       <c r="I309" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>2.2904049146757681</v>
       </c>
       <c r="J309" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>1.9561464438398755</v>
       </c>
     </row>
@@ -12772,11 +12780,11 @@
         <v>10.893000000000001</v>
       </c>
       <c r="I310" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.1426148928935736</v>
       </c>
       <c r="J310" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.11551374277058661</v>
       </c>
     </row>
@@ -12797,11 +12805,11 @@
         <v>11.704000000000001</v>
       </c>
       <c r="I311" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.2980320227380388</v>
       </c>
       <c r="J311" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.215019002050581</v>
       </c>
     </row>
@@ -12822,38 +12830,38 @@
         <v>13.085000000000001</v>
       </c>
       <c r="I312" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.44951011878181657</v>
       </c>
       <c r="J312" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="18"/>
         <v>0.38465149407718757</v>
       </c>
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C315" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
       </c>
       <c r="E315" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G315" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H315" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I315" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J315" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -12898,11 +12906,11 @@
         <v>372.58800000000002</v>
       </c>
       <c r="I317" s="1">
-        <f t="shared" ref="I317:I334" si="27">(6*$E317*$D317*$C317*$C317)/(G317/1000)/10^12</f>
+        <f t="shared" ref="I317:I334" si="19">(6*$E317*$D317*$C317*$C317)/(G317/1000)/10^12</f>
         <v>2.9857478467773566</v>
       </c>
       <c r="J317" s="1">
-        <f t="shared" ref="J317:J334" si="28">(6*$E317*$D317*$C317*$C317)/(H317/1000)/10^12</f>
+        <f t="shared" ref="J317:J334" si="20">(6*$E317*$D317*$C317*$C317)/(H317/1000)/10^12</f>
         <v>3.064777351927598</v>
       </c>
     </row>
@@ -12923,11 +12931,11 @@
         <v>187.45500000000001</v>
       </c>
       <c r="I318" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.8817356140253478</v>
       </c>
       <c r="J318" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.0457956949667921</v>
       </c>
     </row>
@@ -12948,11 +12956,11 @@
         <v>94.328000000000003</v>
       </c>
       <c r="I319" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.8929599843927818</v>
       </c>
       <c r="J319" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>3.0183354870664063</v>
       </c>
     </row>
@@ -12973,11 +12981,11 @@
         <v>494.94</v>
       </c>
       <c r="I320" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.992287546663166</v>
       </c>
       <c r="J320" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.440618159776943</v>
       </c>
     </row>
@@ -12998,11 +13006,11 @@
         <v>250.024</v>
       </c>
       <c r="I321" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.9590315999882417</v>
       </c>
       <c r="J321" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.4156871980289889</v>
       </c>
     </row>
@@ -13023,11 +13031,11 @@
         <v>126.32599999999999</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.907635089205765</v>
       </c>
       <c r="J322" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.3905600430631861</v>
       </c>
     </row>
@@ -13048,11 +13056,11 @@
         <v>64.192999999999998</v>
       </c>
       <c r="I323" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.7918481797552839</v>
       </c>
       <c r="J323" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.3459300985465705</v>
       </c>
     </row>
@@ -13073,11 +13081,11 @@
         <v>352.11900000000003</v>
       </c>
       <c r="I324" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.3099842528251084</v>
       </c>
       <c r="J324" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1.9296807272541385</v>
       </c>
     </row>
@@ -13098,11 +13106,11 @@
         <v>177.54400000000001</v>
       </c>
       <c r="I325" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.2946319955693042</v>
       </c>
       <c r="J325" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1.9135460730861082</v>
       </c>
     </row>
@@ -13123,11 +13131,11 @@
         <v>90.623999999999995</v>
       </c>
       <c r="I326" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.245404113572675</v>
       </c>
       <c r="J326" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1.8744406779661018</v>
       </c>
     </row>
@@ -13148,11 +13156,11 @@
         <v>46.948</v>
       </c>
       <c r="I327" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.1413120550064462</v>
       </c>
       <c r="J327" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1.8042975970009369</v>
       </c>
     </row>
@@ -13173,11 +13181,11 @@
         <v>669.00400000000002</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.8714429807412905</v>
       </c>
       <c r="J328" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.8212638489455966</v>
       </c>
     </row>
@@ -13198,11 +13206,11 @@
         <v>335.84199999999998</v>
       </c>
       <c r="I329" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.812477536678915</v>
       </c>
       <c r="J329" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.8100070866657538</v>
       </c>
     </row>
@@ -13223,11 +13231,11 @@
         <v>169.42</v>
       </c>
       <c r="I330" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.7746141135931977</v>
       </c>
       <c r="J330" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.7851446110258529</v>
       </c>
     </row>
@@ -13248,11 +13256,11 @@
         <v>86.021000000000001</v>
       </c>
       <c r="I331" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.7720889517212131</v>
       </c>
       <c r="J331" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>2.7353838527801351</v>
       </c>
     </row>
@@ -13273,11 +13281,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I332" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>0.40920039024390242</v>
       </c>
       <c r="J332" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0.51358824489795907</v>
       </c>
     </row>
@@ -13298,11 +13306,11 @@
         <v>309.14499999999998</v>
       </c>
       <c r="I333" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>1.6008709029320245</v>
       </c>
       <c r="J333" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>0.97685515858254213</v>
       </c>
     </row>
@@ -13323,11 +13331,11 @@
         <v>489.57400000000001</v>
       </c>
       <c r="I334" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="19"/>
         <v>2.460082505132132</v>
       </c>
       <c r="J334" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>1.2336843378120568</v>
       </c>
     </row>
@@ -13348,25 +13356,25 @@
     </row>
     <row r="343" spans="1:15">
       <c r="A343" t="s">
+        <v>29</v>
+      </c>
+      <c r="C343" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343" t="s">
         <v>31</v>
       </c>
-      <c r="C343" t="s">
+      <c r="G343" t="s">
+        <v>50</v>
+      </c>
+      <c r="I343" t="s">
+        <v>48</v>
+      </c>
+      <c r="J343" t="s">
         <v>32</v>
       </c>
-      <c r="D343" t="s">
-        <v>33</v>
-      </c>
-      <c r="G343" t="s">
-        <v>52</v>
-      </c>
-      <c r="I343" t="s">
-        <v>50</v>
-      </c>
-      <c r="J343" t="s">
-        <v>34</v>
-      </c>
       <c r="K343" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="345" spans="1:15">
@@ -13385,7 +13393,7 @@
         <v>11.943863839952225</v>
       </c>
       <c r="J345" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K345" s="1">
         <v>1.0097524449099999E-3</v>
@@ -13406,11 +13414,11 @@
       </c>
       <c r="H346" s="1"/>
       <c r="I346" s="1">
-        <f t="shared" ref="I346:I369" si="29">C346*4*D346/(G346/1000)/10^9</f>
+        <f t="shared" ref="I346:I369" si="21">C346*4*D346/(G346/1000)/10^9</f>
         <v>14.330609679449141</v>
       </c>
       <c r="J346" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K346" s="1">
         <v>1.4807682699000001E-3</v>
@@ -13431,11 +13439,11 @@
       </c>
       <c r="H347" s="1"/>
       <c r="I347" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>11.975151560511936</v>
       </c>
       <c r="J347" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K347" s="1">
         <v>5.7351198766899996E-3</v>
@@ -13458,11 +13466,11 @@
         <v>0.56442119999999996</v>
       </c>
       <c r="I348" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>11.33904963172893</v>
       </c>
       <c r="J348" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K348" s="1">
         <v>5.1821745884900003E-2</v>
@@ -13483,11 +13491,11 @@
         <v>0.73854220000000004</v>
       </c>
       <c r="I349" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>17.331440234559377</v>
       </c>
       <c r="J349" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K349" s="1">
         <v>2.53004000988E-2</v>
@@ -13506,11 +13514,11 @@
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>22.521857675179497</v>
       </c>
       <c r="J350" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K350" s="1">
         <v>3.33616546352E-3</v>
@@ -13532,11 +13540,11 @@
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.187360976720854</v>
       </c>
       <c r="J351" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K351" s="1">
         <v>6.0146820364799999E-3</v>
@@ -13558,11 +13566,11 @@
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.268016804912204</v>
       </c>
       <c r="J352" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K352" s="1">
         <v>4.0627694987499997E-2</v>
@@ -13585,11 +13593,11 @@
         <v>18.420000000000002</v>
       </c>
       <c r="I353" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>10.762562432138978</v>
       </c>
       <c r="J353" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K353" s="1">
         <v>0.76</v>
@@ -13610,11 +13618,11 @@
         <v>24.965580200000002</v>
       </c>
       <c r="I354" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>15.881577629027023</v>
       </c>
       <c r="J354" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K354" s="1">
         <v>2.1195506209600001</v>
@@ -13633,11 +13641,11 @@
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>22.7762533769566</v>
       </c>
       <c r="J355" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K355" s="1">
         <v>4.9448559129699997E-3</v>
@@ -13659,11 +13667,11 @@
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.317124363455925</v>
       </c>
       <c r="J356" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K356" s="1">
         <v>6.9975592631799999E-3</v>
@@ -13685,11 +13693,11 @@
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.392047280155278</v>
       </c>
       <c r="J357" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K357" s="1">
         <v>5.9642012038500003E-2</v>
@@ -13712,11 +13720,11 @@
         <v>24.01</v>
       </c>
       <c r="I358" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>11.180152269887547</v>
       </c>
       <c r="J358" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K358" s="1">
         <v>1.38</v>
@@ -13737,11 +13745,11 @@
         <v>32.338022199999997</v>
       </c>
       <c r="I359" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>16.601847468581429</v>
       </c>
       <c r="J359" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K359" s="1">
         <v>3.5118360108600002</v>
@@ -13760,11 +13768,11 @@
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>22.898872282252643</v>
       </c>
       <c r="J360" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K360" s="1">
         <v>7.5128955802699999E-3</v>
@@ -13786,11 +13794,11 @@
       </c>
       <c r="H361" s="1"/>
       <c r="I361" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.474258735285034</v>
       </c>
       <c r="J361" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K361" s="1">
         <v>1.16330739163E-2</v>
@@ -13812,11 +13820,11 @@
       </c>
       <c r="H362" s="1"/>
       <c r="I362" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.270232986607784</v>
       </c>
       <c r="J362" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K362" s="1">
         <v>0.109034739418</v>
@@ -13839,11 +13847,11 @@
         <v>37.090000000000003</v>
       </c>
       <c r="I363" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>11.308449716904825</v>
       </c>
       <c r="J363" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K363" s="1">
         <v>1.85</v>
@@ -13864,11 +13872,11 @@
         <v>50.6483974</v>
       </c>
       <c r="I364" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>16.562435201552891</v>
       </c>
       <c r="J364" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K364" s="1">
         <v>4.7669534463199996</v>
@@ -13888,11 +13896,11 @@
       </c>
       <c r="H365" s="1"/>
       <c r="I365" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>23.126633124267695</v>
       </c>
       <c r="J365" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K365" s="1">
         <v>1.9686543627600001E-2</v>
@@ -13914,11 +13922,11 @@
       </c>
       <c r="H366" s="1"/>
       <c r="I366" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.530335008681352</v>
       </c>
       <c r="J366" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K366" s="1">
         <v>2.38886304896E-2</v>
@@ -13940,11 +13948,11 @@
       </c>
       <c r="H367" s="1"/>
       <c r="I367" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>24.339873220880566</v>
       </c>
       <c r="J367" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K367" s="1">
         <v>0.32316675633500003</v>
@@ -13967,11 +13975,11 @@
         <v>97.46</v>
       </c>
       <c r="I368" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>11.017256556536017</v>
       </c>
       <c r="J368" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K368" s="1">
         <v>5.51</v>
@@ -13992,11 +14000,11 @@
         <v>130.12367280000001</v>
       </c>
       <c r="I369" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>16.503404813209361</v>
       </c>
       <c r="J369" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K369" s="1">
         <v>14.1448934816</v>
@@ -14024,7 +14032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -14035,39 +14043,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
@@ -14075,15 +14083,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B7" s="8">
         <v>352.79</v>
@@ -14091,42 +14099,42 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/results/train/DeepBench_NV_TitanX.xlsx
+++ b/results/train/DeepBench_NV_TitanX.xlsx
@@ -343,8 +343,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="71">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,7 +473,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="71">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -471,6 +509,25 @@
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -506,6 +563,25 @@
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -835,10 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC377"/>
+  <dimension ref="A1:AD377"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4856,7 +4932,7 @@
         <v>5.0699217325610677</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:30">
       <c r="B161" s="2"/>
       <c r="C161" s="2">
         <v>512</v>
@@ -4883,7 +4959,7 @@
         <v>4.7194178981321739</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:30">
       <c r="B162" s="2"/>
       <c r="C162" s="2">
         <v>512</v>
@@ -4910,7 +4986,7 @@
         <v>4.8243879907621254</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:30">
       <c r="C163" s="2">
         <v>1024</v>
       </c>
@@ -4936,7 +5012,7 @@
         <v>3.6755014074034733</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:30">
       <c r="C164" s="2">
         <v>1024</v>
       </c>
@@ -4962,7 +5038,7 @@
         <v>5.058711292024725</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:30">
       <c r="B165" s="2"/>
       <c r="C165" s="2">
         <v>1024</v>
@@ -4989,7 +5065,7 @@
         <v>4.0319507818508074</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:30">
       <c r="B166" s="2"/>
       <c r="C166" s="2">
         <v>1024</v>
@@ -5016,7 +5092,7 @@
         <v>4.2327100804862958</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:30">
       <c r="B167" s="2"/>
       <c r="C167" s="2">
         <v>512</v>
@@ -5042,7 +5118,7 @@
         <v>0.2178859220779221</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:30">
       <c r="B168" s="2"/>
       <c r="C168" s="2">
         <v>1024</v>
@@ -5068,15 +5144,15 @@
         <v>0.43018502564102562</v>
       </c>
     </row>
-    <row r="171" spans="1:29">
+    <row r="171" spans="1:30">
       <c r="J171" s="3"/>
     </row>
-    <row r="173" spans="1:29">
+    <row r="173" spans="1:30">
       <c r="A173" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:29">
+    <row r="174" spans="1:30">
       <c r="C174" t="s">
         <v>10</v>
       </c>
@@ -5141,7 +5217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:29">
+    <row r="175" spans="1:30">
       <c r="C175">
         <v>700</v>
       </c>
@@ -5185,35 +5261,37 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="R175" s="4">
-        <f>(D175-I175+1+2*K175)/M175</f>
-        <v>78.5</v>
+        <f>1+ROUNDDOWN((($C175-$H175+2*$J175)/$L175),0)</f>
+        <v>341</v>
       </c>
       <c r="S175" s="4">
-        <f>(C175-H175+1+2*J175)/L175</f>
-        <v>340.5</v>
+        <f>1+ROUNDDOWN((($D175-$I175+2*$K175)/$M175),0)</f>
+        <v>79</v>
       </c>
       <c r="T175" s="10">
         <f>N175+P175</f>
         <v>0.57299999999999995</v>
       </c>
       <c r="U175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
-        <v>3.2429800947867298</v>
+        <f t="shared" ref="U175:U206" si="9">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(N175/1000)/10^12</f>
+        <v>3.2684284360189571</v>
       </c>
       <c r="V175" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W175" s="1">
-        <f>(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
-        <v>1.8902453038674036</v>
+        <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
+        <v>1.9050784530386744</v>
       </c>
       <c r="X175" t="s">
         <v>18</v>
       </c>
       <c r="AA175" s="1"/>
+      <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
-    </row>
-    <row r="176" spans="1:29">
+      <c r="AD175" s="1"/>
+    </row>
+    <row r="176" spans="1:30">
       <c r="C176">
         <v>700</v>
       </c>
@@ -5257,35 +5335,37 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="R176" s="4">
-        <f>(D176-I176+1+2*K176)/M176</f>
-        <v>78.5</v>
+        <f t="shared" ref="R176:R239" si="11">1+ROUNDDOWN((($C176-$H176+2*$J176)/$L176),0)</f>
+        <v>341</v>
       </c>
       <c r="S176" s="4">
-        <f>(C176-H176+1+2*J176)/L176</f>
-        <v>340.5</v>
+        <f t="shared" ref="S176:S239" si="12">1+ROUNDDOWN((($D176-$I176+2*$K176)/$M176),0)</f>
+        <v>79</v>
       </c>
       <c r="T176" s="10">
         <f>N176+P176</f>
         <v>1.0720000000000001</v>
       </c>
       <c r="U176" s="1">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(N176/1000)/10^12</f>
-        <v>3.4299187969924816</v>
+        <f t="shared" si="9"/>
+        <v>3.4568340852130328</v>
       </c>
       <c r="V176" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W176" s="1">
-        <f>(2*$R176*$S176*$F176*$G176*$E176*$I176*$H176)/(P176/1000)/10^12</f>
-        <v>2.0334882615156014</v>
+        <f t="shared" si="10"/>
+        <v>2.0494454680534915</v>
       </c>
       <c r="X176" t="s">
         <v>18</v>
       </c>
       <c r="AA176" s="1"/>
+      <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
-    </row>
-    <row r="177" spans="3:29">
+      <c r="AD176" s="1"/>
+    </row>
+    <row r="177" spans="3:30">
       <c r="C177">
         <v>700</v>
       </c>
@@ -5329,35 +5409,37 @@
         <v>1.296</v>
       </c>
       <c r="R177" s="4">
-        <f>(D177-I177+1+2*K177)/M177</f>
-        <v>78.5</v>
+        <f t="shared" si="11"/>
+        <v>341</v>
       </c>
       <c r="S177" s="4">
-        <f>(C177-H177+1+2*J177)/L177</f>
-        <v>340.5</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="T177" s="10">
         <f>N177+P177</f>
         <v>2.0640000000000001</v>
       </c>
       <c r="U177" s="1">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(N177/1000)/10^12</f>
-        <v>3.5638999999999998</v>
+        <f t="shared" si="9"/>
+        <v>3.5918666666666663</v>
       </c>
       <c r="V177" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W177" s="1">
-        <f>(2*$R177*$S177*$F177*$G177*$E177*$I177*$H177)/(P177/1000)/10^12</f>
-        <v>2.1119407407407409</v>
+        <f t="shared" si="10"/>
+        <v>2.1285135802469135</v>
       </c>
       <c r="X177" t="s">
         <v>18</v>
       </c>
       <c r="AA177" s="1"/>
+      <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
-    </row>
-    <row r="178" spans="3:29">
+      <c r="AD177" s="1"/>
+    </row>
+    <row r="178" spans="3:30">
       <c r="C178">
         <v>700</v>
       </c>
@@ -5401,35 +5483,37 @@
         <v>2.7850000000000001</v>
       </c>
       <c r="R178" s="4">
-        <f>(D178-I178+1+2*K178)/M178</f>
-        <v>78.5</v>
+        <f t="shared" si="11"/>
+        <v>341</v>
       </c>
       <c r="S178" s="4">
-        <f>(C178-H178+1+2*J178)/L178</f>
-        <v>340.5</v>
+        <f t="shared" si="12"/>
+        <v>79</v>
       </c>
       <c r="T178" s="10">
         <f>N178+P178</f>
         <v>4.2910000000000004</v>
       </c>
       <c r="U178" s="1">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(N178/1000)/10^12</f>
-        <v>3.6348940239043825</v>
+        <f t="shared" si="9"/>
+        <v>3.6634177954847282</v>
       </c>
       <c r="V178" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W178" s="1">
-        <f>(2*$R178*$S178*$F178*$G178*$E178*$I178*$H178)/(P178/1000)/10^12</f>
-        <v>1.9655836265709155</v>
+        <f t="shared" si="10"/>
+        <v>1.9810079712746858</v>
       </c>
       <c r="X178" t="s">
         <v>18</v>
       </c>
       <c r="AA178" s="1"/>
+      <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
-    </row>
-    <row r="179" spans="3:29">
+      <c r="AD178" s="1"/>
+    </row>
+    <row r="179" spans="3:30">
       <c r="C179">
         <v>341</v>
       </c>
@@ -5473,12 +5557,12 @@
         <v>0.75900000000000001</v>
       </c>
       <c r="R179" s="4">
-        <f>(D179-I179+1+2*K179)/M179</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S179" s="4">
-        <f>(C179-H179+1+2*J179)/L179</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T179" s="1">
         <f>N179+O179+P179</f>
@@ -5486,23 +5570,25 @@
       </c>
       <c r="U179" s="1">
         <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(N179/1000)/10^12</f>
-        <v>3.469061224489796</v>
+        <v>3.5153153741496603</v>
       </c>
       <c r="V179" s="1">
         <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(O179/1000)/10^12</f>
-        <v>0.82463130659767137</v>
+        <v>0.83562639068564037</v>
       </c>
       <c r="W179" s="1">
-        <f>(2*$R179*$S179*$F179*$G179*$E179*$I179*$H179)/(P179/1000)/10^12</f>
-        <v>3.3593675889328063</v>
+        <f t="shared" si="10"/>
+        <v>3.4041591567852438</v>
       </c>
       <c r="X179" t="s">
         <v>18</v>
       </c>
       <c r="AA179" s="1"/>
+      <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
-    </row>
-    <row r="180" spans="3:29">
+      <c r="AD179" s="1"/>
+    </row>
+    <row r="180" spans="3:30">
       <c r="C180">
         <v>341</v>
       </c>
@@ -5546,36 +5632,38 @@
         <v>1.476</v>
       </c>
       <c r="R180" s="4">
-        <f>(D180-I180+1+2*K180)/M180</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S180" s="4">
-        <f>(C180-H180+1+2*J180)/L180</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T180" s="1">
-        <f t="shared" ref="T180:T182" si="9">N180+O180+P180</f>
+        <f t="shared" ref="T180:T182" si="13">N180+O180+P180</f>
         <v>8.963000000000001</v>
       </c>
       <c r="U180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(N180/1000)/10^12</f>
-        <v>3.67930735930736</v>
+        <f t="shared" si="9"/>
+        <v>3.728364790764791</v>
       </c>
       <c r="V180" s="1">
         <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(O180/1000)/10^12</f>
-        <v>0.83584986067857725</v>
+        <v>0.84699452548762499</v>
       </c>
       <c r="W180" s="1">
-        <f>(2*$R180*$S180*$F180*$G180*$E180*$I180*$H180)/(P180/1000)/10^12</f>
-        <v>3.454959349593496</v>
+        <f t="shared" si="10"/>
+        <v>3.5010254742547429</v>
       </c>
       <c r="X180" t="s">
         <v>18</v>
       </c>
       <c r="AA180" s="1"/>
+      <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
-    </row>
-    <row r="181" spans="3:29">
+      <c r="AD180" s="1"/>
+    </row>
+    <row r="181" spans="3:30">
       <c r="C181">
         <v>341</v>
       </c>
@@ -5619,36 +5707,38 @@
         <v>2.8559999999999999</v>
       </c>
       <c r="R181" s="4">
-        <f>(D181-I181+1+2*K181)/M181</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S181" s="4">
-        <f>(C181-H181+1+2*J181)/L181</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T181" s="1">
+        <f t="shared" si="13"/>
+        <v>17.463999999999999</v>
+      </c>
+      <c r="U181" s="1">
         <f t="shared" si="9"/>
-        <v>17.463999999999999</v>
-      </c>
-      <c r="U181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(N181/1000)/10^12</f>
-        <v>4.0504527402700559</v>
+        <v>4.1044587768069896</v>
       </c>
       <c r="V181" s="1">
         <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(O181/1000)/10^12</f>
-        <v>0.84359305210918112</v>
+        <v>0.85484095947063687</v>
       </c>
       <c r="W181" s="1">
-        <f>(2*$R181*$S181*$F181*$G181*$E181*$I181*$H181)/(P181/1000)/10^12</f>
-        <v>3.5710924369747898</v>
+        <f t="shared" si="10"/>
+        <v>3.6187070028011208</v>
       </c>
       <c r="X181" t="s">
         <v>18</v>
       </c>
       <c r="AA181" s="1"/>
+      <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
-    </row>
-    <row r="182" spans="3:29">
+      <c r="AD181" s="1"/>
+    </row>
+    <row r="182" spans="3:30">
       <c r="C182">
         <v>341</v>
       </c>
@@ -5692,36 +5782,38 @@
         <v>5.665</v>
       </c>
       <c r="R182" s="4">
-        <f>(D182-I182+1+2*K182)/M182</f>
-        <v>37.5</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="S182" s="4">
-        <f>(C182-H182+1+2*J182)/L182</f>
-        <v>166</v>
+        <f t="shared" si="12"/>
+        <v>38</v>
       </c>
       <c r="T182" s="1">
+        <f t="shared" si="13"/>
+        <v>34.585999999999999</v>
+      </c>
+      <c r="U182" s="1">
         <f t="shared" si="9"/>
-        <v>34.585999999999999</v>
-      </c>
-      <c r="U182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(N182/1000)/10^12</f>
-        <v>4.2214569536423845</v>
+        <v>4.2777430463576165</v>
       </c>
       <c r="V182" s="1">
         <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(O182/1000)/10^12</f>
-        <v>0.84677985802648514</v>
+        <v>0.85807025613350496</v>
       </c>
       <c r="W182" s="1">
-        <f>(2*$R182*$S182*$F182*$G182*$E182*$I182*$H182)/(P182/1000)/10^12</f>
-        <v>3.6007202118270079</v>
+        <f t="shared" si="10"/>
+        <v>3.648729814651368</v>
       </c>
       <c r="X182" t="s">
         <v>18</v>
       </c>
       <c r="AA182" s="1"/>
+      <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
-    </row>
-    <row r="183" spans="3:29">
+      <c r="AD182" s="1"/>
+    </row>
+    <row r="183" spans="3:30">
       <c r="C183">
         <v>480</v>
       </c>
@@ -5765,35 +5857,37 @@
         <v>0.751</v>
       </c>
       <c r="R183" s="4">
-        <f>(D183-I183+1+2*K183)/M183</f>
+        <f t="shared" si="11"/>
+        <v>480</v>
+      </c>
+      <c r="S183" s="4">
+        <f t="shared" si="12"/>
         <v>48</v>
-      </c>
-      <c r="S183" s="4">
-        <f>(C183-H183+1+2*J183)/L183</f>
-        <v>480</v>
       </c>
       <c r="T183" s="1">
         <f>N183+P183</f>
         <v>0.98399999999999999</v>
       </c>
       <c r="U183" s="1">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(N183/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>0.45565802575107295</v>
       </c>
       <c r="V183" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W183" s="1">
-        <f>(2*$R183*$S183*$F183*$G183*$E183*$I183*$H183)/(P183/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.14136926764314245</v>
       </c>
       <c r="X183" t="s">
         <v>18</v>
       </c>
       <c r="AA183" s="1"/>
+      <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
-    </row>
-    <row r="184" spans="3:29">
+      <c r="AD183" s="1"/>
+    </row>
+    <row r="184" spans="3:30">
       <c r="C184">
         <v>240</v>
       </c>
@@ -5837,19 +5931,19 @@
         <v>0.89800000000000002</v>
       </c>
       <c r="R184" s="4">
-        <f>(D184-I184+1+2*K184)/M184</f>
+        <f t="shared" si="11"/>
+        <v>240</v>
+      </c>
+      <c r="S184" s="4">
+        <f t="shared" si="12"/>
         <v>24</v>
-      </c>
-      <c r="S184" s="4">
-        <f>(C184-H184+1+2*J184)/L184</f>
-        <v>240</v>
       </c>
       <c r="T184" s="1">
         <f>N184+O184+P184</f>
         <v>1.4780000000000002</v>
       </c>
       <c r="U184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(N184/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.0552034532374095</v>
       </c>
       <c r="V184" s="1">
@@ -5857,16 +5951,18 @@
         <v>2.8124058278145698</v>
       </c>
       <c r="W184" s="1">
-        <f>(2*$R184*$S184*$F184*$G184*$E184*$I184*$H184)/(P184/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.94582022271714916</v>
       </c>
       <c r="X184" t="s">
         <v>18</v>
       </c>
       <c r="AA184" s="1"/>
+      <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
-    </row>
-    <row r="185" spans="3:29">
+      <c r="AD184" s="1"/>
+    </row>
+    <row r="185" spans="3:30">
       <c r="C185">
         <v>120</v>
       </c>
@@ -5910,19 +6006,19 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="R185" s="4">
-        <f>(D185-I185+1+2*K185)/M185</f>
+        <f t="shared" si="11"/>
+        <v>120</v>
+      </c>
+      <c r="S185" s="4">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="S185" s="4">
-        <f>(C185-H185+1+2*J185)/L185</f>
-        <v>120</v>
-      </c>
       <c r="T185" s="1">
-        <f t="shared" ref="T185:T186" si="10">N185+O185+P185</f>
+        <f t="shared" ref="T185:T186" si="14">N185+O185+P185</f>
         <v>0.93</v>
       </c>
       <c r="U185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(N185/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.5389440000000003</v>
       </c>
       <c r="V185" s="1">
@@ -5930,16 +6026,18 @@
         <v>5.7388281081081081</v>
       </c>
       <c r="W185" s="1">
-        <f>(2*$R185*$S185*$F185*$G185*$E185*$I185*$H185)/(P185/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.5670600738007379</v>
       </c>
       <c r="X185" t="s">
         <v>18</v>
       </c>
       <c r="AA185" s="1"/>
+      <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
-    </row>
-    <row r="186" spans="3:29">
+      <c r="AD185" s="1"/>
+    </row>
+    <row r="186" spans="3:30">
       <c r="C186">
         <v>60</v>
       </c>
@@ -5983,19 +6081,19 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="R186" s="4">
-        <f>(D186-I186+1+2*K186)/M186</f>
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="S186" s="4">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="S186" s="4">
-        <f>(C186-H186+1+2*J186)/L186</f>
-        <v>60</v>
-      </c>
       <c r="T186" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>0.63900000000000001</v>
       </c>
       <c r="U186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(N186/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.7003124832214764</v>
       </c>
       <c r="V186" s="1">
@@ -6003,16 +6101,18 @@
         <v>6.2451952941176474</v>
       </c>
       <c r="W186" s="1">
-        <f>(2*$R186*$S186*$F186*$G186*$E186*$I186*$H186)/(P186/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.3992840677966103</v>
       </c>
       <c r="X186" t="s">
         <v>19</v>
       </c>
       <c r="AA186" s="1"/>
+      <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
-    </row>
-    <row r="187" spans="3:29">
+      <c r="AD186" s="1"/>
+    </row>
+    <row r="187" spans="3:30">
       <c r="C187">
         <v>108</v>
       </c>
@@ -6056,11 +6156,11 @@
         <v>0.17499999999999999</v>
       </c>
       <c r="R187" s="4">
-        <f>(D187-I187+1+2*K187)/M187</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="S187" s="4">
-        <f>(C187-H187+1+2*J187)/L187</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="T187" s="1">
@@ -6068,23 +6168,25 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="U187" s="1">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(N187/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>1.3216650491803279</v>
       </c>
       <c r="V187" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W187" s="1">
-        <f>(2*$R187*$S187*$F187*$G187*$E187*$I187*$H187)/(P187/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.46069467428571431</v>
       </c>
       <c r="X187" t="s">
         <v>18</v>
       </c>
       <c r="AA187" s="1"/>
+      <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
-    </row>
-    <row r="188" spans="3:29">
+      <c r="AD187" s="1"/>
+    </row>
+    <row r="188" spans="3:30">
       <c r="C188">
         <v>54</v>
       </c>
@@ -6128,11 +6230,11 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="R188" s="4">
-        <f>(D188-I188+1+2*K188)/M188</f>
+        <f t="shared" si="11"/>
         <v>54</v>
       </c>
       <c r="S188" s="4">
-        <f>(C188-H188+1+2*J188)/L188</f>
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
       <c r="T188" s="1">
@@ -6140,7 +6242,7 @@
         <v>1.1539999999999999</v>
       </c>
       <c r="U188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(N188/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.7909992727272721</v>
       </c>
       <c r="V188" s="1">
@@ -6148,16 +6250,18 @@
         <v>5.7715663892617455</v>
       </c>
       <c r="W188" s="1">
-        <f>(2*$R188*$S188*$F188*$G188*$E188*$I188*$H188)/(P188/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.0767921001788907</v>
       </c>
       <c r="X188" t="s">
         <v>19</v>
       </c>
       <c r="AA188" s="1"/>
+      <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
-    </row>
-    <row r="189" spans="3:29">
+      <c r="AD188" s="1"/>
+    </row>
+    <row r="189" spans="3:30">
       <c r="C189">
         <v>27</v>
       </c>
@@ -6201,19 +6305,19 @@
         <v>0.497</v>
       </c>
       <c r="R189" s="4">
-        <f>(D189-I189+1+2*K189)/M189</f>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="S189" s="4">
-        <f>(C189-H189+1+2*J189)/L189</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="T189" s="1">
-        <f t="shared" ref="T189:T191" si="11">N189+O189+P189</f>
+        <f t="shared" ref="T189:T191" si="15">N189+O189+P189</f>
         <v>1.077</v>
       </c>
       <c r="U189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(N189/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.9307820137931033</v>
       </c>
       <c r="V189" s="1">
@@ -6221,16 +6325,18 @@
         <v>5.9307820137931033</v>
       </c>
       <c r="W189" s="1">
-        <f>(2*$R189*$S189*$F189*$G189*$E189*$I189*$H189)/(P189/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.4606172716297783</v>
       </c>
       <c r="X189" t="s">
         <v>19</v>
       </c>
       <c r="AA189" s="1"/>
+      <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
-    </row>
-    <row r="190" spans="3:29">
+      <c r="AD189" s="1"/>
+    </row>
+    <row r="190" spans="3:30">
       <c r="C190">
         <v>14</v>
       </c>
@@ -6274,19 +6380,19 @@
         <v>0.314</v>
       </c>
       <c r="R190" s="4">
-        <f>(D190-I190+1+2*K190)/M190</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S190" s="4">
-        <f>(C190-H190+1+2*J190)/L190</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T190" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.66300000000000003</v>
       </c>
       <c r="U190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(N190/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>5.6051153454545455</v>
       </c>
       <c r="V190" s="1">
@@ -6294,16 +6400,18 @@
         <v>5.0263262608695651</v>
       </c>
       <c r="W190" s="1">
-        <f>(2*$R190*$S190*$F190*$G190*$E190*$I190*$H190)/(P190/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.945363159235669</v>
       </c>
       <c r="X190" t="s">
         <v>19</v>
       </c>
       <c r="AA190" s="1"/>
+      <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
-    </row>
-    <row r="191" spans="3:29">
+      <c r="AD190" s="1"/>
+    </row>
+    <row r="191" spans="3:30">
       <c r="C191">
         <v>7</v>
       </c>
@@ -6347,19 +6455,19 @@
         <v>0.432</v>
       </c>
       <c r="R191" s="4">
-        <f>(D191-I191+1+2*K191)/M191</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S191" s="4">
-        <f>(C191-H191+1+2*J191)/L191</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T191" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.1639999999999999</v>
       </c>
       <c r="U191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(N191/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.4728450053475939</v>
       </c>
       <c r="V191" s="1">
@@ -6367,16 +6475,18 @@
         <v>2.5833632178770953</v>
       </c>
       <c r="W191" s="1">
-        <f>(2*$R191*$S191*$F191*$G191*$E191*$I191*$H191)/(P191/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.1408426666666669</v>
       </c>
       <c r="X191" t="s">
         <v>19</v>
       </c>
       <c r="AA191" s="1"/>
+      <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
-    </row>
-    <row r="192" spans="3:29">
+      <c r="AD191" s="1"/>
+    </row>
+    <row r="192" spans="3:30">
       <c r="C192">
         <v>224</v>
       </c>
@@ -6420,11 +6530,11 @@
         <v>1.899</v>
       </c>
       <c r="R192" s="4">
-        <f>(D192-I192+1+2*K192)/M192</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="S192" s="4">
-        <f>(C192-H192+1+2*J192)/L192</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="T192" s="1">
@@ -6432,23 +6542,25 @@
         <v>2.5720000000000001</v>
       </c>
       <c r="U192" s="1">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(N192/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.0613165646359581</v>
       </c>
       <c r="V192" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W192" s="1">
-        <f>(2*$R192*$S192*$F192*$G192*$E192*$I192*$H192)/(P192/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.73052451184834122</v>
       </c>
       <c r="X192" t="s">
         <v>18</v>
       </c>
       <c r="AA192" s="1"/>
+      <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
-    </row>
-    <row r="193" spans="3:29">
+      <c r="AD192" s="1"/>
+    </row>
+    <row r="193" spans="3:30">
       <c r="C193">
         <v>112</v>
       </c>
@@ -6492,11 +6604,11 @@
         <v>3.6669999999999998</v>
       </c>
       <c r="R193" s="4">
-        <f>(D193-I193+1+2*K193)/M193</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S193" s="4">
-        <f>(C193-H193+1+2*J193)/L193</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T193" s="1">
@@ -6504,7 +6616,7 @@
         <v>7.2859999999999996</v>
       </c>
       <c r="U193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(N193/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.8128323717001065</v>
       </c>
       <c r="V193" s="1">
@@ -6512,16 +6624,18 @@
         <v>8.5782634852173913</v>
       </c>
       <c r="W193" s="1">
-        <f>(2*$R193*$S193*$F193*$G193*$E193*$I193*$H193)/(P193/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.0353162017998372</v>
       </c>
       <c r="X193" t="s">
         <v>19</v>
       </c>
       <c r="AA193" s="1"/>
+      <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
-    </row>
-    <row r="194" spans="3:29">
+      <c r="AD193" s="1"/>
+    </row>
+    <row r="194" spans="3:30">
       <c r="C194">
         <f>112/2</f>
         <v>56</v>
@@ -6566,19 +6680,19 @@
         <v>3.3759999999999999</v>
       </c>
       <c r="R194" s="4">
-        <f>(D194-I194+1+2*K194)/M194</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S194" s="4">
-        <f>(C194-H194+1+2*J194)/L194</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T194" s="1">
-        <f t="shared" ref="T194:T197" si="12">N194+O194+P194</f>
+        <f t="shared" ref="T194:T197" si="16">N194+O194+P194</f>
         <v>12.074999999999999</v>
       </c>
       <c r="U194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(N194/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.1602196367883213</v>
       </c>
       <c r="V194" s="1">
@@ -6586,16 +6700,18 @@
         <v>8.002977021092482</v>
       </c>
       <c r="W194" s="1">
-        <f>(2*$R194*$S194*$F194*$G194*$E194*$I194*$H194)/(P194/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.3831470710900478</v>
       </c>
       <c r="X194" t="s">
         <v>20</v>
       </c>
       <c r="AA194" s="1"/>
+      <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
-    </row>
-    <row r="195" spans="3:29">
+      <c r="AD194" s="1"/>
+    </row>
+    <row r="195" spans="3:30">
       <c r="C195">
         <f>56/2</f>
         <v>28</v>
@@ -6640,19 +6756,19 @@
         <v>3.5739999999999998</v>
       </c>
       <c r="R195" s="4">
-        <f>(D195-I195+1+2*K195)/M195</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S195" s="4">
-        <f>(C195-H195+1+2*J195)/L195</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T195" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.4039999999999999</v>
       </c>
       <c r="U195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(N195/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.5190571707317071</v>
       </c>
       <c r="V195" s="1">
@@ -6660,16 +6776,18 @@
         <v>7.9471023157894729</v>
       </c>
       <c r="W195" s="1">
-        <f>(2*$R195*$S195*$F195*$G195*$E195*$I195*$H195)/(P195/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.1403202327923898</v>
       </c>
       <c r="X195" t="s">
         <v>19</v>
       </c>
       <c r="AA195" s="1"/>
+      <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
-    </row>
-    <row r="196" spans="3:29">
+      <c r="AD195" s="1"/>
+    </row>
+    <row r="196" spans="3:30">
       <c r="C196">
         <v>14</v>
       </c>
@@ -6713,19 +6831,19 @@
         <v>2.1240000000000001</v>
       </c>
       <c r="R196" s="4">
-        <f>(D196-I196+1+2*K196)/M196</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S196" s="4">
-        <f>(C196-H196+1+2*J196)/L196</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T196" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4.2650000000000006</v>
       </c>
       <c r="U196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(N196/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>6.7630276563071288</v>
       </c>
       <c r="V196" s="1">
@@ -6733,16 +6851,18 @@
         <v>7.066621065902579</v>
       </c>
       <c r="W196" s="1">
-        <f>(2*$R196*$S196*$F196*$G196*$E196*$I196*$H196)/(P196/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.4834050169491522</v>
       </c>
       <c r="X196" t="s">
         <v>19</v>
       </c>
       <c r="AA196" s="1"/>
+      <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
-    </row>
-    <row r="197" spans="3:29">
+      <c r="AD196" s="1"/>
+    </row>
+    <row r="197" spans="3:30">
       <c r="C197">
         <v>7</v>
       </c>
@@ -6786,19 +6906,19 @@
         <v>0.81200000000000006</v>
       </c>
       <c r="R197" s="4">
-        <f>(D197-I197+1+2*K197)/M197</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S197" s="4">
-        <f>(C197-H197+1+2*J197)/L197</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T197" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.1790000000000003</v>
       </c>
       <c r="U197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(N197/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.6199547648725217</v>
       </c>
       <c r="V197" s="1">
@@ -6806,16 +6926,18 @@
         <v>2.7983177972768529</v>
       </c>
       <c r="W197" s="1">
-        <f>(2*$R197*$S197*$F197*$G197*$E197*$I197*$H197)/(P197/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.2779409655172413</v>
       </c>
       <c r="X197" t="s">
         <v>19</v>
       </c>
       <c r="AA197" s="1"/>
+      <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
-    </row>
-    <row r="198" spans="3:29">
+      <c r="AD197" s="1"/>
+    </row>
+    <row r="198" spans="3:30">
       <c r="C198">
         <v>224</v>
       </c>
@@ -6859,11 +6981,11 @@
         <v>3.665</v>
       </c>
       <c r="R198" s="4">
-        <f>(D198-I198+1+2*K198)/M198</f>
+        <f t="shared" si="11"/>
         <v>224</v>
       </c>
       <c r="S198" s="4">
-        <f>(C198-H198+1+2*J198)/L198</f>
+        <f t="shared" si="12"/>
         <v>224</v>
       </c>
       <c r="T198" s="1">
@@ -6871,23 +6993,25 @@
         <v>4.9820000000000002</v>
       </c>
       <c r="U198" s="1">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(N198/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.1067062232346241</v>
       </c>
       <c r="V198" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W198" s="1">
-        <f>(2*$R198*$S198*$F198*$G198*$E198*$I198*$H198)/(P198/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.75703467830832205</v>
       </c>
       <c r="X198" t="s">
         <v>18</v>
       </c>
       <c r="AA198" s="1"/>
+      <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
-    </row>
-    <row r="199" spans="3:29">
+      <c r="AD198" s="1"/>
+    </row>
+    <row r="199" spans="3:30">
       <c r="C199">
         <v>112</v>
       </c>
@@ -6931,11 +7055,11 @@
         <v>7.1449999999999996</v>
       </c>
       <c r="R199" s="4">
-        <f>(D199-I199+1+2*K199)/M199</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S199" s="4">
-        <f>(C199-H199+1+2*J199)/L199</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T199" s="1">
@@ -6943,7 +7067,7 @@
         <v>14.311999999999999</v>
       </c>
       <c r="U199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(N199/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.8731069497206709</v>
       </c>
       <c r="V199" s="1">
@@ -6951,16 +7075,18 @@
         <v>8.6839815211267606</v>
       </c>
       <c r="W199" s="1">
-        <f>(2*$R199*$S199*$F199*$G199*$E199*$I199*$H199)/(P199/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.1420586457662703</v>
       </c>
       <c r="X199" t="s">
         <v>19</v>
       </c>
       <c r="AA199" s="1"/>
+      <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
-    </row>
-    <row r="200" spans="3:29">
+      <c r="AD199" s="1"/>
+    </row>
+    <row r="200" spans="3:30">
       <c r="C200">
         <f>112/2</f>
         <v>56</v>
@@ -7005,19 +7131,19 @@
         <v>6.4320000000000004</v>
       </c>
       <c r="R200" s="4">
-        <f>(D200-I200+1+2*K200)/M200</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S200" s="4">
-        <f>(C200-H200+1+2*J200)/L200</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T200" s="1">
-        <f t="shared" ref="T200:T203" si="13">N200+O200+P200</f>
+        <f t="shared" ref="T200:T203" si="17">N200+O200+P200</f>
         <v>28.115000000000002</v>
       </c>
       <c r="U200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(N200/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.7827935142454159</v>
       </c>
       <c r="V200" s="1">
@@ -7025,16 +7151,18 @@
         <v>2.6787662041998548</v>
       </c>
       <c r="W200" s="1">
-        <f>(2*$R200*$S200*$F200*$G200*$E200*$I200*$H200)/(P200/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.6012140895522382</v>
       </c>
       <c r="X200" t="s">
         <v>20</v>
       </c>
       <c r="AA200" s="1"/>
+      <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
-    </row>
-    <row r="201" spans="3:29">
+      <c r="AD200" s="1"/>
+    </row>
+    <row r="201" spans="3:30">
       <c r="C201">
         <f>56/2</f>
         <v>28</v>
@@ -7079,19 +7207,19 @@
         <v>6.7119999999999997</v>
       </c>
       <c r="R201" s="4">
-        <f>(D201-I201+1+2*K201)/M201</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S201" s="4">
-        <f>(C201-H201+1+2*J201)/L201</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T201" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>14.167999999999999</v>
       </c>
       <c r="U201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(N201/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.681030112639502</v>
       </c>
       <c r="V201" s="1">
@@ -7099,16 +7227,18 @@
         <v>8.2139908476269774</v>
       </c>
       <c r="W201" s="1">
-        <f>(2*$R201*$S201*$F201*$G201*$E201*$I201*$H201)/(P201/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.4092683289630505</v>
       </c>
       <c r="X201" t="s">
         <v>19</v>
       </c>
       <c r="AA201" s="1"/>
+      <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
-    </row>
-    <row r="202" spans="3:29">
+      <c r="AD201" s="1"/>
+    </row>
+    <row r="202" spans="3:30">
       <c r="C202">
         <v>14</v>
       </c>
@@ -7152,19 +7282,19 @@
         <v>3.6</v>
       </c>
       <c r="R202" s="4">
-        <f>(D202-I202+1+2*K202)/M202</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S202" s="4">
-        <f>(C202-H202+1+2*J202)/L202</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T202" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>7.5879999999999992</v>
       </c>
       <c r="U202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(N202/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>7.2894110896551743</v>
       </c>
       <c r="V202" s="1">
@@ -7172,16 +7302,18 @@
         <v>7.5574588927477011</v>
       </c>
       <c r="W202" s="1">
-        <f>(2*$R202*$S202*$F202*$G202*$E202*$I202*$H202)/(P202/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.1104179199999997</v>
       </c>
       <c r="X202" t="s">
         <v>19</v>
       </c>
       <c r="AA202" s="1"/>
+      <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
-    </row>
-    <row r="203" spans="3:29">
+      <c r="AD202" s="1"/>
+    </row>
+    <row r="203" spans="3:30">
       <c r="C203">
         <v>7</v>
       </c>
@@ -7225,19 +7357,19 @@
         <v>2.593</v>
       </c>
       <c r="R203" s="4">
-        <f>(D203-I203+1+2*K203)/M203</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S203" s="4">
-        <f>(C203-H203+1+2*J203)/L203</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T203" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>4.9279999999999999</v>
       </c>
       <c r="U203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(N203/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.1009020352053644</v>
       </c>
       <c r="V203" s="1">
@@ -7245,16 +7377,18 @@
         <v>3.2393836497373028</v>
       </c>
       <c r="W203" s="1">
-        <f>(2*$R203*$S203*$F203*$G203*$E203*$I203*$H203)/(P203/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.4266780285383727</v>
       </c>
       <c r="X203" t="s">
         <v>19</v>
       </c>
       <c r="AA203" s="1"/>
+      <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
-    </row>
-    <row r="204" spans="3:29">
+      <c r="AD203" s="1"/>
+    </row>
+    <row r="204" spans="3:30">
       <c r="C204">
         <v>224</v>
       </c>
@@ -7298,11 +7432,11 @@
         <v>2.2530000000000001</v>
       </c>
       <c r="R204" s="4">
-        <f>(D204-I204+1+2*K204)/M204</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S204" s="4">
-        <f>(C204-H204+1+2*J204)/L204</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T204" s="1">
@@ -7310,23 +7444,25 @@
         <v>3.2690000000000001</v>
       </c>
       <c r="U204" s="1">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(N204/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.7169748661417326</v>
       </c>
       <c r="V204" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W204" s="1">
-        <f>(2*$R204*$S204*$F204*$G204*$E204*$I204*$H204)/(P204/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.6761857363515309</v>
       </c>
       <c r="X204" t="s">
         <v>18</v>
       </c>
       <c r="AA204" s="1"/>
+      <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
-    </row>
-    <row r="205" spans="3:29">
+      <c r="AD204" s="1"/>
+    </row>
+    <row r="205" spans="3:30">
       <c r="C205">
         <v>28</v>
       </c>
@@ -7370,11 +7506,11 @@
         <v>1.175</v>
       </c>
       <c r="R205" s="4">
-        <f>(D205-I205+1+2*K205)/M205</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S205" s="4">
-        <f>(C205-H205+1+2*J205)/L205</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T205" s="1">
@@ -7382,24 +7518,26 @@
         <v>3.0190000000000001</v>
       </c>
       <c r="U205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(N205/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>3.2740159728122342</v>
       </c>
       <c r="V205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
+        <f t="shared" ref="V205:V228" si="18">(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(O205/1000)/10^12</f>
         <v>5.7773865067466259</v>
       </c>
       <c r="W205" s="1">
-        <f>(2*$R205*$S205*$F205*$G205*$E205*$I205*$H205)/(P205/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.2795887659574467</v>
       </c>
       <c r="X205" t="s">
         <v>18</v>
       </c>
       <c r="AA205" s="1"/>
+      <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
-    </row>
-    <row r="206" spans="3:29">
+      <c r="AD205" s="1"/>
+    </row>
+    <row r="206" spans="3:30">
       <c r="C206">
         <v>28</v>
       </c>
@@ -7443,36 +7581,38 @@
         <v>0.218</v>
       </c>
       <c r="R206" s="4">
-        <f>(D206-I206+1+2*K206)/M206</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S206" s="4">
-        <f>(C206-H206+1+2*J206)/L206</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T206" s="1">
-        <f t="shared" ref="T206:T228" si="14">N206+O206+P206</f>
+        <f t="shared" ref="T206:T228" si="19">N206+O206+P206</f>
         <v>0.48199999999999998</v>
       </c>
       <c r="U206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(N206/1000)/10^12</f>
+        <f t="shared" si="9"/>
         <v>2.4274121574803149</v>
       </c>
       <c r="V206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(O206/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.2502287883211674</v>
       </c>
       <c r="W206" s="1">
-        <f>(2*$R206*$S206*$F206*$G206*$E206*$I206*$H206)/(P206/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.4141346055045871</v>
       </c>
       <c r="X206" t="s">
         <v>18</v>
       </c>
       <c r="AA206" s="1"/>
+      <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
-    </row>
-    <row r="207" spans="3:29">
+      <c r="AD206" s="1"/>
+    </row>
+    <row r="207" spans="3:30">
       <c r="C207">
         <v>14</v>
       </c>
@@ -7516,36 +7656,38 @@
         <v>1.974</v>
       </c>
       <c r="R207" s="4">
-        <f>(D207-I207+1+2*K207)/M207</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S207" s="4">
-        <f>(C207-H207+1+2*J207)/L207</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T207" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.891</v>
       </c>
       <c r="U207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
+        <f t="shared" ref="U207:U238" si="20">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(N207/1000)/10^12</f>
         <v>1.2939948959032908</v>
       </c>
       <c r="V207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(O207/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.9873732851985559</v>
       </c>
       <c r="W207" s="1">
-        <f>(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
+        <f t="shared" ref="W207:W238" si="21">(2*$R207*$S207*$F207*$G207*$E207*$I207*$H207)/(P207/1000)/10^12</f>
         <v>1.952136170212766</v>
       </c>
       <c r="X207" t="s">
         <v>18</v>
       </c>
       <c r="AA207" s="1"/>
+      <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
-    </row>
-    <row r="208" spans="3:29">
+      <c r="AD207" s="1"/>
+    </row>
+    <row r="208" spans="3:30">
       <c r="C208">
         <v>14</v>
       </c>
@@ -7589,36 +7731,38 @@
         <v>0.314</v>
       </c>
       <c r="R208" s="4">
-        <f>(D208-I208+1+2*K208)/M208</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S208" s="4">
-        <f>(C208-H208+1+2*J208)/L208</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T208" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.72300000000000009</v>
       </c>
       <c r="U208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(N208/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.9930227572815538</v>
       </c>
       <c r="V208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(O208/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>3.0372546206896551</v>
       </c>
       <c r="W208" s="1">
-        <f>(2*$R208*$S208*$F208*$G208*$E208*$I208*$H208)/(P208/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.9635754394904461</v>
       </c>
       <c r="X208" t="s">
         <v>18</v>
       </c>
       <c r="AA208" s="1"/>
+      <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
-    </row>
-    <row r="209" spans="2:29">
+      <c r="AD208" s="1"/>
+    </row>
+    <row r="209" spans="2:30">
       <c r="C209">
         <v>7</v>
       </c>
@@ -7662,36 +7806,38 @@
         <v>0.221</v>
       </c>
       <c r="R209" s="4">
-        <f>(D209-I209+1+2*K209)/M209</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S209" s="4">
-        <f>(C209-H209+1+2*J209)/L209</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T209" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.56399999999999995</v>
       </c>
       <c r="U209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(N209/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.8451461657458565</v>
       </c>
       <c r="V209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(O209/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.0615521975308639</v>
       </c>
       <c r="W209" s="1">
-        <f>(2*$R209*$S209*$F209*$G209*$E209*$I209*$H209)/(P209/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.5111830588235293</v>
       </c>
       <c r="X209" t="s">
         <v>18</v>
       </c>
       <c r="AA209" s="1"/>
+      <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
-    </row>
-    <row r="210" spans="2:29">
+      <c r="AD209" s="1"/>
+    </row>
+    <row r="210" spans="2:30">
       <c r="C210">
         <v>7</v>
       </c>
@@ -7735,36 +7881,38 @@
         <v>1.3520000000000001</v>
       </c>
       <c r="R210" s="4">
-        <f>(D210-I210+1+2*K210)/M210</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S210" s="4">
-        <f>(C210-H210+1+2*J210)/L210</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T210" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.694</v>
       </c>
       <c r="U210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(N210/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>3.1843197559115182</v>
       </c>
       <c r="V210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(O210/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.0554619399310683</v>
       </c>
       <c r="W210" s="1">
-        <f>(2*$R210*$S210*$F210*$G210*$E210*$I210*$H210)/(P210/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.0877538461538458</v>
       </c>
       <c r="X210" t="s">
         <v>18</v>
       </c>
       <c r="AA210" s="1"/>
+      <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
-    </row>
-    <row r="211" spans="2:29">
+      <c r="AD210" s="1"/>
+    </row>
+    <row r="211" spans="2:30">
       <c r="C211">
         <v>56</v>
       </c>
@@ -7808,34 +7956,38 @@
         <v>0.57899999999999996</v>
       </c>
       <c r="R211" s="4">
-        <f>(D211-I211+1+2*K211)/M211</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S211" s="4">
-        <f>(C211-H211+1+2*J211)/L211</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T211" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1829999999999998</v>
       </c>
       <c r="U211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(N211/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.1247949139072855</v>
       </c>
       <c r="V211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(O211/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.1247949139072855</v>
       </c>
       <c r="W211" s="1">
-        <f>(2*$R211*$S211*$F211*$G211*$E211*$I211*$H211)/(P211/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.1946253264248705</v>
       </c>
       <c r="X211" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="212" spans="2:29">
+      <c r="AA211" s="1"/>
+      <c r="AB211" s="1"/>
+      <c r="AC211" s="1"/>
+      <c r="AD211" s="1"/>
+    </row>
+    <row r="212" spans="2:30">
       <c r="C212">
         <v>56</v>
       </c>
@@ -7879,34 +8031,38 @@
         <v>0.17799999999999999</v>
       </c>
       <c r="R212" s="4">
-        <f>(D212-I212+1+2*K212)/M212</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S212" s="4">
-        <f>(C212-H212+1+2*J212)/L212</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T212" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.436</v>
       </c>
       <c r="U212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(N212/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.0971519999999999</v>
       </c>
       <c r="V212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(O212/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.2845055999999999</v>
       </c>
       <c r="W212" s="1">
-        <f>(2*$R212*$S212*$F212*$G212*$E212*$I212*$H212)/(P212/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.1546117752808989</v>
       </c>
       <c r="X212" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="213" spans="2:29">
+      <c r="AA212" s="1"/>
+      <c r="AB212" s="1"/>
+      <c r="AC212" s="1"/>
+      <c r="AD212" s="1"/>
+    </row>
+    <row r="213" spans="2:30">
       <c r="C213">
         <v>28</v>
       </c>
@@ -7950,34 +8106,38 @@
         <v>0.59</v>
       </c>
       <c r="R213" s="4">
-        <f>(D213-I213+1+2*K213)/M213</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S213" s="4">
-        <f>(C213-H213+1+2*J213)/L213</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T213" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1559999999999999</v>
       </c>
       <c r="U213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(N213/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.5360002261484098</v>
       </c>
       <c r="V213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(O213/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.5360002261484098</v>
       </c>
       <c r="W213" s="1">
-        <f>(2*$R213*$S213*$F213*$G213*$E213*$I213*$H213)/(P213/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.1350645152542378</v>
       </c>
       <c r="X213" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="214" spans="2:29">
+      <c r="AA213" s="1"/>
+      <c r="AB213" s="1"/>
+      <c r="AC213" s="1"/>
+      <c r="AD213" s="1"/>
+    </row>
+    <row r="214" spans="2:30">
       <c r="B214" s="2"/>
       <c r="C214" s="2">
         <v>28</v>
@@ -8022,34 +8182,38 @@
         <v>0.13800000000000001</v>
       </c>
       <c r="R214" s="4">
-        <f>(D214-I214+1+2*K214)/M214</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S214" s="4">
-        <f>(C214-H214+1+2*J214)/L214</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T214" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.45500000000000002</v>
       </c>
       <c r="U214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(N214/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.1633778526315788</v>
       </c>
       <c r="V214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(O214/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>0.92576980180180179</v>
       </c>
       <c r="W214" s="1">
-        <f>(2*$R214*$S214*$F214*$G214*$E214*$I214*$H214)/(P214/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.4892818550724636</v>
       </c>
       <c r="X214" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="215" spans="2:29">
+      <c r="AA214" s="1"/>
+      <c r="AB214" s="1"/>
+      <c r="AC214" s="1"/>
+      <c r="AD214" s="1"/>
+    </row>
+    <row r="215" spans="2:30">
       <c r="C215">
         <v>14</v>
       </c>
@@ -8093,34 +8257,38 @@
         <v>0.13300000000000001</v>
       </c>
       <c r="R215" s="4">
-        <f>(D215-I215+1+2*K215)/M215</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S215" s="4">
-        <f>(C215-H215+1+2*J215)/L215</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T215" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.35599999999999998</v>
       </c>
       <c r="U215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(N215/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.9207560373831776</v>
       </c>
       <c r="V215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(O215/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.7717318620689655</v>
       </c>
       <c r="W215" s="1">
-        <f>(2*$R215*$S215*$F215*$G215*$E215*$I215*$H215)/(P215/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.545269894736842</v>
       </c>
       <c r="X215" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="216" spans="2:29">
+      <c r="AA215" s="1"/>
+      <c r="AB215" s="1"/>
+      <c r="AC215" s="1"/>
+      <c r="AD215" s="1"/>
+    </row>
+    <row r="216" spans="2:30">
       <c r="C216">
         <v>14</v>
       </c>
@@ -8164,34 +8332,38 @@
         <v>0.439</v>
       </c>
       <c r="R216" s="4">
-        <f>(D216-I216+1+2*K216)/M216</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S216" s="4">
-        <f>(C216-H216+1+2*J216)/L216</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T216" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.032</v>
       </c>
       <c r="U216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(N216/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.2070069261744969</v>
       </c>
       <c r="V216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(O216/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.2701290305084756</v>
       </c>
       <c r="W216" s="1">
-        <f>(2*$R216*$S216*$F216*$G216*$E216*$I216*$H216)/(P216/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.2134124464692482</v>
       </c>
       <c r="X216" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="217" spans="2:29">
+      <c r="AA216" s="1"/>
+      <c r="AB216" s="1"/>
+      <c r="AC216" s="1"/>
+      <c r="AD216" s="1"/>
+    </row>
+    <row r="217" spans="2:30">
       <c r="B217" s="2"/>
       <c r="C217" s="2">
         <v>14</v>
@@ -8236,34 +8408,38 @@
         <v>0.14899999999999999</v>
       </c>
       <c r="R217" s="4">
-        <f>(D217-I217+1+2*K217)/M217</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S217" s="4">
-        <f>(C217-H217+1+2*J217)/L217</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T217" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.45199999999999996</v>
       </c>
       <c r="U217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(N217/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.8515396036036036</v>
       </c>
       <c r="V217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(O217/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.0704213333333332</v>
       </c>
       <c r="W217" s="1">
-        <f>(2*$R217*$S217*$F217*$G217*$E217*$I217*$H217)/(P217/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.3793348724832217</v>
       </c>
       <c r="X217" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="218" spans="2:29">
+      <c r="AA217" s="1"/>
+      <c r="AB217" s="1"/>
+      <c r="AC217" s="1"/>
+      <c r="AD217" s="1"/>
+    </row>
+    <row r="218" spans="2:30">
       <c r="B218" s="2"/>
       <c r="C218">
         <v>7</v>
@@ -8308,34 +8484,38 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="R218" s="4">
-        <f>(D218-I218+1+2*K218)/M218</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S218" s="4">
-        <f>(C218-H218+1+2*J218)/L218</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T218" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.36199999999999999</v>
       </c>
       <c r="U218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(N218/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.8855128073394498</v>
       </c>
       <c r="V218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(O218/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.7717318620689655</v>
       </c>
       <c r="W218" s="1">
-        <f>(2*$R218*$S218*$F218*$G218*$E218*$I218*$H218)/(P218/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.500152525547445</v>
       </c>
       <c r="X218" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="219" spans="2:29">
+      <c r="AA218" s="1"/>
+      <c r="AB218" s="1"/>
+      <c r="AC218" s="1"/>
+      <c r="AD218" s="1"/>
+    </row>
+    <row r="219" spans="2:30">
       <c r="B219" s="2"/>
       <c r="C219">
         <v>7</v>
@@ -8380,34 +8560,38 @@
         <v>0.45300000000000001</v>
       </c>
       <c r="R219" s="4">
-        <f>(D219-I219+1+2*K219)/M219</f>
-        <v>6.5</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="S219" s="4">
-        <f>(C219-H219+1+2*J219)/L219</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="T219" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.304</v>
       </c>
       <c r="U219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(N219/1000)/10^12</f>
-        <v>1.8036574452926208</v>
+        <f t="shared" si="20"/>
+        <v>2.0918157353689568</v>
       </c>
       <c r="V219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(O219/1000)/10^12</f>
-        <v>1.5476798602620088</v>
+        <f t="shared" si="18"/>
+        <v>1.7949423231441048</v>
       </c>
       <c r="W219" s="1">
-        <f>(2*$R219*$S219*$F219*$G219*$E219*$I219*$H219)/(P219/1000)/10^12</f>
-        <v>1.5647624194260485</v>
+        <f t="shared" si="21"/>
+        <v>1.8147540485651212</v>
       </c>
       <c r="X219" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="220" spans="2:29">
+      <c r="AA219" s="1"/>
+      <c r="AB219" s="1"/>
+      <c r="AC219" s="1"/>
+      <c r="AD219" s="1"/>
+    </row>
+    <row r="220" spans="2:30">
       <c r="C220">
         <v>56</v>
       </c>
@@ -8451,34 +8635,38 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="R220" s="4">
-        <f>(D220-I220+1+2*K220)/M220</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S220" s="4">
-        <f>(C220-H220+1+2*J220)/L220</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T220" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.2149999999999999</v>
       </c>
       <c r="U220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(N220/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.5015397680140605</v>
       </c>
       <c r="V220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(O220/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.4901335578947377</v>
       </c>
       <c r="W220" s="1">
-        <f>(2*$R220*$S220*$F220*$G220*$E220*$I220*$H220)/(P220/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.4380819033457244</v>
       </c>
       <c r="X220" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="221" spans="2:29">
+      <c r="AA220" s="1"/>
+      <c r="AB220" s="1"/>
+      <c r="AC220" s="1"/>
+      <c r="AD220" s="1"/>
+    </row>
+    <row r="221" spans="2:30">
       <c r="C221">
         <v>56</v>
       </c>
@@ -8522,34 +8710,38 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="R221" s="4">
-        <f>(D221-I221+1+2*K221)/M221</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S221" s="4">
-        <f>(C221-H221+1+2*J221)/L221</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T221" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.85899999999999999</v>
       </c>
       <c r="U221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(N221/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.553054608695652</v>
       </c>
       <c r="V221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(O221/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.1079293584905658</v>
       </c>
       <c r="W221" s="1">
-        <f>(2*$R221*$S221*$F221*$G221*$E221*$I221*$H221)/(P221/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.2570085382262997</v>
       </c>
       <c r="X221" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="222" spans="2:29">
+      <c r="AA221" s="1"/>
+      <c r="AB221" s="1"/>
+      <c r="AC221" s="1"/>
+      <c r="AD221" s="1"/>
+    </row>
+    <row r="222" spans="2:30">
       <c r="C222">
         <v>28</v>
       </c>
@@ -8593,34 +8785,38 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="R222" s="4">
-        <f>(D222-I222+1+2*K222)/M222</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="S222" s="4">
-        <f>(C222-H222+1+2*J222)/L222</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="T222" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.9690000000000001</v>
       </c>
       <c r="U222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(N222/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.1278923468208086</v>
       </c>
       <c r="V222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(O222/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>7.1278923468208086</v>
       </c>
       <c r="W222" s="1">
-        <f>(2*$R222*$S222*$F222*$G222*$E222*$I222*$H222)/(P222/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.9735511578947365</v>
       </c>
       <c r="X222" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="223" spans="2:29">
+      <c r="AA222" s="1"/>
+      <c r="AB222" s="1"/>
+      <c r="AC222" s="1"/>
+      <c r="AD222" s="1"/>
+    </row>
+    <row r="223" spans="2:30">
       <c r="C223" s="2">
         <v>28</v>
       </c>
@@ -8664,34 +8860,38 @@
         <v>0.224</v>
       </c>
       <c r="R223" s="4">
-        <f>(D223-I223+1+2*K223)/M223</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S223" s="4">
-        <f>(C223-H223+1+2*J223)/L223</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T223" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.79199999999999993</v>
       </c>
       <c r="U223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(N223/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>1.4524444946996466</v>
       </c>
       <c r="V223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(O223/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.442251901754386</v>
       </c>
       <c r="W223" s="1">
-        <f>(2*$R223*$S223*$F223*$G223*$E223*$I223*$H223)/(P223/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.835008</v>
       </c>
       <c r="X223" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="224" spans="2:29">
+      <c r="AA223" s="1"/>
+      <c r="AB223" s="1"/>
+      <c r="AC223" s="1"/>
+      <c r="AD223" s="1"/>
+    </row>
+    <row r="224" spans="2:30">
       <c r="B224" s="2"/>
       <c r="C224">
         <v>14</v>
@@ -8736,34 +8936,38 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="R224" s="4">
-        <f>(D224-I224+1+2*K224)/M224</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S224" s="4">
-        <f>(C224-H224+1+2*J224)/L224</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T224" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.51</v>
       </c>
       <c r="U224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(N224/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.7042223157894738</v>
       </c>
       <c r="V224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(O224/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.5372950123456786</v>
       </c>
       <c r="W224" s="1">
-        <f>(2*$R224*$S224*$F224*$G224*$E224*$I224*$H224)/(P224/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.0971519999999999</v>
       </c>
       <c r="X224" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="2:24">
+      <c r="AA224" s="1"/>
+      <c r="AB224" s="1"/>
+      <c r="AC224" s="1"/>
+      <c r="AD224" s="1"/>
+    </row>
+    <row r="225" spans="2:30">
       <c r="C225">
         <v>14</v>
       </c>
@@ -8807,34 +9011,38 @@
         <v>0.625</v>
       </c>
       <c r="R225" s="4">
-        <f>(D225-I225+1+2*K225)/M225</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="S225" s="4">
-        <f>(C225-H225+1+2*J225)/L225</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="T225" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.764</v>
       </c>
       <c r="U225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(N225/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>6.9406681575984983</v>
       </c>
       <c r="V225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(O225/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>6.1045810693069305</v>
       </c>
       <c r="W225" s="1">
-        <f>(2*$R225*$S225*$F225*$G225*$E225*$I225*$H225)/(P225/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.9190018047999997</v>
       </c>
       <c r="X225" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="226" spans="2:24">
+      <c r="AA225" s="1"/>
+      <c r="AB225" s="1"/>
+      <c r="AC225" s="1"/>
+      <c r="AD225" s="1"/>
+    </row>
+    <row r="226" spans="2:30">
       <c r="C226" s="2">
         <v>14</v>
       </c>
@@ -8878,34 +9086,38 @@
         <v>0.20399999999999999</v>
       </c>
       <c r="R226" s="4">
-        <f>(D226-I226+1+2*K226)/M226</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S226" s="4">
-        <f>(C226-H226+1+2*J226)/L226</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T226" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.61599999999999999</v>
       </c>
       <c r="U226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(N226/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.5372950123456786</v>
       </c>
       <c r="V226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(O226/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>1.6441671680000001</v>
       </c>
       <c r="W226" s="1">
-        <f>(2*$R226*$S226*$F226*$G226*$E226*$I226*$H226)/(P226/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.0149107450980392</v>
       </c>
       <c r="X226" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="227" spans="2:24">
+      <c r="AA226" s="1"/>
+      <c r="AB226" s="1"/>
+      <c r="AC226" s="1"/>
+      <c r="AD226" s="1"/>
+    </row>
+    <row r="227" spans="2:30">
       <c r="B227" s="2"/>
       <c r="C227">
         <v>7</v>
@@ -8950,34 +9162,38 @@
         <v>0.19400000000000001</v>
       </c>
       <c r="R227" s="4">
-        <f>(D227-I227+1+2*K227)/M227</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="S227" s="4">
-        <f>(C227-H227+1+2*J227)/L227</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="T227" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.57899999999999996</v>
       </c>
       <c r="U227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(N227/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.186392510638298</v>
       </c>
       <c r="V227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(O227/1000)/10^12</f>
+        <f t="shared" si="18"/>
         <v>2.0865065583756341</v>
       </c>
       <c r="W227" s="1">
-        <f>(2*$R227*$S227*$F227*$G227*$E227*$I227*$H227)/(P227/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>2.1187721237113402</v>
       </c>
       <c r="X227" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="228" spans="2:24">
+      <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
+      <c r="AC227" s="1"/>
+      <c r="AD227" s="1"/>
+    </row>
+    <row r="228" spans="2:30">
       <c r="B228" s="2"/>
       <c r="C228">
         <v>7</v>
@@ -9022,34 +9238,38 @@
         <v>0.82</v>
       </c>
       <c r="R228" s="4">
-        <f>(D228-I228+1+2*K228)/M228</f>
-        <v>6.5</v>
+        <f t="shared" si="11"/>
+        <v>7</v>
       </c>
       <c r="S228" s="4">
-        <f>(C228-H228+1+2*J228)/L228</f>
-        <v>6.5</v>
+        <f t="shared" si="12"/>
+        <v>7</v>
       </c>
       <c r="T228" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.3359999999999999</v>
       </c>
       <c r="U228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(N228/1000)/10^12</f>
-        <v>2.1447424387291978</v>
+        <f t="shared" si="20"/>
+        <v>2.487393597579425</v>
       </c>
       <c r="V228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(O228/1000)/10^12</f>
-        <v>1.6580991251461989</v>
+        <f t="shared" si="18"/>
+        <v>1.9230025356725147</v>
       </c>
       <c r="W228" s="1">
-        <f>(2*$R228*$S228*$F228*$G228*$E228*$I228*$H228)/(P228/1000)/10^12</f>
-        <v>1.7288716487804878</v>
+        <f t="shared" si="21"/>
+        <v>2.0050819121951222</v>
       </c>
       <c r="X228" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="2:24">
+      <c r="AA228" s="1"/>
+      <c r="AB228" s="1"/>
+      <c r="AC228" s="1"/>
+      <c r="AD228" s="1"/>
+    </row>
+    <row r="229" spans="2:30">
       <c r="B229" s="2"/>
       <c r="C229">
         <v>700</v>
@@ -9094,33 +9314,37 @@
         <v>2.11</v>
       </c>
       <c r="R229" s="4">
-        <f>(D229-I229+1+2*K229)/M229</f>
-        <v>79.5</v>
+        <f t="shared" si="11"/>
+        <v>349</v>
       </c>
       <c r="S229" s="4">
-        <f>(C229-H229+1+2*J229)/L229</f>
-        <v>349</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="T229" s="1">
         <f>N229+P229</f>
         <v>2.83</v>
       </c>
       <c r="U229" s="1">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(N229/1000)/10^12</f>
-        <v>1.9730133333333335</v>
+        <f t="shared" si="20"/>
+        <v>1.9854222222222224</v>
       </c>
       <c r="V229" s="1" t="s">
         <v>74</v>
       </c>
       <c r="W229" s="1">
-        <f>(2*$R229*$S229*$F229*$G229*$E229*$I229*$H229)/(P229/1000)/10^12</f>
-        <v>0.67325573459715637</v>
+        <f t="shared" si="21"/>
+        <v>0.67749004739336494</v>
       </c>
       <c r="X229" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="230" spans="2:24">
+      <c r="AA229" s="1"/>
+      <c r="AB229" s="1"/>
+      <c r="AC229" s="1"/>
+      <c r="AD229" s="1"/>
+    </row>
+    <row r="230" spans="2:30">
       <c r="B230" s="2"/>
       <c r="C230">
         <v>350</v>
@@ -9165,34 +9389,38 @@
         <v>10.319000000000001</v>
       </c>
       <c r="R230" s="4">
-        <f>(D230-I230+1+2*K230)/M230</f>
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+      <c r="S230" s="4">
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
-      <c r="S230" s="4">
-        <f>(C230-H230+1+2*J230)/L230</f>
-        <v>350</v>
-      </c>
       <c r="T230" s="1">
-        <f t="shared" ref="T230:T268" si="15">N230+O230+P230</f>
+        <f t="shared" ref="T230:T268" si="22">N230+O230+P230</f>
         <v>18.944000000000003</v>
       </c>
       <c r="U230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(N230/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>7.6636064965197228</v>
       </c>
       <c r="V230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
+        <f t="shared" ref="V230:V268" si="23">(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(O230/1000)/10^12</f>
         <v>7.6547263035921205</v>
       </c>
       <c r="W230" s="1">
-        <f>(2*$R230*$S230*$F230*$G230*$E230*$I230*$H230)/(P230/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>3.2009055141002034</v>
       </c>
       <c r="X230" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="231" spans="2:24">
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
+      <c r="AD230" s="1"/>
+    </row>
+    <row r="231" spans="2:30">
       <c r="B231" s="2"/>
       <c r="C231">
         <v>350</v>
@@ -9237,34 +9465,38 @@
         <v>10.050000000000001</v>
       </c>
       <c r="R231" s="4">
-        <f>(D231-I231+1+2*K231)/M231</f>
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="S231" s="4">
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="S231" s="4">
-        <f>(C231-H231+1+2*J231)/L231</f>
-        <v>174</v>
-      </c>
       <c r="T231" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>40.265000000000001</v>
       </c>
       <c r="U231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(N231/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.8115037974683545</v>
       </c>
       <c r="V231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(O231/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.1205764638565707</v>
       </c>
       <c r="W231" s="1">
-        <f>(2*$R231*$S231*$F231*$G231*$E231*$I231*$H231)/(P231/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.4251472238805967</v>
       </c>
       <c r="X231" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="232" spans="2:24">
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+    </row>
+    <row r="232" spans="2:30">
       <c r="B232" s="2"/>
       <c r="C232">
         <v>175</v>
@@ -9309,34 +9541,38 @@
         <v>7.391</v>
       </c>
       <c r="R232" s="4">
-        <f>(D232-I232+1+2*K232)/M232</f>
+        <f t="shared" si="11"/>
+        <v>175</v>
+      </c>
+      <c r="S232" s="4">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="S232" s="4">
-        <f>(C232-H232+1+2*J232)/L232</f>
-        <v>175</v>
-      </c>
       <c r="T232" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>14.782</v>
       </c>
       <c r="U232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(N232/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>8.9102087941731849</v>
       </c>
       <c r="V232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(O232/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>8.9658371335504885</v>
       </c>
       <c r="W232" s="1">
-        <f>(2*$R232*$S232*$F232*$G232*$E232*$I232*$H232)/(P232/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.4689682045731303</v>
       </c>
       <c r="X232" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="233" spans="2:24">
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+    </row>
+    <row r="233" spans="2:30">
       <c r="B233" s="2"/>
       <c r="C233">
         <v>175</v>
@@ -9381,34 +9617,38 @@
         <v>9.359</v>
       </c>
       <c r="R233" s="4">
-        <f>(D233-I233+1+2*K233)/M233</f>
+        <f t="shared" si="11"/>
+        <v>87</v>
+      </c>
+      <c r="S233" s="4">
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
-      <c r="S233" s="4">
-        <f>(C233-H233+1+2*J233)/L233</f>
-        <v>86.5</v>
-      </c>
       <c r="T233" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>34.680999999999997</v>
       </c>
       <c r="U233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(N233/1000)/10^12</f>
-        <v>4.6947113871635615</v>
+        <f t="shared" si="20"/>
+        <v>4.7218484472049695</v>
       </c>
       <c r="V233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(O233/1000)/10^12</f>
-        <v>2.6685268751935585</v>
+        <f t="shared" si="23"/>
+        <v>2.6839518860328275</v>
       </c>
       <c r="W233" s="1">
-        <f>(2*$R233*$S233*$F233*$G233*$E233*$I233*$H233)/(P233/1000)/10^12</f>
-        <v>4.6034155785874562</v>
+        <f t="shared" si="21"/>
+        <v>4.6300249171920074</v>
       </c>
       <c r="X233" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="234" spans="2:24">
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+    </row>
+    <row r="234" spans="2:30">
       <c r="B234" s="2"/>
       <c r="C234">
         <v>84</v>
@@ -9453,34 +9693,38 @@
         <v>6.2809999999999997</v>
       </c>
       <c r="R234" s="4">
-        <f>(D234-I234+1+2*K234)/M234</f>
+        <f t="shared" si="11"/>
+        <v>84</v>
+      </c>
+      <c r="S234" s="4">
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
-      <c r="S234" s="4">
-        <f>(C234-H234+1+2*J234)/L234</f>
-        <v>84</v>
-      </c>
       <c r="T234" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>13.024000000000001</v>
       </c>
       <c r="U234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(N234/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>9.348153962264151</v>
       </c>
       <c r="V234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(O234/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>9.4625300626678612</v>
       </c>
       <c r="W234" s="1">
-        <f>(2*$R234*$S234*$F234*$G234*$E234*$I234*$H234)/(P234/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>5.0483901034867058</v>
       </c>
       <c r="X234" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="235" spans="2:24">
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+    </row>
+    <row r="235" spans="2:30">
       <c r="B235" s="2"/>
       <c r="C235">
         <v>84</v>
@@ -9525,34 +9769,38 @@
         <v>8.5009999999999994</v>
       </c>
       <c r="R235" s="4">
-        <f>(D235-I235+1+2*K235)/M235</f>
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="S235" s="4">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="S235" s="4">
-        <f>(C235-H235+1+2*J235)/L235</f>
-        <v>41</v>
-      </c>
       <c r="T235" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>29.792999999999999</v>
       </c>
       <c r="U235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(N235/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>4.7318643023113616</v>
       </c>
       <c r="V235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(O235/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.9502443309187956</v>
       </c>
       <c r="W235" s="1">
-        <f>(2*$R235*$S235*$F235*$G235*$E235*$I235*$H235)/(P235/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>4.55151798611928</v>
       </c>
       <c r="X235" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="236" spans="2:24">
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+    </row>
+    <row r="236" spans="2:30">
       <c r="B236" s="2"/>
       <c r="C236">
         <v>42</v>
@@ -9597,34 +9845,38 @@
         <v>2.907</v>
       </c>
       <c r="R236" s="4">
-        <f>(D236-I236+1+2*K236)/M236</f>
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="S236" s="4">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="S236" s="4">
-        <f>(C236-H236+1+2*J236)/L236</f>
-        <v>42</v>
-      </c>
       <c r="T236" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>10.849</v>
       </c>
       <c r="U236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(N236/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>8.0032655830388695</v>
       </c>
       <c r="V236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(O236/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>7.967069909547738</v>
       </c>
       <c r="W236" s="1">
-        <f>(2*$R236*$S236*$F236*$G236*$E236*$I236*$H236)/(P236/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>10.907787492260063</v>
       </c>
       <c r="X236" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="237" spans="2:24">
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+    </row>
+    <row r="237" spans="2:30">
       <c r="B237" s="2"/>
       <c r="C237">
         <v>112</v>
@@ -9669,34 +9921,38 @@
         <v>0.92600000000000005</v>
       </c>
       <c r="R237" s="4">
-        <f>(D237-I237+1+2*K237)/M237</f>
+        <f t="shared" si="11"/>
         <v>112</v>
       </c>
       <c r="S237" s="4">
-        <f>(C237-H237+1+2*J237)/L237</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="T237" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.5169999999999999</v>
       </c>
       <c r="U237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(N237/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.9255643558718858</v>
       </c>
       <c r="V237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(O237/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.6518825290322585</v>
       </c>
       <c r="W237" s="1">
-        <f>(2*$R237*$S237*$F237*$G237*$E237*$I237*$H237)/(P237/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>0.88777924838012956</v>
       </c>
       <c r="X237" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="238" spans="2:24">
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+    </row>
+    <row r="238" spans="2:30">
       <c r="B238" s="2"/>
       <c r="C238">
         <v>56</v>
@@ -9741,34 +9997,38 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="R238" s="4">
-        <f>(D238-I238+1+2*K238)/M238</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S238" s="4">
-        <f>(C238-H238+1+2*J238)/L238</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T238" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.0899999999999999</v>
       </c>
       <c r="U238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(N238/1000)/10^12</f>
+        <f t="shared" si="20"/>
         <v>2.8644027317073175</v>
       </c>
       <c r="V238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(O238/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.0223661176470591</v>
       </c>
       <c r="W238" s="1">
-        <f>(2*$R238*$S238*$F238*$G238*$E238*$I238*$H238)/(P238/1000)/10^12</f>
+        <f t="shared" si="21"/>
         <v>1.5481800075329568</v>
       </c>
       <c r="X238" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="239" spans="2:24">
+      <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
+      <c r="AC238" s="1"/>
+      <c r="AD238" s="1"/>
+    </row>
+    <row r="239" spans="2:30">
       <c r="B239" s="2"/>
       <c r="C239">
         <v>56</v>
@@ -9813,34 +10073,38 @@
         <v>0.58299999999999996</v>
       </c>
       <c r="R239" s="4">
-        <f>(D239-I239+1+2*K239)/M239</f>
+        <f t="shared" si="11"/>
         <v>56</v>
       </c>
       <c r="S239" s="4">
-        <f>(C239-H239+1+2*J239)/L239</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="T239" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.139</v>
       </c>
       <c r="U239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
+        <f t="shared" ref="U239:U268" si="24">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(N239/1000)/10^12</f>
         <v>3.236549543307087</v>
       </c>
       <c r="V239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(O239/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.7221310728476826</v>
       </c>
       <c r="W239" s="1">
-        <f>(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
+        <f t="shared" ref="W239:W268" si="25">(2*$R239*$S239*$F239*$G239*$E239*$I239*$H239)/(P239/1000)/10^12</f>
         <v>1.4100919108061751</v>
       </c>
       <c r="X239" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="240" spans="2:24">
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+    </row>
+    <row r="240" spans="2:30">
       <c r="B240" s="2"/>
       <c r="C240">
         <v>56</v>
@@ -9885,34 +10149,38 @@
         <v>0.27500000000000002</v>
       </c>
       <c r="R240" s="4">
-        <f>(D240-I240+1+2*K240)/M240</f>
+        <f t="shared" ref="R240:R268" si="26">1+ROUNDDOWN((($C240-$H240+2*$J240)/$L240),0)</f>
         <v>28</v>
       </c>
       <c r="S240" s="4">
-        <f>(C240-H240+1+2*J240)/L240</f>
+        <f t="shared" ref="S240:S268" si="27">1+ROUNDDOWN((($D240-$I240+2*$K240)/$M240),0)</f>
         <v>28</v>
       </c>
       <c r="T240" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.89900000000000002</v>
       </c>
       <c r="U240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(N240/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.6518825290322585</v>
       </c>
       <c r="V240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(O240/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>0.87642173134328372</v>
       </c>
       <c r="W240" s="1">
-        <f>(2*$R240*$S240*$F240*$G240*$E240*$I240*$H240)/(P240/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.4946974254545453</v>
       </c>
       <c r="X240" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="241" spans="2:24">
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
+      <c r="AD240" s="1"/>
+    </row>
+    <row r="241" spans="2:30">
       <c r="B241" s="2"/>
       <c r="C241" s="2">
         <v>28</v>
@@ -9957,34 +10225,38 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="R241" s="4">
-        <f>(D241-I241+1+2*K241)/M241</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S241" s="4">
-        <f>(C241-H241+1+2*J241)/L241</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T241" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.89799999999999991</v>
       </c>
       <c r="U241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(N241/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.425348266666667</v>
       </c>
       <c r="V241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(O241/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.805746020477816</v>
       </c>
       <c r="W241" s="1">
-        <f>(2*$R241*$S241*$F241*$G241*$E241*$I241*$H241)/(P241/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.2522837917808221</v>
       </c>
       <c r="X241" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="242" spans="2:24">
+      <c r="AA241" s="1"/>
+      <c r="AB241" s="1"/>
+      <c r="AC241" s="1"/>
+      <c r="AD241" s="1"/>
+    </row>
+    <row r="242" spans="2:30">
       <c r="B242" s="2"/>
       <c r="C242" s="2">
         <v>28</v>
@@ -10029,34 +10301,38 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="R242" s="4">
-        <f>(D242-I242+1+2*K242)/M242</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S242" s="4">
-        <f>(C242-H242+1+2*J242)/L242</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T242" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.89500000000000002</v>
       </c>
       <c r="U242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(N242/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.9255643558718858</v>
       </c>
       <c r="V242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(O242/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.2622364444444445</v>
       </c>
       <c r="W242" s="1">
-        <f>(2*$R242*$S242*$F242*$G242*$E242*$I242*$H242)/(P242/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.2709491270718232</v>
       </c>
       <c r="X242" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="243" spans="2:24">
+      <c r="AA242" s="1"/>
+      <c r="AB242" s="1"/>
+      <c r="AC242" s="1"/>
+      <c r="AD242" s="1"/>
+    </row>
+    <row r="243" spans="2:30">
       <c r="B243" s="2"/>
       <c r="C243" s="2">
         <v>28</v>
@@ -10101,34 +10377,38 @@
         <v>0.23899999999999999</v>
       </c>
       <c r="R243" s="4">
-        <f>(D243-I243+1+2*K243)/M243</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S243" s="4">
-        <f>(C243-H243+1+2*J243)/L243</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T243" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.81900000000000006</v>
       </c>
       <c r="U243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(N243/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.2099021075268817</v>
       </c>
       <c r="V243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(O243/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.0432532791878171</v>
       </c>
       <c r="W243" s="1">
-        <f>(2*$R243*$S243*$F243*$G243*$E243*$I243*$H243)/(P243/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.7198401338912137</v>
       </c>
       <c r="X243" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="244" spans="2:24">
+      <c r="AA243" s="1"/>
+      <c r="AB243" s="1"/>
+      <c r="AC243" s="1"/>
+      <c r="AD243" s="1"/>
+    </row>
+    <row r="244" spans="2:30">
       <c r="B244" s="2"/>
       <c r="C244" s="2">
         <v>14</v>
@@ -10173,34 +10453,38 @@
         <v>0.317</v>
       </c>
       <c r="R244" s="4">
-        <f>(D244-I244+1+2*K244)/M244</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S244" s="4">
-        <f>(C244-H244+1+2*J244)/L244</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T244" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.90999999999999992</v>
       </c>
       <c r="U244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(N244/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.4111352033195019</v>
       </c>
       <c r="V244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(O244/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.3354647272727274</v>
       </c>
       <c r="W244" s="1">
-        <f>(2*$R244*$S244*$F244*$G244*$E244*$I244*$H244)/(P244/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.5933236088328075</v>
       </c>
       <c r="X244" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="245" spans="2:24">
+      <c r="AA244" s="1"/>
+      <c r="AB244" s="1"/>
+      <c r="AC244" s="1"/>
+      <c r="AD244" s="1"/>
+    </row>
+    <row r="245" spans="2:30">
       <c r="B245" s="2"/>
       <c r="C245" s="2">
         <v>28</v>
@@ -10245,34 +10529,38 @@
         <v>0.61099999999999999</v>
       </c>
       <c r="R245" s="4">
-        <f>(D245-I245+1+2*K245)/M245</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S245" s="4">
-        <f>(C245-H245+1+2*J245)/L245</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T245" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.0609999999999999</v>
       </c>
       <c r="U245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(N245/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.369195016393443</v>
       </c>
       <c r="V245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(O245/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.7091134802494803</v>
       </c>
       <c r="W245" s="1">
-        <f>(2*$R245*$S245*$F245*$G245*$E245*$I245*$H245)/(P245/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.6909446284779053</v>
       </c>
       <c r="X245" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="246" spans="2:24">
+      <c r="AA245" s="1"/>
+      <c r="AB245" s="1"/>
+      <c r="AC245" s="1"/>
+      <c r="AD245" s="1"/>
+    </row>
+    <row r="246" spans="2:30">
       <c r="B246" s="2"/>
       <c r="C246" s="2">
         <v>14</v>
@@ -10317,34 +10605,38 @@
         <v>0.32100000000000001</v>
       </c>
       <c r="R246" s="4">
-        <f>(D246-I246+1+2*K246)/M246</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S246" s="4">
-        <f>(C246-H246+1+2*J246)/L246</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T246" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.91399999999999992</v>
       </c>
       <c r="U246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(N246/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.4108022991202342</v>
       </c>
       <c r="V246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(O246/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.2622364444444445</v>
       </c>
       <c r="W246" s="1">
-        <f>(2*$R246*$S246*$F246*$G246*$E246*$I246*$H246)/(P246/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.5610080498442369</v>
       </c>
       <c r="X246" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="247" spans="2:24">
+      <c r="AA246" s="1"/>
+      <c r="AB246" s="1"/>
+      <c r="AC246" s="1"/>
+      <c r="AD246" s="1"/>
+    </row>
+    <row r="247" spans="2:30">
       <c r="B247" s="2"/>
       <c r="C247" s="2">
         <v>14</v>
@@ -10389,34 +10681,38 @@
         <v>0.317</v>
       </c>
       <c r="R247" s="4">
-        <f>(D247-I247+1+2*K247)/M247</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S247" s="4">
-        <f>(C247-H247+1+2*J247)/L247</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T247" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.90900000000000003</v>
       </c>
       <c r="U247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(N247/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.4111352033195019</v>
       </c>
       <c r="V247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(O247/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.3421184729344731</v>
       </c>
       <c r="W247" s="1">
-        <f>(2*$R247*$S247*$F247*$G247*$E247*$I247*$H247)/(P247/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.5933236088328075</v>
       </c>
       <c r="X247" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="248" spans="2:24">
+      <c r="AA247" s="1"/>
+      <c r="AB247" s="1"/>
+      <c r="AC247" s="1"/>
+      <c r="AD247" s="1"/>
+    </row>
+    <row r="248" spans="2:30">
       <c r="B248" s="2"/>
       <c r="C248" s="2">
         <v>14</v>
@@ -10461,34 +10757,38 @@
         <v>0.24099999999999999</v>
       </c>
       <c r="R248" s="4">
-        <f>(D248-I248+1+2*K248)/M248</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S248" s="4">
-        <f>(C248-H248+1+2*J248)/L248</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T248" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.73399999999999999</v>
       </c>
       <c r="U248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(N248/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>1.9388763773584905</v>
       </c>
       <c r="V248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(O248/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.4627821779359429</v>
       </c>
       <c r="W248" s="1">
-        <f>(2*$R248*$S248*$F248*$G248*$E248*$I248*$H248)/(P248/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.705567601659751</v>
       </c>
       <c r="X248" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="249" spans="2:24">
+      <c r="AA248" s="1"/>
+      <c r="AB248" s="1"/>
+      <c r="AC248" s="1"/>
+      <c r="AD248" s="1"/>
+    </row>
+    <row r="249" spans="2:30">
       <c r="B249" s="2"/>
       <c r="C249" s="2">
         <v>7</v>
@@ -10533,34 +10833,38 @@
         <v>0.58499999999999996</v>
       </c>
       <c r="R249" s="4">
-        <f>(D249-I249+1+2*K249)/M249</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S249" s="4">
-        <f>(C249-H249+1+2*J249)/L249</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T249" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.9550000000000001</v>
       </c>
       <c r="U249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(N249/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.6125537627118649</v>
       </c>
       <c r="V249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(O249/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.7940907311178247</v>
       </c>
       <c r="W249" s="1">
-        <f>(2*$R249*$S249*$F249*$G249*$E249*$I249*$H249)/(P249/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.1618599384615385</v>
       </c>
       <c r="X249" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="250" spans="2:24">
+      <c r="AA249" s="1"/>
+      <c r="AB249" s="1"/>
+      <c r="AC249" s="1"/>
+      <c r="AD249" s="1"/>
+    </row>
+    <row r="250" spans="2:30">
       <c r="B250" s="2"/>
       <c r="C250" s="2">
         <v>7</v>
@@ -10605,34 +10909,38 @@
         <v>0.45700000000000002</v>
       </c>
       <c r="R250" s="4">
-        <f>(D250-I250+1+2*K250)/M250</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S250" s="4">
-        <f>(C250-H250+1+2*J250)/L250</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T250" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.202</v>
       </c>
       <c r="U250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(N250/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.3288486798866859</v>
       </c>
       <c r="V250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(O250/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.0971519999999999</v>
       </c>
       <c r="W250" s="1">
-        <f>(2*$R250*$S250*$F250*$G250*$E250*$I250*$H250)/(P250/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.7988699868708973</v>
       </c>
       <c r="X250" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="251" spans="2:24">
+      <c r="AA250" s="1"/>
+      <c r="AB250" s="1"/>
+      <c r="AC250" s="1"/>
+      <c r="AD250" s="1"/>
+    </row>
+    <row r="251" spans="2:30">
       <c r="B251" s="2"/>
       <c r="C251" s="2">
         <v>14</v>
@@ -10677,34 +10985,38 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="R251" s="4">
-        <f>(D251-I251+1+2*K251)/M251</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S251" s="4">
-        <f>(C251-H251+1+2*J251)/L251</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T251" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.3540000000000001</v>
       </c>
       <c r="U251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(N251/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.510178882442748</v>
       </c>
       <c r="V251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(O251/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.1242469870801033</v>
       </c>
       <c r="W251" s="1">
-        <f>(2*$R251*$S251*$F251*$G251*$E251*$I251*$H251)/(P251/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.7774780194594595</v>
       </c>
       <c r="X251" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="252" spans="2:24">
+      <c r="AA251" s="1"/>
+      <c r="AB251" s="1"/>
+      <c r="AC251" s="1"/>
+      <c r="AD251" s="1"/>
+    </row>
+    <row r="252" spans="2:30">
       <c r="B252" s="2"/>
       <c r="C252" s="2">
         <v>7</v>
@@ -10749,34 +11061,38 @@
         <v>0.46600000000000003</v>
       </c>
       <c r="R252" s="4">
-        <f>(D252-I252+1+2*K252)/M252</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S252" s="4">
-        <f>(C252-H252+1+2*J252)/L252</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T252" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.22</v>
       </c>
       <c r="U252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(N252/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.1025155601023018</v>
       </c>
       <c r="V252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(O252/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.2646930688705234</v>
       </c>
       <c r="W252" s="1">
-        <f>(2*$R252*$S252*$F252*$G252*$E252*$I252*$H252)/(P252/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.764127862660944</v>
       </c>
       <c r="X252" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="253" spans="2:24">
+      <c r="AA252" s="1"/>
+      <c r="AB252" s="1"/>
+      <c r="AC252" s="1"/>
+      <c r="AD252" s="1"/>
+    </row>
+    <row r="253" spans="2:30">
       <c r="B253" s="2"/>
       <c r="C253">
         <v>112</v>
@@ -10821,34 +11137,38 @@
         <v>1.81</v>
       </c>
       <c r="R253" s="4">
-        <f>(D253-I253+1+2*K253)/M253</f>
+        <f t="shared" si="26"/>
         <v>112</v>
       </c>
       <c r="S253" s="4">
-        <f>(C253-H253+1+2*J253)/L253</f>
+        <f t="shared" si="27"/>
         <v>112</v>
       </c>
       <c r="T253" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.9180000000000001</v>
       </c>
       <c r="U253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(N253/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.0560728029739774</v>
       </c>
       <c r="V253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(O253/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.884503803508772</v>
       </c>
       <c r="W253" s="1">
-        <f>(2*$R253*$S253*$F253*$G253*$E253*$I253*$H253)/(P253/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>0.90837965082872929</v>
       </c>
       <c r="X253" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="254" spans="2:24">
+      <c r="AA253" s="1"/>
+      <c r="AB253" s="1"/>
+      <c r="AC253" s="1"/>
+      <c r="AD253" s="1"/>
+    </row>
+    <row r="254" spans="2:30">
       <c r="B254" s="2"/>
       <c r="C254">
         <v>56</v>
@@ -10893,34 +11213,38 @@
         <v>0.97599999999999998</v>
       </c>
       <c r="R254" s="4">
-        <f>(D254-I254+1+2*K254)/M254</f>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="S254" s="4">
-        <f>(C254-H254+1+2*J254)/L254</f>
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
       <c r="T254" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.968</v>
       </c>
       <c r="U254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(N254/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.1437230745697895</v>
       </c>
       <c r="V254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(O254/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.5056869253731349</v>
       </c>
       <c r="W254" s="1">
-        <f>(2*$R254*$S254*$F254*$G254*$E254*$I254*$H254)/(P254/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.6845975081967215</v>
       </c>
       <c r="X254" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="255" spans="2:24">
+      <c r="AA254" s="1"/>
+      <c r="AB254" s="1"/>
+      <c r="AC254" s="1"/>
+      <c r="AD254" s="1"/>
+    </row>
+    <row r="255" spans="2:30">
       <c r="B255" s="2"/>
       <c r="C255">
         <v>56</v>
@@ -10965,34 +11289,38 @@
         <v>1.127</v>
       </c>
       <c r="R255" s="4">
-        <f>(D255-I255+1+2*K255)/M255</f>
+        <f t="shared" si="26"/>
         <v>56</v>
       </c>
       <c r="S255" s="4">
-        <f>(C255-H255+1+2*J255)/L255</f>
+        <f t="shared" si="27"/>
         <v>56</v>
       </c>
       <c r="T255" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.113</v>
       </c>
       <c r="U255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(N255/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.7030792072072072</v>
       </c>
       <c r="V255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(O255/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.0335187601476012</v>
       </c>
       <c r="W255" s="1">
-        <f>(2*$R255*$S255*$F255*$G255*$E255*$I255*$H255)/(P255/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.458888347826087</v>
       </c>
       <c r="X255" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="256" spans="2:24">
+      <c r="AA255" s="1"/>
+      <c r="AB255" s="1"/>
+      <c r="AC255" s="1"/>
+      <c r="AD255" s="1"/>
+    </row>
+    <row r="256" spans="2:30">
       <c r="B256" s="2"/>
       <c r="C256">
         <v>56</v>
@@ -11037,34 +11365,38 @@
         <v>0.495</v>
       </c>
       <c r="R256" s="4">
-        <f>(D256-I256+1+2*K256)/M256</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S256" s="4">
-        <f>(C256-H256+1+2*J256)/L256</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T256" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.5449999999999999</v>
       </c>
       <c r="U256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(N256/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.3830600164609055</v>
       </c>
       <c r="V256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(O256/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.0186909343246591</v>
       </c>
       <c r="W256" s="1">
-        <f>(2*$R256*$S256*$F256*$G256*$E256*$I256*$H256)/(P256/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>1.6607749171717172</v>
       </c>
       <c r="X256" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="257" spans="2:24">
+      <c r="AA256" s="1"/>
+      <c r="AB256" s="1"/>
+      <c r="AC256" s="1"/>
+      <c r="AD256" s="1"/>
+    </row>
+    <row r="257" spans="2:30">
       <c r="B257" s="2"/>
       <c r="C257" s="2">
         <v>28</v>
@@ -11109,34 +11441,38 @@
         <v>0.60099999999999998</v>
       </c>
       <c r="R257" s="4">
-        <f>(D257-I257+1+2*K257)/M257</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S257" s="4">
-        <f>(C257-H257+1+2*J257)/L257</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T257" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.494</v>
       </c>
       <c r="U257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(N257/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.7971528129330254</v>
       </c>
       <c r="V257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(O257/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.5742764521739132</v>
       </c>
       <c r="W257" s="1">
-        <f>(2*$R257*$S257*$F257*$G257*$E257*$I257*$H257)/(P257/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.7357190815307821</v>
       </c>
       <c r="X257" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="258" spans="2:24">
+      <c r="AA257" s="1"/>
+      <c r="AB257" s="1"/>
+      <c r="AC257" s="1"/>
+      <c r="AD257" s="1"/>
+    </row>
+    <row r="258" spans="2:30">
       <c r="B258" s="2"/>
       <c r="C258" s="2">
         <v>28</v>
@@ -11181,34 +11517,38 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="R258" s="4">
-        <f>(D258-I258+1+2*K258)/M258</f>
+        <f t="shared" si="26"/>
         <v>28</v>
       </c>
       <c r="S258" s="4">
-        <f>(C258-H258+1+2*J258)/L258</f>
+        <f t="shared" si="27"/>
         <v>28</v>
       </c>
       <c r="T258" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.5009999999999999</v>
       </c>
       <c r="U258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(N258/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.6700159999999999</v>
       </c>
       <c r="V258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(O258/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.6537048177777778</v>
       </c>
       <c r="W258" s="1">
-        <f>(2*$R258*$S258*$F258*$G258*$E258*$I258*$H258)/(P258/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.7266453864013265</v>
       </c>
       <c r="X258" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="259" spans="2:24">
+      <c r="AA258" s="1"/>
+      <c r="AB258" s="1"/>
+      <c r="AC258" s="1"/>
+      <c r="AD258" s="1"/>
+    </row>
+    <row r="259" spans="2:30">
       <c r="B259" s="2"/>
       <c r="C259" s="2">
         <v>28</v>
@@ -11253,34 +11593,38 @@
         <v>0.36</v>
       </c>
       <c r="R259" s="4">
-        <f>(D259-I259+1+2*K259)/M259</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S259" s="4">
-        <f>(C259-H259+1+2*J259)/L259</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T259" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.294</v>
       </c>
       <c r="U259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(N259/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.9048889893992933</v>
       </c>
       <c r="V259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(O259/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.2628012043010752</v>
       </c>
       <c r="W259" s="1">
-        <f>(2*$R259*$S259*$F259*$G259*$E259*$I259*$H259)/(P259/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.2835655111111115</v>
       </c>
       <c r="X259" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="260" spans="2:24">
+      <c r="AA259" s="1"/>
+      <c r="AB259" s="1"/>
+      <c r="AC259" s="1"/>
+      <c r="AD259" s="1"/>
+    </row>
+    <row r="260" spans="2:30">
       <c r="B260" s="2"/>
       <c r="C260" s="2">
         <v>14</v>
@@ -11325,34 +11669,38 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="R260" s="4">
-        <f>(D260-I260+1+2*K260)/M260</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S260" s="4">
-        <f>(C260-H260+1+2*J260)/L260</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T260" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.4729999999999999</v>
       </c>
       <c r="U260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(N260/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.905385197149644</v>
       </c>
       <c r="V260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(O260/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.0847414033771106</v>
       </c>
       <c r="W260" s="1">
-        <f>(2*$R260*$S260*$F260*$G260*$E260*$I260*$H260)/(P260/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.1679521541425815</v>
       </c>
       <c r="X260" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="261" spans="2:24">
+      <c r="AA260" s="1"/>
+      <c r="AB260" s="1"/>
+      <c r="AC260" s="1"/>
+      <c r="AD260" s="1"/>
+    </row>
+    <row r="261" spans="2:30">
       <c r="B261" s="2"/>
       <c r="C261" s="2">
         <v>28</v>
@@ -11397,34 +11745,38 @@
         <v>1.0389999999999999</v>
       </c>
       <c r="R261" s="4">
-        <f>(D261-I261+1+2*K261)/M261</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S261" s="4">
-        <f>(C261-H261+1+2*J261)/L261</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T261" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3.4059999999999997</v>
       </c>
       <c r="U261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(N261/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.8370295635939322</v>
       </c>
       <c r="V261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(O261/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.1777048582781453</v>
       </c>
       <c r="W261" s="1">
-        <f>(2*$R261*$S261*$F261*$G261*$E261*$I261*$H261)/(P261/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.1649031145332049</v>
       </c>
       <c r="X261" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="262" spans="2:24">
+      <c r="AA261" s="1"/>
+      <c r="AB261" s="1"/>
+      <c r="AC261" s="1"/>
+      <c r="AD261" s="1"/>
+    </row>
+    <row r="262" spans="2:30">
       <c r="B262" s="2"/>
       <c r="C262" s="2">
         <v>14</v>
@@ -11469,34 +11821,38 @@
         <v>0.52600000000000002</v>
       </c>
       <c r="R262" s="4">
-        <f>(D262-I262+1+2*K262)/M262</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S262" s="4">
-        <f>(C262-H262+1+2*J262)/L262</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T262" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.4830000000000001</v>
       </c>
       <c r="U262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(N262/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.161859938461538</v>
       </c>
       <c r="V262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(O262/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.762396265446224</v>
       </c>
       <c r="W262" s="1">
-        <f>(2*$R262*$S262*$F262*$G262*$E262*$I262*$H262)/(P262/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.1257930950570341</v>
       </c>
       <c r="X262" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="263" spans="2:24">
+      <c r="AA262" s="1"/>
+      <c r="AB262" s="1"/>
+      <c r="AC262" s="1"/>
+      <c r="AD262" s="1"/>
+    </row>
+    <row r="263" spans="2:30">
       <c r="B263" s="2"/>
       <c r="C263" s="2">
         <v>14</v>
@@ -11541,34 +11897,38 @@
         <v>0.51900000000000002</v>
       </c>
       <c r="R263" s="4">
-        <f>(D263-I263+1+2*K263)/M263</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="S263" s="4">
-        <f>(C263-H263+1+2*J263)/L263</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="T263" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.4729999999999999</v>
       </c>
       <c r="U263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(N263/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.905385197149644</v>
       </c>
       <c r="V263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(O263/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.0847414033771106</v>
       </c>
       <c r="W263" s="1">
-        <f>(2*$R263*$S263*$F263*$G263*$E263*$I263*$H263)/(P263/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>3.1679521541425815</v>
       </c>
       <c r="X263" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="264" spans="2:24">
+      <c r="AA263" s="1"/>
+      <c r="AB263" s="1"/>
+      <c r="AC263" s="1"/>
+      <c r="AD263" s="1"/>
+    </row>
+    <row r="264" spans="2:30">
       <c r="B264" s="2"/>
       <c r="C264" s="2">
         <v>14</v>
@@ -11613,34 +11973,38 @@
         <v>0.40300000000000002</v>
       </c>
       <c r="R264" s="4">
-        <f>(D264-I264+1+2*K264)/M264</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S264" s="4">
-        <f>(C264-H264+1+2*J264)/L264</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T264" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.2770000000000001</v>
       </c>
       <c r="U264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(N264/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.3759641156069367</v>
       </c>
       <c r="V264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(O264/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>1.5569764848484846</v>
       </c>
       <c r="W264" s="1">
-        <f>(2*$R264*$S264*$F264*$G264*$E264*$I264*$H264)/(P264/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.0399096377171215</v>
       </c>
       <c r="X264" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="265" spans="2:24">
+      <c r="AA264" s="1"/>
+      <c r="AB264" s="1"/>
+      <c r="AC264" s="1"/>
+      <c r="AD264" s="1"/>
+    </row>
+    <row r="265" spans="2:30">
       <c r="B265" s="2"/>
       <c r="C265" s="2">
         <v>7</v>
@@ -11685,34 +12049,38 @@
         <v>0.65700000000000003</v>
       </c>
       <c r="R265" s="4">
-        <f>(D265-I265+1+2*K265)/M265</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S265" s="4">
-        <f>(C265-H265+1+2*J265)/L265</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T265" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>3.0250000000000004</v>
       </c>
       <c r="U265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(N265/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.0598644565756823</v>
       </c>
       <c r="V265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(O265/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.1918689628990506</v>
       </c>
       <c r="W265" s="1">
-        <f>(2*$R265*$S265*$F265*$G265*$E265*$I265*$H265)/(P265/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>5.6307094794520545</v>
       </c>
       <c r="X265" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="266" spans="2:24">
+      <c r="AA265" s="1"/>
+      <c r="AB265" s="1"/>
+      <c r="AC265" s="1"/>
+      <c r="AD265" s="1"/>
+    </row>
+    <row r="266" spans="2:30">
       <c r="B266" s="2"/>
       <c r="C266" s="2">
         <v>7</v>
@@ -11757,34 +12125,38 @@
         <v>0.64100000000000001</v>
       </c>
       <c r="R266" s="4">
-        <f>(D266-I266+1+2*K266)/M266</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S266" s="4">
-        <f>(C266-H266+1+2*J266)/L266</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T266" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.835</v>
       </c>
       <c r="U266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(N266/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.1557911094049906</v>
       </c>
       <c r="V266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(O266/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.4430418543833579</v>
       </c>
       <c r="W266" s="1">
-        <f>(2*$R266*$S266*$F266*$G266*$E266*$I266*$H266)/(P266/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.5650033822152887</v>
       </c>
       <c r="X266" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="267" spans="2:24">
+      <c r="AA266" s="1"/>
+      <c r="AB266" s="1"/>
+      <c r="AC266" s="1"/>
+      <c r="AD266" s="1"/>
+    </row>
+    <row r="267" spans="2:30">
       <c r="B267" s="2"/>
       <c r="C267" s="2">
         <v>14</v>
@@ -11829,34 +12201,38 @@
         <v>1.631</v>
       </c>
       <c r="R267" s="4">
-        <f>(D267-I267+1+2*K267)/M267</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S267" s="4">
-        <f>(C267-H267+1+2*J267)/L267</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T267" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>4.1459999999999999</v>
       </c>
       <c r="U267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(N267/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>3.3282736194331988</v>
       </c>
       <c r="V267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(O267/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>2.1534605998690246</v>
       </c>
       <c r="W267" s="1">
-        <f>(2*$R267*$S267*$F267*$G267*$E267*$I267*$H267)/(P267/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.0161461287553646</v>
       </c>
       <c r="X267" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="268" spans="2:24">
+      <c r="AA267" s="1"/>
+      <c r="AB267" s="1"/>
+      <c r="AC267" s="1"/>
+      <c r="AD267" s="1"/>
+    </row>
+    <row r="268" spans="2:30">
       <c r="B268" s="2"/>
       <c r="C268" s="2">
         <v>7</v>
@@ -11901,34 +12277,38 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="R268" s="4">
-        <f>(D268-I268+1+2*K268)/M268</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="S268" s="4">
-        <f>(C268-H268+1+2*J268)/L268</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="T268" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>1.8680000000000001</v>
       </c>
       <c r="U268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(N268/1000)/10^12</f>
+        <f t="shared" si="24"/>
         <v>2.4911623757575758</v>
       </c>
       <c r="V268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(O268/1000)/10^12</f>
+        <f t="shared" si="23"/>
         <v>3.073209659813084</v>
       </c>
       <c r="W268" s="1">
-        <f>(2*$R268*$S268*$F268*$G268*$E268*$I268*$H268)/(P268/1000)/10^12</f>
+        <f t="shared" si="25"/>
         <v>2.4430418543833579</v>
       </c>
       <c r="X268" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="271" spans="2:24">
+      <c r="AA268" s="1"/>
+      <c r="AB268" s="1"/>
+      <c r="AC268" s="1"/>
+      <c r="AD268" s="1"/>
+    </row>
+    <row r="271" spans="2:30">
       <c r="D271" t="s">
         <v>73</v>
       </c>
@@ -12001,11 +12381,11 @@
         <v>9.9450000000000003</v>
       </c>
       <c r="I276" s="1">
-        <f t="shared" ref="I276:J286" si="16">(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(G276/1000)/10^12</f>
+        <f t="shared" ref="I276:J286" si="28">(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(G276/1000)/10^12</f>
         <v>0.94089352818371608</v>
       </c>
       <c r="J276" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.99699708396178977</v>
       </c>
     </row>
@@ -12026,11 +12406,11 @@
         <v>12.762</v>
       </c>
       <c r="I277" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.506745080161082</v>
       </c>
       <c r="J277" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.5538530010970066</v>
       </c>
     </row>
@@ -12051,11 +12431,11 @@
         <v>15.997</v>
       </c>
       <c r="I278" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.3886138279932543</v>
       </c>
       <c r="J278" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.4792488591610926</v>
       </c>
     </row>
@@ -12076,11 +12456,11 @@
         <v>8.2349999999999994</v>
       </c>
       <c r="I279" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.76811131708433456</v>
       </c>
       <c r="J279" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.81512140862173654</v>
       </c>
     </row>
@@ -12101,11 +12481,11 @@
         <v>8.8049999999999997</v>
       </c>
       <c r="I280" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.4589273636166049</v>
       </c>
       <c r="J280" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.5247075070982394</v>
       </c>
     </row>
@@ -12126,11 +12506,11 @@
         <v>11.754</v>
       </c>
       <c r="I281" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.1882721434392831</v>
       </c>
       <c r="J281" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.2843371788327378</v>
       </c>
     </row>
@@ -12151,11 +12531,11 @@
         <v>17.943000000000001</v>
       </c>
       <c r="I282" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.8082940278213573</v>
       </c>
       <c r="J282" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.9928216240316559</v>
       </c>
     </row>
@@ -12176,11 +12556,11 @@
         <v>12.574999999999999</v>
       </c>
       <c r="I283" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.81030734760101986</v>
       </c>
       <c r="J283" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>0.83402051689860834</v>
       </c>
     </row>
@@ -12201,11 +12581,11 @@
         <v>11.189</v>
       </c>
       <c r="I284" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.7619165056698867</v>
       </c>
       <c r="J284" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1.87466404504424</v>
       </c>
     </row>
@@ -12226,11 +12606,11 @@
         <v>15.411</v>
       </c>
       <c r="I285" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.6561499303532989</v>
       </c>
       <c r="J285" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>2.722161572902472</v>
       </c>
     </row>
@@ -12251,11 +12631,11 @@
         <v>25.521999999999998</v>
       </c>
       <c r="I286" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.2352303539754761</v>
       </c>
       <c r="J286" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>3.2874564689287675</v>
       </c>
     </row>
@@ -12330,11 +12710,11 @@
         <v>3.173</v>
       </c>
       <c r="I292" s="1">
-        <f t="shared" ref="I292:J307" si="17">(8*$E292*$D292*$C292*$C292)/(G292/1000)/10^12</f>
+        <f t="shared" ref="I292:J307" si="29">(8*$E292*$D292*$C292*$C292)/(G292/1000)/10^12</f>
         <v>0.4885619103086779</v>
       </c>
       <c r="J292" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.52874932240781591</v>
       </c>
     </row>
@@ -12355,11 +12735,11 @@
         <v>3.9420000000000002</v>
       </c>
       <c r="I293" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.96531737629459158</v>
       </c>
       <c r="J293" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.85120324708269912</v>
       </c>
     </row>
@@ -12380,11 +12760,11 @@
         <v>7.0670000000000002</v>
       </c>
       <c r="I294" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.5925216896060748</v>
       </c>
       <c r="J294" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.94960894297438792</v>
       </c>
     </row>
@@ -12405,11 +12785,11 @@
         <v>5.2850000000000001</v>
       </c>
       <c r="I295" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.61443750228895799</v>
       </c>
       <c r="J295" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.63489937559129617</v>
       </c>
     </row>
@@ -12430,11 +12810,11 @@
         <v>12.397</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.3171514033366045</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.54133148342340887</v>
       </c>
     </row>
@@ -12455,11 +12835,11 @@
         <v>14.587999999999999</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.1348453634483855</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.92005571702769406</v>
       </c>
     </row>
@@ -12480,11 +12860,11 @@
         <v>9.593</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.9524357237131542</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.798243052225581</v>
       </c>
     </row>
@@ -12505,11 +12885,11 @@
         <v>12.689</v>
       </c>
       <c r="I299" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.79872487502975487</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.0577486641973362</v>
       </c>
     </row>
@@ -12530,11 +12910,11 @@
         <v>11.444000000000001</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.3856688233202989</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.345643621111499</v>
       </c>
     </row>
@@ -12555,11 +12935,11 @@
         <v>16.218</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.261670182260024</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.3103398199531386</v>
       </c>
     </row>
@@ -12580,11 +12960,11 @@
         <v>30.824999999999999</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.4042732443486257</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.4833473609083541</v>
       </c>
     </row>
@@ -12605,11 +12985,11 @@
         <v>56.017000000000003</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.89110163324923652</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.95840711212667573</v>
       </c>
     </row>
@@ -12630,11 +13010,11 @@
         <v>38.359000000000002</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>1.023605620698202</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.7991913866367732</v>
       </c>
     </row>
@@ -12655,11 +13035,11 @@
         <v>56.636000000000003</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>2.0216367597081666</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.7917290204110454</v>
       </c>
     </row>
@@ -12680,11 +13060,11 @@
         <v>112.19199999999999</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.9506666936485302</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>3.8282295493439826</v>
       </c>
     </row>
@@ -12705,11 +13085,11 @@
         <v>12.196</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.6925738189156958</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>0.61903469990160709</v>
       </c>
     </row>
@@ -12730,11 +13110,11 @@
         <v>13.625</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" ref="I308:J312" si="18">(8*$E308*$D308*$C308*$C308)/(G308/1000)/10^12</f>
+        <f t="shared" ref="I308:J312" si="30">(8*$E308*$D308*$C308*$C308)/(G308/1000)/10^12</f>
         <v>0.83408796332099644</v>
       </c>
       <c r="J308" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.1082197724770642</v>
       </c>
     </row>
@@ -12755,11 +13135,11 @@
         <v>15.438000000000001</v>
       </c>
       <c r="I309" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>2.2904049146757681</v>
       </c>
       <c r="J309" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>1.9561464438398755</v>
       </c>
     </row>
@@ -12780,11 +13160,11 @@
         <v>10.893000000000001</v>
       </c>
       <c r="I310" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.1426148928935736</v>
       </c>
       <c r="J310" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.11551374277058661</v>
       </c>
     </row>
@@ -12805,11 +13185,11 @@
         <v>11.704000000000001</v>
       </c>
       <c r="I311" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.2980320227380388</v>
       </c>
       <c r="J311" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.215019002050581</v>
       </c>
     </row>
@@ -12830,11 +13210,11 @@
         <v>13.085000000000001</v>
       </c>
       <c r="I312" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.44951011878181657</v>
       </c>
       <c r="J312" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="30"/>
         <v>0.38465149407718757</v>
       </c>
     </row>
@@ -12906,11 +13286,11 @@
         <v>372.58800000000002</v>
       </c>
       <c r="I317" s="1">
-        <f t="shared" ref="I317:I334" si="19">(6*$E317*$D317*$C317*$C317)/(G317/1000)/10^12</f>
+        <f t="shared" ref="I317:I334" si="31">(6*$E317*$D317*$C317*$C317)/(G317/1000)/10^12</f>
         <v>2.9857478467773566</v>
       </c>
       <c r="J317" s="1">
-        <f t="shared" ref="J317:J334" si="20">(6*$E317*$D317*$C317*$C317)/(H317/1000)/10^12</f>
+        <f t="shared" ref="J317:J334" si="32">(6*$E317*$D317*$C317*$C317)/(H317/1000)/10^12</f>
         <v>3.064777351927598</v>
       </c>
     </row>
@@ -12931,11 +13311,11 @@
         <v>187.45500000000001</v>
       </c>
       <c r="I318" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.8817356140253478</v>
       </c>
       <c r="J318" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.0457956949667921</v>
       </c>
     </row>
@@ -12956,11 +13336,11 @@
         <v>94.328000000000003</v>
       </c>
       <c r="I319" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.8929599843927818</v>
       </c>
       <c r="J319" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>3.0183354870664063</v>
       </c>
     </row>
@@ -12981,11 +13361,11 @@
         <v>494.94</v>
       </c>
       <c r="I320" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.992287546663166</v>
       </c>
       <c r="J320" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.440618159776943</v>
       </c>
     </row>
@@ -13006,11 +13386,11 @@
         <v>250.024</v>
       </c>
       <c r="I321" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.9590315999882417</v>
       </c>
       <c r="J321" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.4156871980289889</v>
       </c>
     </row>
@@ -13031,11 +13411,11 @@
         <v>126.32599999999999</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.907635089205765</v>
       </c>
       <c r="J322" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.3905600430631861</v>
       </c>
     </row>
@@ -13056,11 +13436,11 @@
         <v>64.192999999999998</v>
       </c>
       <c r="I323" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.7918481797552839</v>
       </c>
       <c r="J323" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.3459300985465705</v>
       </c>
     </row>
@@ -13081,11 +13461,11 @@
         <v>352.11900000000003</v>
       </c>
       <c r="I324" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.3099842528251084</v>
       </c>
       <c r="J324" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.9296807272541385</v>
       </c>
     </row>
@@ -13106,11 +13486,11 @@
         <v>177.54400000000001</v>
       </c>
       <c r="I325" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.2946319955693042</v>
       </c>
       <c r="J325" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.9135460730861082</v>
       </c>
     </row>
@@ -13131,11 +13511,11 @@
         <v>90.623999999999995</v>
       </c>
       <c r="I326" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.245404113572675</v>
       </c>
       <c r="J326" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.8744406779661018</v>
       </c>
     </row>
@@ -13156,11 +13536,11 @@
         <v>46.948</v>
       </c>
       <c r="I327" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.1413120550064462</v>
       </c>
       <c r="J327" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.8042975970009369</v>
       </c>
     </row>
@@ -13181,11 +13561,11 @@
         <v>669.00400000000002</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.8714429807412905</v>
       </c>
       <c r="J328" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.8212638489455966</v>
       </c>
     </row>
@@ -13206,11 +13586,11 @@
         <v>335.84199999999998</v>
       </c>
       <c r="I329" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.812477536678915</v>
       </c>
       <c r="J329" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.8100070866657538</v>
       </c>
     </row>
@@ -13231,11 +13611,11 @@
         <v>169.42</v>
       </c>
       <c r="I330" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.7746141135931977</v>
       </c>
       <c r="J330" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.7851446110258529</v>
       </c>
     </row>
@@ -13256,11 +13636,11 @@
         <v>86.021000000000001</v>
       </c>
       <c r="I331" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.7720889517212131</v>
       </c>
       <c r="J331" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>2.7353838527801351</v>
       </c>
     </row>
@@ -13281,11 +13661,11 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="I332" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>0.40920039024390242</v>
       </c>
       <c r="J332" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.51358824489795907</v>
       </c>
     </row>
@@ -13306,11 +13686,11 @@
         <v>309.14499999999998</v>
       </c>
       <c r="I333" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>1.6008709029320245</v>
       </c>
       <c r="J333" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>0.97685515858254213</v>
       </c>
     </row>
@@ -13331,18 +13711,18 @@
         <v>489.57400000000001</v>
       </c>
       <c r="I334" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="31"/>
         <v>2.460082505132132</v>
       </c>
       <c r="J334" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="32"/>
         <v>1.2336843378120568</v>
       </c>
     </row>
     <row r="339" spans="1:15">
       <c r="L339" s="3">
         <f>1000/(SUM(U175:U210))</f>
-        <v>7.0587201978970366</v>
+        <v>7.0430868729944143</v>
       </c>
     </row>
     <row r="341" spans="1:15">
@@ -13414,7 +13794,7 @@
       </c>
       <c r="H346" s="1"/>
       <c r="I346" s="1">
-        <f t="shared" ref="I346:I369" si="21">C346*4*D346/(G346/1000)/10^9</f>
+        <f t="shared" ref="I346:I369" si="33">C346*4*D346/(G346/1000)/10^9</f>
         <v>14.330609679449141</v>
       </c>
       <c r="J346" t="s">
@@ -13439,7 +13819,7 @@
       </c>
       <c r="H347" s="1"/>
       <c r="I347" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11.975151560511936</v>
       </c>
       <c r="J347" t="s">
@@ -13466,7 +13846,7 @@
         <v>0.56442119999999996</v>
       </c>
       <c r="I348" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11.33904963172893</v>
       </c>
       <c r="J348" t="s">
@@ -13491,7 +13871,7 @@
         <v>0.73854220000000004</v>
       </c>
       <c r="I349" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>17.331440234559377</v>
       </c>
       <c r="J349" t="s">
@@ -13514,7 +13894,7 @@
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>22.521857675179497</v>
       </c>
       <c r="J350" t="s">
@@ -13540,7 +13920,7 @@
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.187360976720854</v>
       </c>
       <c r="J351" t="s">
@@ -13566,7 +13946,7 @@
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.268016804912204</v>
       </c>
       <c r="J352" t="s">
@@ -13593,7 +13973,7 @@
         <v>18.420000000000002</v>
       </c>
       <c r="I353" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>10.762562432138978</v>
       </c>
       <c r="J353" t="s">
@@ -13618,7 +13998,7 @@
         <v>24.965580200000002</v>
       </c>
       <c r="I354" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>15.881577629027023</v>
       </c>
       <c r="J354" t="s">
@@ -13641,7 +14021,7 @@
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>22.7762533769566</v>
       </c>
       <c r="J355" t="s">
@@ -13667,7 +14047,7 @@
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.317124363455925</v>
       </c>
       <c r="J356" t="s">
@@ -13693,7 +14073,7 @@
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.392047280155278</v>
       </c>
       <c r="J357" t="s">
@@ -13720,7 +14100,7 @@
         <v>24.01</v>
       </c>
       <c r="I358" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11.180152269887547</v>
       </c>
       <c r="J358" t="s">
@@ -13745,7 +14125,7 @@
         <v>32.338022199999997</v>
       </c>
       <c r="I359" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>16.601847468581429</v>
       </c>
       <c r="J359" t="s">
@@ -13768,7 +14148,7 @@
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>22.898872282252643</v>
       </c>
       <c r="J360" t="s">
@@ -13794,7 +14174,7 @@
       </c>
       <c r="H361" s="1"/>
       <c r="I361" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.474258735285034</v>
       </c>
       <c r="J361" t="s">
@@ -13820,7 +14200,7 @@
       </c>
       <c r="H362" s="1"/>
       <c r="I362" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.270232986607784</v>
       </c>
       <c r="J362" t="s">
@@ -13847,7 +14227,7 @@
         <v>37.090000000000003</v>
       </c>
       <c r="I363" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11.308449716904825</v>
       </c>
       <c r="J363" t="s">
@@ -13872,7 +14252,7 @@
         <v>50.6483974</v>
       </c>
       <c r="I364" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>16.562435201552891</v>
       </c>
       <c r="J364" t="s">
@@ -13896,7 +14276,7 @@
       </c>
       <c r="H365" s="1"/>
       <c r="I365" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>23.126633124267695</v>
       </c>
       <c r="J365" t="s">
@@ -13922,7 +14302,7 @@
       </c>
       <c r="H366" s="1"/>
       <c r="I366" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.530335008681352</v>
       </c>
       <c r="J366" t="s">
@@ -13948,7 +14328,7 @@
       </c>
       <c r="H367" s="1"/>
       <c r="I367" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>24.339873220880566</v>
       </c>
       <c r="J367" t="s">
@@ -13975,7 +14355,7 @@
         <v>97.46</v>
       </c>
       <c r="I368" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>11.017256556536017</v>
       </c>
       <c r="J368" t="s">
@@ -14000,7 +14380,7 @@
         <v>130.12367280000001</v>
       </c>
       <c r="I369" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="33"/>
         <v>16.503404813209361</v>
       </c>
       <c r="J369" t="s">
@@ -14032,7 +14412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/results/train/DeepBench_NV_TitanX.xlsx
+++ b/results/train/DeepBench_NV_TitanX.xlsx
@@ -184,9 +184,6 @@
     <t>GPU Model</t>
   </si>
   <si>
-    <t>Nvidia Tesla M40</t>
-  </si>
-  <si>
     <t>Linux Kernel Version</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>S (Filter width)</t>
+  </si>
+  <si>
+    <t>Nvidia TitanX</t>
   </si>
 </sst>
 </file>
@@ -914,7 +914,7 @@
   <dimension ref="A1:AD377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -937,10 +937,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3313,11 +3313,11 @@
         <v>2</v>
       </c>
       <c r="I98" s="1">
-        <v>149.578</v>
+        <v>117.49</v>
       </c>
       <c r="J98" s="1">
         <f t="shared" si="3"/>
-        <v>4.037891775528486</v>
+        <v>5.1406909183760323</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3439,11 +3439,11 @@
         <v>2</v>
       </c>
       <c r="I103" s="1">
-        <v>289.95400000000001</v>
+        <v>228.59</v>
       </c>
       <c r="J103" s="1">
         <f t="shared" si="3"/>
-        <v>4.1660385854307922</v>
+        <v>5.2843936830132545</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3565,11 +3565,11 @@
         <v>2</v>
       </c>
       <c r="I108" s="1">
-        <v>264.40600000000001</v>
+        <v>120</v>
       </c>
       <c r="J108" s="1">
         <f t="shared" si="3"/>
-        <v>2.2842892218784745</v>
+        <v>5.0331647999999998</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3691,11 +3691,11 @@
         <v>2</v>
       </c>
       <c r="I113" s="1">
-        <v>525.26099999999997</v>
+        <v>234.14</v>
       </c>
       <c r="J113" s="1">
         <f t="shared" si="3"/>
-        <v>2.2997320417849414</v>
+        <v>5.1591336465362607</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -3795,11 +3795,11 @@
       </c>
       <c r="H117" s="2"/>
       <c r="I117" s="1">
-        <v>0.63900000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="J117" s="1">
         <f t="shared" si="3"/>
-        <v>0.63013017840375585</v>
+        <v>0.77433304615384602</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -3873,11 +3873,11 @@
       </c>
       <c r="H120" s="2"/>
       <c r="I120" s="1">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="J120" s="1">
         <f t="shared" si="3"/>
-        <v>1.2582911999999999</v>
+        <v>1.548666092307692</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -3951,11 +3951,11 @@
       </c>
       <c r="H123" s="2"/>
       <c r="I123" s="1">
-        <v>0.67100000000000004</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J123" s="1">
         <f t="shared" si="3"/>
-        <v>0.60007926080476892</v>
+        <v>0.70640909473684221</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4029,11 +4029,11 @@
       </c>
       <c r="H126" s="2"/>
       <c r="I126" s="1">
-        <v>0.67700000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J126" s="1">
         <f t="shared" si="3"/>
-        <v>1.1895219615952732</v>
+        <v>1.3884592551724138</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -5169,10 +5169,10 @@
         <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I174" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J174" t="s">
         <v>38</v>
@@ -5202,7 +5202,7 @@
         <v>42</v>
       </c>
       <c r="T174" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U174" t="s">
         <v>43</v>
@@ -5255,7 +5255,7 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P175" s="1">
         <v>0.36199999999999999</v>
@@ -5277,7 +5277,7 @@
         <v>3.2684284360189571</v>
       </c>
       <c r="V175" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W175" s="1">
         <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
@@ -5329,7 +5329,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P176" s="1">
         <v>0.67300000000000004</v>
@@ -5351,7 +5351,7 @@
         <v>3.4568340852130328</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W176" s="1">
         <f t="shared" si="10"/>
@@ -5403,7 +5403,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P177" s="1">
         <v>1.296</v>
@@ -5425,7 +5425,7 @@
         <v>3.5918666666666663</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W177" s="1">
         <f t="shared" si="10"/>
@@ -5477,7 +5477,7 @@
         <v>1.506</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P178" s="1">
         <v>2.7850000000000001</v>
@@ -5499,7 +5499,7 @@
         <v>3.6634177954847282</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W178" s="1">
         <f t="shared" si="10"/>
@@ -5851,7 +5851,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P183" s="1">
         <v>0.751</v>
@@ -5873,7 +5873,7 @@
         <v>0.45565802575107295</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W183" s="1">
         <f t="shared" si="10"/>
@@ -6150,7 +6150,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P187" s="1">
         <v>0.17499999999999999</v>
@@ -6172,7 +6172,7 @@
         <v>1.3216650491803279</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W187" s="1">
         <f t="shared" si="10"/>
@@ -6524,7 +6524,7 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P192" s="1">
         <v>1.899</v>
@@ -6546,7 +6546,7 @@
         <v>2.0613165646359581</v>
       </c>
       <c r="V192" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W192" s="1">
         <f t="shared" si="10"/>
@@ -6975,7 +6975,7 @@
         <v>1.3169999999999999</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P198" s="1">
         <v>3.665</v>
@@ -6997,7 +6997,7 @@
         <v>2.1067062232346241</v>
       </c>
       <c r="V198" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W198" s="1">
         <f t="shared" si="10"/>
@@ -7426,7 +7426,7 @@
         <v>1.016</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P204" s="1">
         <v>2.2530000000000001</v>
@@ -7448,7 +7448,7 @@
         <v>3.7169748661417326</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W204" s="1">
         <f t="shared" si="10"/>
@@ -8884,7 +8884,7 @@
         <v>1.835008</v>
       </c>
       <c r="X223" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
@@ -9308,7 +9308,7 @@
         <v>0.72</v>
       </c>
       <c r="O229" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P229">
         <v>2.11</v>
@@ -9330,7 +9330,7 @@
         <v>1.9854222222222224</v>
       </c>
       <c r="V229" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="W229" s="1">
         <f t="shared" si="21"/>
@@ -9565,7 +9565,7 @@
         <v>4.4689682045731303</v>
       </c>
       <c r="X232" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
@@ -9717,7 +9717,7 @@
         <v>5.0483901034867058</v>
       </c>
       <c r="X234" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
@@ -9869,7 +9869,7 @@
         <v>10.907787492260063</v>
       </c>
       <c r="X236" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
@@ -12310,7 +12310,7 @@
     </row>
     <row r="271" spans="2:30">
       <c r="D271" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="273" spans="1:10">
@@ -13220,10 +13220,10 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" t="s">
+        <v>75</v>
+      </c>
+      <c r="C315" t="s">
         <v>76</v>
-      </c>
-      <c r="C315" t="s">
-        <v>77</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
@@ -14413,7 +14413,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14434,28 +14434,28 @@
         <v>53</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
@@ -14463,15 +14463,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8">
         <v>352.79</v>
@@ -14479,42 +14479,42 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
         <v>64</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
         <v>68</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
         <v>70</v>
-      </c>
-      <c r="B12" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/results/train/DeepBench_NV_TitanX.xlsx
+++ b/results/train/DeepBench_NV_TitanX.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="1" r:id="rId1"/>
     <sheet name="Specs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="85">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -119,15 +127,6 @@
   </si>
   <si>
     <t>Selected Algorithm</t>
-  </si>
-  <si>
-    <t>NCCL Single Process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSU MPI </t>
-  </si>
-  <si>
-    <t>OSU MPI</t>
   </si>
   <si>
     <t>TERAFLOPS</t>
@@ -273,6 +272,18 @@
   <si>
     <t>Nvidia TitanX</t>
   </si>
+  <si>
+    <t>NCCL 2.0 MPI</t>
+  </si>
+  <si>
+    <t>OSU Allreduce</t>
+  </si>
+  <si>
+    <t>NCCL 2.0 Single</t>
+  </si>
+  <si>
+    <t>Baidu RingAllReduce</t>
+  </si>
 </sst>
 </file>
 
@@ -324,6 +335,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -586,6 +598,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -911,13 +928,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD377"/>
+  <dimension ref="A1:AD379"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
+      <selection activeCell="L369" sqref="L369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
@@ -935,15 +952,15 @@
     <col min="22" max="22" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -966,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1760</v>
       </c>
@@ -995,7 +1012,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1760</v>
       </c>
@@ -1021,7 +1038,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1760</v>
       </c>
@@ -1047,7 +1064,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1760</v>
       </c>
@@ -1073,7 +1090,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>1760</v>
       </c>
@@ -1099,7 +1116,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>2048</v>
       </c>
@@ -1125,7 +1142,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>2048</v>
       </c>
@@ -1151,7 +1168,7 @@
       <c r="K10" s="10"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>2048</v>
       </c>
@@ -1177,7 +1194,7 @@
       <c r="K11" s="10"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2048</v>
       </c>
@@ -1203,7 +1220,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>2048</v>
       </c>
@@ -1229,7 +1246,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>2560</v>
       </c>
@@ -1255,7 +1272,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>2560</v>
       </c>
@@ -1281,7 +1298,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>2560</v>
       </c>
@@ -1307,7 +1324,7 @@
       <c r="K16" s="10"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>2560</v>
       </c>
@@ -1333,7 +1350,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="3:12">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>2560</v>
       </c>
@@ -1359,7 +1376,7 @@
       <c r="K18" s="10"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="3:12">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>4096</v>
       </c>
@@ -1385,7 +1402,7 @@
       <c r="K19" s="10"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="3:12">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>4096</v>
       </c>
@@ -1411,7 +1428,7 @@
       <c r="K20" s="10"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="3:12">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>4096</v>
       </c>
@@ -1437,7 +1454,7 @@
       <c r="K21" s="10"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="3:12">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>4096</v>
       </c>
@@ -1463,7 +1480,7 @@
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="3:12">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>4096</v>
       </c>
@@ -1489,7 +1506,7 @@
       <c r="K23" s="10"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="3:12">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>1760</v>
       </c>
@@ -1515,7 +1532,7 @@
       <c r="K24" s="10"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="3:12">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1760</v>
       </c>
@@ -1541,7 +1558,7 @@
       <c r="K25" s="10"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="3:12">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>1760</v>
       </c>
@@ -1567,7 +1584,7 @@
       <c r="K26" s="10"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="3:12">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>1760</v>
       </c>
@@ -1593,7 +1610,7 @@
       <c r="K27" s="10"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="3:12">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>1760</v>
       </c>
@@ -1619,7 +1636,7 @@
       <c r="K28" s="10"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="3:12">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>2048</v>
       </c>
@@ -1645,7 +1662,7 @@
       <c r="K29" s="10"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="3:12">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>2048</v>
       </c>
@@ -1671,7 +1688,7 @@
       <c r="K30" s="10"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="3:12">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>2048</v>
       </c>
@@ -1697,7 +1714,7 @@
       <c r="K31" s="10"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="3:12">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>2048</v>
       </c>
@@ -1723,7 +1740,7 @@
       <c r="K32" s="10"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="3:12">
+    <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>2048</v>
       </c>
@@ -1749,7 +1766,7 @@
       <c r="K33" s="10"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="3:12">
+    <row r="34" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>2560</v>
       </c>
@@ -1775,7 +1792,7 @@
       <c r="K34" s="10"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="3:12">
+    <row r="35" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>2560</v>
       </c>
@@ -1801,7 +1818,7 @@
       <c r="K35" s="10"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="3:12">
+    <row r="36" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>2560</v>
       </c>
@@ -1827,7 +1844,7 @@
       <c r="K36" s="10"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="3:12">
+    <row r="37" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>2560</v>
       </c>
@@ -1853,7 +1870,7 @@
       <c r="K37" s="10"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="3:12">
+    <row r="38" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>2560</v>
       </c>
@@ -1879,7 +1896,7 @@
       <c r="K38" s="10"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="3:12">
+    <row r="39" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>4096</v>
       </c>
@@ -1905,7 +1922,7 @@
       <c r="K39" s="10"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="3:12">
+    <row r="40" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>4096</v>
       </c>
@@ -1931,7 +1948,7 @@
       <c r="K40" s="10"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="3:12">
+    <row r="41" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>4096</v>
       </c>
@@ -1957,7 +1974,7 @@
       <c r="K41" s="10"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="3:12">
+    <row r="42" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>4096</v>
       </c>
@@ -1983,7 +2000,7 @@
       <c r="K42" s="10"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="3:12">
+    <row r="43" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>4096</v>
       </c>
@@ -2009,7 +2026,7 @@
       <c r="K43" s="10"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="3:12">
+    <row r="44" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>1760</v>
       </c>
@@ -2038,7 +2055,7 @@
       <c r="K44" s="10"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="3:12">
+    <row r="45" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>2048</v>
       </c>
@@ -2064,7 +2081,7 @@
       <c r="K45" s="10"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="3:12">
+    <row r="46" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>2560</v>
       </c>
@@ -2090,7 +2107,7 @@
       <c r="K46" s="10"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="3:12">
+    <row r="47" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C47" s="2">
         <v>4096</v>
       </c>
@@ -2116,19 +2133,19 @@
       <c r="K47" s="10"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="3:12">
+    <row r="48" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="10"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="10"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>5124</v>
       </c>
@@ -2154,7 +2171,7 @@
       <c r="K50" s="10"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>35</v>
       </c>
@@ -2180,7 +2197,7 @@
       <c r="K51" s="10"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>5124</v>
       </c>
@@ -2206,7 +2223,7 @@
       <c r="K52" s="10"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>35</v>
       </c>
@@ -2232,7 +2249,7 @@
       <c r="K53" s="10"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>5124</v>
       </c>
@@ -2258,7 +2275,7 @@
       <c r="K54" s="10"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>35</v>
       </c>
@@ -2284,7 +2301,7 @@
       <c r="K55" s="10"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>5124</v>
       </c>
@@ -2310,7 +2327,7 @@
       <c r="K56" s="10"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>35</v>
       </c>
@@ -2336,7 +2353,7 @@
       <c r="K57" s="10"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>5124</v>
       </c>
@@ -2362,7 +2379,7 @@
       <c r="K58" s="10"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="3:12">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>35</v>
       </c>
@@ -2388,7 +2405,7 @@
       <c r="K59" s="10"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>5124</v>
       </c>
@@ -2414,7 +2431,7 @@
       <c r="K60" s="10"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="3:12">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>35</v>
       </c>
@@ -2440,7 +2457,7 @@
       <c r="K61" s="10"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="3:12">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>5124</v>
       </c>
@@ -2466,7 +2483,7 @@
       <c r="K62" s="10"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="3:12">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>35</v>
       </c>
@@ -2492,7 +2509,7 @@
       <c r="K63" s="10"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="3:12">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>5124</v>
       </c>
@@ -2518,7 +2535,7 @@
       <c r="K64" s="10"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="3:12">
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>35</v>
       </c>
@@ -2544,13 +2561,13 @@
       <c r="K65" s="10"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="3:12">
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
       <c r="K66" s="10"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>7680</v>
       </c>
@@ -2576,7 +2593,7 @@
       <c r="K67" s="10"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="3:12">
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>7680</v>
       </c>
@@ -2602,7 +2619,7 @@
       <c r="K68" s="10"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="3:12">
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>7680</v>
       </c>
@@ -2628,7 +2645,7 @@
       <c r="K69" s="10"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="3:12">
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>7680</v>
       </c>
@@ -2654,7 +2671,7 @@
       <c r="K70" s="10"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="3:12">
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>7680</v>
       </c>
@@ -2680,7 +2697,7 @@
       <c r="K71" s="10"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="3:12">
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>7680</v>
       </c>
@@ -2706,7 +2723,7 @@
       <c r="K72" s="10"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="3:12">
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>7680</v>
       </c>
@@ -2732,7 +2749,7 @@
       <c r="K73" s="10"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="3:12">
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>7680</v>
       </c>
@@ -2758,7 +2775,7 @@
       <c r="K74" s="10"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="3:12">
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C75">
         <f>3*1024</f>
         <v>3072</v>
@@ -2785,7 +2802,7 @@
       <c r="K75" s="10"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="3:12">
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C76">
         <f t="shared" ref="C76:C82" si="2">3*1024</f>
         <v>3072</v>
@@ -2812,7 +2829,7 @@
       <c r="K76" s="10"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="3:12">
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C77">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2839,7 +2856,7 @@
       <c r="K77" s="10"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="3:12">
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C78">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2866,7 +2883,7 @@
       <c r="K78" s="10"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="3:12">
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C79">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2893,7 +2910,7 @@
       <c r="K79" s="10"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="3:12">
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C80">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2920,7 +2937,7 @@
       <c r="K80" s="10"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="3:12">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2947,7 +2964,7 @@
       <c r="K81" s="10"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="3:12">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82">
         <f t="shared" si="2"/>
         <v>3072</v>
@@ -2974,13 +2991,13 @@
       <c r="K82" s="10"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="3:12">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
       <c r="K83" s="10"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="3:12">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>3072</v>
       </c>
@@ -3006,7 +3023,7 @@
       <c r="K84" s="10"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="3:12">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>7680</v>
       </c>
@@ -3032,7 +3049,7 @@
       <c r="K85" s="10"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="87" spans="3:12">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>512</v>
       </c>
@@ -3056,7 +3073,7 @@
         <v>0.85618729096989965</v>
       </c>
     </row>
-    <row r="88" spans="3:12">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>1024</v>
       </c>
@@ -3080,7 +3097,7 @@
         <v>1.118972817921049</v>
       </c>
     </row>
-    <row r="89" spans="3:12">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>512</v>
       </c>
@@ -3104,7 +3121,7 @@
         <v>0.82141782813596709</v>
       </c>
     </row>
-    <row r="90" spans="3:12">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>1024</v>
       </c>
@@ -3128,7 +3145,7 @@
         <v>0.82940164017414197</v>
       </c>
     </row>
-    <row r="91" spans="3:12">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>512</v>
       </c>
@@ -3152,7 +3169,7 @@
         <v>0.24506401818834508</v>
       </c>
     </row>
-    <row r="92" spans="3:12">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>1024</v>
       </c>
@@ -3176,7 +3193,7 @@
         <v>0.26024525065124848</v>
       </c>
     </row>
-    <row r="93" spans="3:12">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>512</v>
       </c>
@@ -3200,7 +3217,7 @@
         <v>0.46110548238207821</v>
       </c>
     </row>
-    <row r="94" spans="3:12">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>1024</v>
       </c>
@@ -3224,7 +3241,7 @@
         <v>0.48866618945359114</v>
       </c>
     </row>
-    <row r="95" spans="3:12">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>1024</v>
       </c>
@@ -3248,7 +3265,7 @@
         <v>2.7084988929889295</v>
       </c>
     </row>
-    <row r="96" spans="3:12">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>1024</v>
       </c>
@@ -3272,7 +3289,7 @@
         <v>2.6594318840579705</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>7680</v>
       </c>
@@ -3296,7 +3313,7 @@
         <v>5.0470812854644542</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>6144</v>
       </c>
@@ -3320,7 +3337,7 @@
         <v>5.1406909183760323</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="C99" s="2">
         <v>4608</v>
@@ -3346,7 +3363,7 @@
         <v>5.0458729244021985</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="C100" s="2">
         <v>8448</v>
@@ -3372,7 +3389,7 @@
         <v>5.0536355042574659</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="C101" s="2">
         <v>3072</v>
@@ -3398,7 +3415,7 @@
         <v>4.9973504550719845</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>7680</v>
       </c>
@@ -3422,7 +3439,7 @@
         <v>5.2140578469018477</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>6144</v>
       </c>
@@ -3446,7 +3463,7 @@
         <v>5.2843936830132545</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="C104" s="2">
         <v>4608</v>
@@ -3472,7 +3489,7 @@
         <v>5.1817070693205212</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="C105" s="2">
         <v>8448</v>
@@ -3498,7 +3515,7 @@
         <v>5.2112488202918916</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="C106" s="2">
         <v>3072</v>
@@ -3524,7 +3541,7 @@
         <v>5.1475256617860126</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>7680</v>
       </c>
@@ -3548,7 +3565,7 @@
         <v>2.7783226171129796</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>6144</v>
       </c>
@@ -3572,7 +3589,7 @@
         <v>5.0331647999999998</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="C109" s="2">
         <v>4608</v>
@@ -3598,7 +3615,7 @@
         <v>3.0131761492137539</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="C110" s="2">
         <v>8448</v>
@@ -3624,7 +3641,7 @@
         <v>2.7345706177753191</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="C111" s="2">
         <v>3072</v>
@@ -3650,7 +3667,7 @@
         <v>3.5554992935857581</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>7680</v>
       </c>
@@ -3674,7 +3691,7 @@
         <v>2.7943645957325849</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>6144</v>
       </c>
@@ -3698,7 +3715,7 @@
         <v>5.1591336465362607</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="C114" s="2">
         <v>4608</v>
@@ -3724,7 +3741,7 @@
         <v>3.0217387831701967</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="C115" s="2">
         <v>8448</v>
@@ -3750,7 +3767,7 @@
         <v>2.7570553499922132</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="C116" s="2">
         <v>3072</v>
@@ -3776,7 +3793,7 @@
         <v>3.5984591406305855</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="C117" s="2">
         <v>6144</v>
@@ -3802,7 +3819,7 @@
         <v>0.77433304615384602</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="C118" s="2">
         <v>4608</v>
@@ -3828,7 +3845,7 @@
         <v>0.65460235838150294</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="C119" s="2">
         <v>8448</v>
@@ -3854,7 +3871,7 @@
         <v>0.76586134406438622</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="C120" s="2">
         <v>6144</v>
@@ -3880,7 +3897,7 @@
         <v>1.548666092307692</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="C121" s="2">
         <v>4608</v>
@@ -3906,7 +3923,7 @@
         <v>1.3054317925072045</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="C122" s="2">
         <v>8448</v>
@@ -3932,7 +3949,7 @@
         <v>1.5240564084084083</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="C123" s="2">
         <v>6144</v>
@@ -3958,7 +3975,7 @@
         <v>0.70640909473684221</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="C124" s="2">
         <v>4608</v>
@@ -3984,7 +4001,7 @@
         <v>0.73776031270358311</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="C125" s="2">
         <v>8448</v>
@@ -4010,7 +4027,7 @@
         <v>0.75597435551142012</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="C126" s="2">
         <v>6144</v>
@@ -4036,7 +4053,7 @@
         <v>1.3884592551724138</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="C127" s="2">
         <v>4608</v>
@@ -4062,7 +4079,7 @@
         <v>1.4659703300970874</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="C128" s="2">
         <v>8448</v>
@@ -4088,7 +4105,7 @@
         <v>1.5015111952662723</v>
       </c>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C129" s="2">
         <v>512</v>
       </c>
@@ -4114,7 +4131,7 @@
         <v>4.9606491290946888</v>
       </c>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C130" s="2">
         <v>512</v>
       </c>
@@ -4140,7 +4157,7 @@
         <v>4.9705360458226346</v>
       </c>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B131" s="2"/>
       <c r="C131" s="2">
         <v>512</v>
@@ -4167,7 +4184,7 @@
         <v>4.964848484848484</v>
       </c>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B132" s="2"/>
       <c r="C132" s="2">
         <v>512</v>
@@ -4194,7 +4211,7 @@
         <v>4.9261469933184854</v>
       </c>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C133" s="2">
         <v>1024</v>
       </c>
@@ -4220,7 +4237,7 @@
         <v>5.0185653372008714</v>
       </c>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C134" s="2">
         <v>1024</v>
       </c>
@@ -4246,7 +4263,7 @@
         <v>5.0148605589597972</v>
       </c>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B135" s="2"/>
       <c r="C135" s="2">
         <v>1024</v>
@@ -4273,7 +4290,7 @@
         <v>5.0109163314881924</v>
       </c>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B136" s="2"/>
       <c r="C136" s="2">
         <v>1024</v>
@@ -4300,7 +4317,7 @@
         <v>4.981951639615767</v>
       </c>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B137" s="2"/>
       <c r="C137" s="2">
         <v>512</v>
@@ -4326,7 +4343,7 @@
         <v>9.64207816091954E-2</v>
       </c>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B138" s="2"/>
       <c r="C138" s="2">
         <v>1024</v>
@@ -4352,7 +4369,7 @@
         <v>0.19065018181818183</v>
       </c>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C139" s="2">
         <v>512</v>
       </c>
@@ -4378,7 +4395,7 @@
         <v>4.4499753086419753</v>
       </c>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C140" s="2">
         <v>512</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>4.9325409643277141</v>
       </c>
     </row>
-    <row r="141" spans="2:10">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B141" s="2"/>
       <c r="C141" s="2">
         <v>512</v>
@@ -4431,7 +4448,7 @@
         <v>4.4387300691406804</v>
       </c>
     </row>
-    <row r="142" spans="2:10">
+    <row r="142" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B142" s="2"/>
       <c r="C142" s="2">
         <v>512</v>
@@ -4458,7 +4475,7 @@
         <v>4.6329817644159688</v>
       </c>
     </row>
-    <row r="143" spans="2:10">
+    <row r="143" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C143" s="2">
         <v>1024</v>
       </c>
@@ -4484,7 +4501,7 @@
         <v>3.7331975401877227</v>
       </c>
     </row>
-    <row r="144" spans="2:10">
+    <row r="144" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C144" s="2">
         <v>1024</v>
       </c>
@@ -4510,7 +4527,7 @@
         <v>4.8913166180758028</v>
       </c>
     </row>
-    <row r="145" spans="2:10">
+    <row r="145" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B145" s="2"/>
       <c r="C145" s="2">
         <v>1024</v>
@@ -4537,7 +4554,7 @@
         <v>4.1999038718291057</v>
       </c>
     </row>
-    <row r="146" spans="2:10">
+    <row r="146" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B146" s="2"/>
       <c r="C146" s="2">
         <v>1024</v>
@@ -4564,7 +4581,7 @@
         <v>3.9588629185091602</v>
       </c>
     </row>
-    <row r="147" spans="2:10">
+    <row r="147" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B147" s="2"/>
       <c r="C147" s="2">
         <v>512</v>
@@ -4590,7 +4607,7 @@
         <v>0.11037642105263158</v>
       </c>
     </row>
-    <row r="148" spans="2:10">
+    <row r="148" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B148" s="2"/>
       <c r="C148" s="2">
         <v>1024</v>
@@ -4616,7 +4633,7 @@
         <v>0.21509251282051281</v>
       </c>
     </row>
-    <row r="149" spans="2:10">
+    <row r="149" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C149" s="2">
         <v>512</v>
       </c>
@@ -4642,7 +4659,7 @@
         <v>5.1290310531386654</v>
       </c>
     </row>
-    <row r="150" spans="2:10">
+    <row r="150" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C150" s="2">
         <v>512</v>
       </c>
@@ -4668,7 +4685,7 @@
         <v>5.1324782542191407</v>
       </c>
     </row>
-    <row r="151" spans="2:10">
+    <row r="151" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B151" s="2"/>
       <c r="C151" s="2">
         <v>512</v>
@@ -4695,7 +4712,7 @@
         <v>5.1116802079948007</v>
       </c>
     </row>
-    <row r="152" spans="2:10">
+    <row r="152" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B152" s="2"/>
       <c r="C152" s="2">
         <v>512</v>
@@ -4722,7 +4739,7 @@
         <v>5.0829712740790809</v>
       </c>
     </row>
-    <row r="153" spans="2:10">
+    <row r="153" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C153" s="2">
         <v>1024</v>
       </c>
@@ -4748,7 +4765,7 @@
         <v>5.1702227036718842</v>
       </c>
     </row>
-    <row r="154" spans="2:10">
+    <row r="154" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C154" s="2">
         <v>1024</v>
       </c>
@@ -4774,7 +4791,7 @@
         <v>5.1650014623258684</v>
       </c>
     </row>
-    <row r="155" spans="2:10">
+    <row r="155" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B155" s="2"/>
       <c r="C155" s="2">
         <v>1024</v>
@@ -4801,7 +4818,7 @@
         <v>5.164233034413412</v>
       </c>
     </row>
-    <row r="156" spans="2:10">
+    <row r="156" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B156" s="2"/>
       <c r="C156" s="2">
         <v>1024</v>
@@ -4828,7 +4845,7 @@
         <v>5.1224412505960091</v>
       </c>
     </row>
-    <row r="157" spans="2:10">
+    <row r="157" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B157" s="2"/>
       <c r="C157" s="2">
         <v>512</v>
@@ -4854,7 +4871,7 @@
         <v>0.19065018181818183</v>
       </c>
     </row>
-    <row r="158" spans="2:10">
+    <row r="158" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B158" s="2"/>
       <c r="C158" s="2">
         <v>1024</v>
@@ -4880,7 +4897,7 @@
         <v>0.38130036363636366</v>
       </c>
     </row>
-    <row r="159" spans="2:10">
+    <row r="159" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C159" s="2">
         <v>512</v>
       </c>
@@ -4906,7 +4923,7 @@
         <v>4.6770302088261131</v>
       </c>
     </row>
-    <row r="160" spans="2:10">
+    <row r="160" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C160" s="2">
         <v>512</v>
       </c>
@@ -4932,7 +4949,7 @@
         <v>5.0699217325610677</v>
       </c>
     </row>
-    <row r="161" spans="1:30">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B161" s="2"/>
       <c r="C161" s="2">
         <v>512</v>
@@ -4959,7 +4976,7 @@
         <v>4.7194178981321739</v>
       </c>
     </row>
-    <row r="162" spans="1:30">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B162" s="2"/>
       <c r="C162" s="2">
         <v>512</v>
@@ -4986,7 +5003,7 @@
         <v>4.8243879907621254</v>
       </c>
     </row>
-    <row r="163" spans="1:30">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C163" s="2">
         <v>1024</v>
       </c>
@@ -5012,7 +5029,7 @@
         <v>3.6755014074034733</v>
       </c>
     </row>
-    <row r="164" spans="1:30">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C164" s="2">
         <v>1024</v>
       </c>
@@ -5038,7 +5055,7 @@
         <v>5.058711292024725</v>
       </c>
     </row>
-    <row r="165" spans="1:30">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B165" s="2"/>
       <c r="C165" s="2">
         <v>1024</v>
@@ -5065,7 +5082,7 @@
         <v>4.0319507818508074</v>
       </c>
     </row>
-    <row r="166" spans="1:30">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2">
         <v>1024</v>
@@ -5092,7 +5109,7 @@
         <v>4.2327100804862958</v>
       </c>
     </row>
-    <row r="167" spans="1:30">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B167" s="2"/>
       <c r="C167" s="2">
         <v>512</v>
@@ -5118,7 +5135,7 @@
         <v>0.2178859220779221</v>
       </c>
     </row>
-    <row r="168" spans="1:30">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B168" s="2"/>
       <c r="C168" s="2">
         <v>1024</v>
@@ -5144,15 +5161,15 @@
         <v>0.43018502564102562</v>
       </c>
     </row>
-    <row r="171" spans="1:30">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="J171" s="3"/>
     </row>
-    <row r="173" spans="1:30">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:30">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C174" t="s">
         <v>10</v>
       </c>
@@ -5169,22 +5186,22 @@
         <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I174" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J174" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K174" t="s">
+        <v>34</v>
+      </c>
+      <c r="L174" t="s">
         <v>37</v>
       </c>
-      <c r="L174" t="s">
-        <v>40</v>
-      </c>
       <c r="M174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N174" t="s">
         <v>14</v>
@@ -5196,28 +5213,28 @@
         <v>16</v>
       </c>
       <c r="R174" t="s">
+        <v>38</v>
+      </c>
+      <c r="S174" t="s">
+        <v>39</v>
+      </c>
+      <c r="T174" t="s">
+        <v>71</v>
+      </c>
+      <c r="U174" t="s">
+        <v>40</v>
+      </c>
+      <c r="V174" t="s">
         <v>41</v>
       </c>
-      <c r="S174" t="s">
+      <c r="W174" t="s">
         <v>42</v>
-      </c>
-      <c r="T174" t="s">
-        <v>74</v>
-      </c>
-      <c r="U174" t="s">
-        <v>43</v>
-      </c>
-      <c r="V174" t="s">
-        <v>44</v>
-      </c>
-      <c r="W174" t="s">
-        <v>45</v>
       </c>
       <c r="X174" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:30">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C175">
         <v>700</v>
       </c>
@@ -5255,7 +5272,7 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P175" s="1">
         <v>0.36199999999999999</v>
@@ -5277,7 +5294,7 @@
         <v>3.2684284360189571</v>
       </c>
       <c r="V175" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W175" s="1">
         <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
@@ -5291,7 +5308,7 @@
       <c r="AC175" s="1"/>
       <c r="AD175" s="1"/>
     </row>
-    <row r="176" spans="1:30">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C176">
         <v>700</v>
       </c>
@@ -5329,7 +5346,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P176" s="1">
         <v>0.67300000000000004</v>
@@ -5351,7 +5368,7 @@
         <v>3.4568340852130328</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W176" s="1">
         <f t="shared" si="10"/>
@@ -5365,7 +5382,7 @@
       <c r="AC176" s="1"/>
       <c r="AD176" s="1"/>
     </row>
-    <row r="177" spans="3:30">
+    <row r="177" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C177">
         <v>700</v>
       </c>
@@ -5403,7 +5420,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P177" s="1">
         <v>1.296</v>
@@ -5425,7 +5442,7 @@
         <v>3.5918666666666663</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W177" s="1">
         <f t="shared" si="10"/>
@@ -5439,7 +5456,7 @@
       <c r="AC177" s="1"/>
       <c r="AD177" s="1"/>
     </row>
-    <row r="178" spans="3:30">
+    <row r="178" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C178">
         <v>700</v>
       </c>
@@ -5477,7 +5494,7 @@
         <v>1.506</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P178" s="1">
         <v>2.7850000000000001</v>
@@ -5499,7 +5516,7 @@
         <v>3.6634177954847282</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W178" s="1">
         <f t="shared" si="10"/>
@@ -5513,7 +5530,7 @@
       <c r="AC178" s="1"/>
       <c r="AD178" s="1"/>
     </row>
-    <row r="179" spans="3:30">
+    <row r="179" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C179">
         <v>341</v>
       </c>
@@ -5588,7 +5605,7 @@
       <c r="AC179" s="1"/>
       <c r="AD179" s="1"/>
     </row>
-    <row r="180" spans="3:30">
+    <row r="180" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C180">
         <v>341</v>
       </c>
@@ -5663,7 +5680,7 @@
       <c r="AC180" s="1"/>
       <c r="AD180" s="1"/>
     </row>
-    <row r="181" spans="3:30">
+    <row r="181" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C181">
         <v>341</v>
       </c>
@@ -5738,7 +5755,7 @@
       <c r="AC181" s="1"/>
       <c r="AD181" s="1"/>
     </row>
-    <row r="182" spans="3:30">
+    <row r="182" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C182">
         <v>341</v>
       </c>
@@ -5813,7 +5830,7 @@
       <c r="AC182" s="1"/>
       <c r="AD182" s="1"/>
     </row>
-    <row r="183" spans="3:30">
+    <row r="183" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C183">
         <v>480</v>
       </c>
@@ -5851,7 +5868,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P183" s="1">
         <v>0.751</v>
@@ -5873,7 +5890,7 @@
         <v>0.45565802575107295</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W183" s="1">
         <f t="shared" si="10"/>
@@ -5887,7 +5904,7 @@
       <c r="AC183" s="1"/>
       <c r="AD183" s="1"/>
     </row>
-    <row r="184" spans="3:30">
+    <row r="184" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C184">
         <v>240</v>
       </c>
@@ -5962,7 +5979,7 @@
       <c r="AC184" s="1"/>
       <c r="AD184" s="1"/>
     </row>
-    <row r="185" spans="3:30">
+    <row r="185" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C185">
         <v>120</v>
       </c>
@@ -6037,7 +6054,7 @@
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
     </row>
-    <row r="186" spans="3:30">
+    <row r="186" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C186">
         <v>60</v>
       </c>
@@ -6112,7 +6129,7 @@
       <c r="AC186" s="1"/>
       <c r="AD186" s="1"/>
     </row>
-    <row r="187" spans="3:30">
+    <row r="187" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C187">
         <v>108</v>
       </c>
@@ -6150,7 +6167,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P187" s="1">
         <v>0.17499999999999999</v>
@@ -6172,7 +6189,7 @@
         <v>1.3216650491803279</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W187" s="1">
         <f t="shared" si="10"/>
@@ -6186,7 +6203,7 @@
       <c r="AC187" s="1"/>
       <c r="AD187" s="1"/>
     </row>
-    <row r="188" spans="3:30">
+    <row r="188" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C188">
         <v>54</v>
       </c>
@@ -6261,7 +6278,7 @@
       <c r="AC188" s="1"/>
       <c r="AD188" s="1"/>
     </row>
-    <row r="189" spans="3:30">
+    <row r="189" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C189">
         <v>27</v>
       </c>
@@ -6336,7 +6353,7 @@
       <c r="AC189" s="1"/>
       <c r="AD189" s="1"/>
     </row>
-    <row r="190" spans="3:30">
+    <row r="190" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C190">
         <v>14</v>
       </c>
@@ -6411,7 +6428,7 @@
       <c r="AC190" s="1"/>
       <c r="AD190" s="1"/>
     </row>
-    <row r="191" spans="3:30">
+    <row r="191" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C191">
         <v>7</v>
       </c>
@@ -6486,7 +6503,7 @@
       <c r="AC191" s="1"/>
       <c r="AD191" s="1"/>
     </row>
-    <row r="192" spans="3:30">
+    <row r="192" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C192">
         <v>224</v>
       </c>
@@ -6524,7 +6541,7 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P192" s="1">
         <v>1.899</v>
@@ -6546,7 +6563,7 @@
         <v>2.0613165646359581</v>
       </c>
       <c r="V192" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W192" s="1">
         <f t="shared" si="10"/>
@@ -6560,7 +6577,7 @@
       <c r="AC192" s="1"/>
       <c r="AD192" s="1"/>
     </row>
-    <row r="193" spans="3:30">
+    <row r="193" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C193">
         <v>112</v>
       </c>
@@ -6635,7 +6652,7 @@
       <c r="AC193" s="1"/>
       <c r="AD193" s="1"/>
     </row>
-    <row r="194" spans="3:30">
+    <row r="194" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C194">
         <f>112/2</f>
         <v>56</v>
@@ -6711,7 +6728,7 @@
       <c r="AC194" s="1"/>
       <c r="AD194" s="1"/>
     </row>
-    <row r="195" spans="3:30">
+    <row r="195" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C195">
         <f>56/2</f>
         <v>28</v>
@@ -6787,7 +6804,7 @@
       <c r="AC195" s="1"/>
       <c r="AD195" s="1"/>
     </row>
-    <row r="196" spans="3:30">
+    <row r="196" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C196">
         <v>14</v>
       </c>
@@ -6862,7 +6879,7 @@
       <c r="AC196" s="1"/>
       <c r="AD196" s="1"/>
     </row>
-    <row r="197" spans="3:30">
+    <row r="197" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C197">
         <v>7</v>
       </c>
@@ -6937,7 +6954,7 @@
       <c r="AC197" s="1"/>
       <c r="AD197" s="1"/>
     </row>
-    <row r="198" spans="3:30">
+    <row r="198" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C198">
         <v>224</v>
       </c>
@@ -6975,7 +6992,7 @@
         <v>1.3169999999999999</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P198" s="1">
         <v>3.665</v>
@@ -6997,7 +7014,7 @@
         <v>2.1067062232346241</v>
       </c>
       <c r="V198" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W198" s="1">
         <f t="shared" si="10"/>
@@ -7011,7 +7028,7 @@
       <c r="AC198" s="1"/>
       <c r="AD198" s="1"/>
     </row>
-    <row r="199" spans="3:30">
+    <row r="199" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C199">
         <v>112</v>
       </c>
@@ -7086,7 +7103,7 @@
       <c r="AC199" s="1"/>
       <c r="AD199" s="1"/>
     </row>
-    <row r="200" spans="3:30">
+    <row r="200" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C200">
         <f>112/2</f>
         <v>56</v>
@@ -7162,7 +7179,7 @@
       <c r="AC200" s="1"/>
       <c r="AD200" s="1"/>
     </row>
-    <row r="201" spans="3:30">
+    <row r="201" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C201">
         <f>56/2</f>
         <v>28</v>
@@ -7238,7 +7255,7 @@
       <c r="AC201" s="1"/>
       <c r="AD201" s="1"/>
     </row>
-    <row r="202" spans="3:30">
+    <row r="202" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C202">
         <v>14</v>
       </c>
@@ -7313,7 +7330,7 @@
       <c r="AC202" s="1"/>
       <c r="AD202" s="1"/>
     </row>
-    <row r="203" spans="3:30">
+    <row r="203" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C203">
         <v>7</v>
       </c>
@@ -7388,7 +7405,7 @@
       <c r="AC203" s="1"/>
       <c r="AD203" s="1"/>
     </row>
-    <row r="204" spans="3:30">
+    <row r="204" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C204">
         <v>224</v>
       </c>
@@ -7426,7 +7443,7 @@
         <v>1.016</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P204" s="1">
         <v>2.2530000000000001</v>
@@ -7448,7 +7465,7 @@
         <v>3.7169748661417326</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W204" s="1">
         <f t="shared" si="10"/>
@@ -7462,7 +7479,7 @@
       <c r="AC204" s="1"/>
       <c r="AD204" s="1"/>
     </row>
-    <row r="205" spans="3:30">
+    <row r="205" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C205">
         <v>28</v>
       </c>
@@ -7537,7 +7554,7 @@
       <c r="AC205" s="1"/>
       <c r="AD205" s="1"/>
     </row>
-    <row r="206" spans="3:30">
+    <row r="206" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C206">
         <v>28</v>
       </c>
@@ -7612,7 +7629,7 @@
       <c r="AC206" s="1"/>
       <c r="AD206" s="1"/>
     </row>
-    <row r="207" spans="3:30">
+    <row r="207" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C207">
         <v>14</v>
       </c>
@@ -7687,7 +7704,7 @@
       <c r="AC207" s="1"/>
       <c r="AD207" s="1"/>
     </row>
-    <row r="208" spans="3:30">
+    <row r="208" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C208">
         <v>14</v>
       </c>
@@ -7762,7 +7779,7 @@
       <c r="AC208" s="1"/>
       <c r="AD208" s="1"/>
     </row>
-    <row r="209" spans="2:30">
+    <row r="209" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C209">
         <v>7</v>
       </c>
@@ -7837,7 +7854,7 @@
       <c r="AC209" s="1"/>
       <c r="AD209" s="1"/>
     </row>
-    <row r="210" spans="2:30">
+    <row r="210" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C210">
         <v>7</v>
       </c>
@@ -7912,7 +7929,7 @@
       <c r="AC210" s="1"/>
       <c r="AD210" s="1"/>
     </row>
-    <row r="211" spans="2:30">
+    <row r="211" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C211">
         <v>56</v>
       </c>
@@ -7987,7 +8004,7 @@
       <c r="AC211" s="1"/>
       <c r="AD211" s="1"/>
     </row>
-    <row r="212" spans="2:30">
+    <row r="212" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C212">
         <v>56</v>
       </c>
@@ -8062,7 +8079,7 @@
       <c r="AC212" s="1"/>
       <c r="AD212" s="1"/>
     </row>
-    <row r="213" spans="2:30">
+    <row r="213" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C213">
         <v>28</v>
       </c>
@@ -8137,7 +8154,7 @@
       <c r="AC213" s="1"/>
       <c r="AD213" s="1"/>
     </row>
-    <row r="214" spans="2:30">
+    <row r="214" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B214" s="2"/>
       <c r="C214" s="2">
         <v>28</v>
@@ -8213,7 +8230,7 @@
       <c r="AC214" s="1"/>
       <c r="AD214" s="1"/>
     </row>
-    <row r="215" spans="2:30">
+    <row r="215" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C215">
         <v>14</v>
       </c>
@@ -8288,7 +8305,7 @@
       <c r="AC215" s="1"/>
       <c r="AD215" s="1"/>
     </row>
-    <row r="216" spans="2:30">
+    <row r="216" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C216">
         <v>14</v>
       </c>
@@ -8363,7 +8380,7 @@
       <c r="AC216" s="1"/>
       <c r="AD216" s="1"/>
     </row>
-    <row r="217" spans="2:30">
+    <row r="217" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B217" s="2"/>
       <c r="C217" s="2">
         <v>14</v>
@@ -8439,7 +8456,7 @@
       <c r="AC217" s="1"/>
       <c r="AD217" s="1"/>
     </row>
-    <row r="218" spans="2:30">
+    <row r="218" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B218" s="2"/>
       <c r="C218">
         <v>7</v>
@@ -8515,7 +8532,7 @@
       <c r="AC218" s="1"/>
       <c r="AD218" s="1"/>
     </row>
-    <row r="219" spans="2:30">
+    <row r="219" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B219" s="2"/>
       <c r="C219">
         <v>7</v>
@@ -8591,7 +8608,7 @@
       <c r="AC219" s="1"/>
       <c r="AD219" s="1"/>
     </row>
-    <row r="220" spans="2:30">
+    <row r="220" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C220">
         <v>56</v>
       </c>
@@ -8666,7 +8683,7 @@
       <c r="AC220" s="1"/>
       <c r="AD220" s="1"/>
     </row>
-    <row r="221" spans="2:30">
+    <row r="221" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C221">
         <v>56</v>
       </c>
@@ -8741,7 +8758,7 @@
       <c r="AC221" s="1"/>
       <c r="AD221" s="1"/>
     </row>
-    <row r="222" spans="2:30">
+    <row r="222" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C222">
         <v>28</v>
       </c>
@@ -8816,7 +8833,7 @@
       <c r="AC222" s="1"/>
       <c r="AD222" s="1"/>
     </row>
-    <row r="223" spans="2:30">
+    <row r="223" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C223" s="2">
         <v>28</v>
       </c>
@@ -8884,14 +8901,14 @@
         <v>1.835008</v>
       </c>
       <c r="X223" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
       <c r="AD223" s="1"/>
     </row>
-    <row r="224" spans="2:30">
+    <row r="224" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B224" s="2"/>
       <c r="C224">
         <v>14</v>
@@ -8967,7 +8984,7 @@
       <c r="AC224" s="1"/>
       <c r="AD224" s="1"/>
     </row>
-    <row r="225" spans="2:30">
+    <row r="225" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C225">
         <v>14</v>
       </c>
@@ -9042,7 +9059,7 @@
       <c r="AC225" s="1"/>
       <c r="AD225" s="1"/>
     </row>
-    <row r="226" spans="2:30">
+    <row r="226" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C226" s="2">
         <v>14</v>
       </c>
@@ -9117,7 +9134,7 @@
       <c r="AC226" s="1"/>
       <c r="AD226" s="1"/>
     </row>
-    <row r="227" spans="2:30">
+    <row r="227" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B227" s="2"/>
       <c r="C227">
         <v>7</v>
@@ -9193,7 +9210,7 @@
       <c r="AC227" s="1"/>
       <c r="AD227" s="1"/>
     </row>
-    <row r="228" spans="2:30">
+    <row r="228" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B228" s="2"/>
       <c r="C228">
         <v>7</v>
@@ -9269,7 +9286,7 @@
       <c r="AC228" s="1"/>
       <c r="AD228" s="1"/>
     </row>
-    <row r="229" spans="2:30">
+    <row r="229" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B229" s="2"/>
       <c r="C229">
         <v>700</v>
@@ -9308,7 +9325,7 @@
         <v>0.72</v>
       </c>
       <c r="O229" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="P229">
         <v>2.11</v>
@@ -9330,7 +9347,7 @@
         <v>1.9854222222222224</v>
       </c>
       <c r="V229" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W229" s="1">
         <f t="shared" si="21"/>
@@ -9344,7 +9361,7 @@
       <c r="AC229" s="1"/>
       <c r="AD229" s="1"/>
     </row>
-    <row r="230" spans="2:30">
+    <row r="230" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B230" s="2"/>
       <c r="C230">
         <v>350</v>
@@ -9420,7 +9437,7 @@
       <c r="AC230" s="1"/>
       <c r="AD230" s="1"/>
     </row>
-    <row r="231" spans="2:30">
+    <row r="231" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B231" s="2"/>
       <c r="C231">
         <v>350</v>
@@ -9496,7 +9513,7 @@
       <c r="AC231" s="1"/>
       <c r="AD231" s="1"/>
     </row>
-    <row r="232" spans="2:30">
+    <row r="232" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B232" s="2"/>
       <c r="C232">
         <v>175</v>
@@ -9565,14 +9582,14 @@
         <v>4.4689682045731303</v>
       </c>
       <c r="X232" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
       <c r="AD232" s="1"/>
     </row>
-    <row r="233" spans="2:30">
+    <row r="233" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B233" s="2"/>
       <c r="C233">
         <v>175</v>
@@ -9648,7 +9665,7 @@
       <c r="AC233" s="1"/>
       <c r="AD233" s="1"/>
     </row>
-    <row r="234" spans="2:30">
+    <row r="234" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B234" s="2"/>
       <c r="C234">
         <v>84</v>
@@ -9717,14 +9734,14 @@
         <v>5.0483901034867058</v>
       </c>
       <c r="X234" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
       <c r="AD234" s="1"/>
     </row>
-    <row r="235" spans="2:30">
+    <row r="235" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B235" s="2"/>
       <c r="C235">
         <v>84</v>
@@ -9800,7 +9817,7 @@
       <c r="AC235" s="1"/>
       <c r="AD235" s="1"/>
     </row>
-    <row r="236" spans="2:30">
+    <row r="236" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B236" s="2"/>
       <c r="C236">
         <v>42</v>
@@ -9869,14 +9886,14 @@
         <v>10.907787492260063</v>
       </c>
       <c r="X236" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
       <c r="AD236" s="1"/>
     </row>
-    <row r="237" spans="2:30">
+    <row r="237" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B237" s="2"/>
       <c r="C237">
         <v>112</v>
@@ -9952,7 +9969,7 @@
       <c r="AC237" s="1"/>
       <c r="AD237" s="1"/>
     </row>
-    <row r="238" spans="2:30">
+    <row r="238" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B238" s="2"/>
       <c r="C238">
         <v>56</v>
@@ -10028,7 +10045,7 @@
       <c r="AC238" s="1"/>
       <c r="AD238" s="1"/>
     </row>
-    <row r="239" spans="2:30">
+    <row r="239" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B239" s="2"/>
       <c r="C239">
         <v>56</v>
@@ -10104,7 +10121,7 @@
       <c r="AC239" s="1"/>
       <c r="AD239" s="1"/>
     </row>
-    <row r="240" spans="2:30">
+    <row r="240" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B240" s="2"/>
       <c r="C240">
         <v>56</v>
@@ -10180,7 +10197,7 @@
       <c r="AC240" s="1"/>
       <c r="AD240" s="1"/>
     </row>
-    <row r="241" spans="2:30">
+    <row r="241" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B241" s="2"/>
       <c r="C241" s="2">
         <v>28</v>
@@ -10256,7 +10273,7 @@
       <c r="AC241" s="1"/>
       <c r="AD241" s="1"/>
     </row>
-    <row r="242" spans="2:30">
+    <row r="242" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B242" s="2"/>
       <c r="C242" s="2">
         <v>28</v>
@@ -10332,7 +10349,7 @@
       <c r="AC242" s="1"/>
       <c r="AD242" s="1"/>
     </row>
-    <row r="243" spans="2:30">
+    <row r="243" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B243" s="2"/>
       <c r="C243" s="2">
         <v>28</v>
@@ -10408,7 +10425,7 @@
       <c r="AC243" s="1"/>
       <c r="AD243" s="1"/>
     </row>
-    <row r="244" spans="2:30">
+    <row r="244" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B244" s="2"/>
       <c r="C244" s="2">
         <v>14</v>
@@ -10484,7 +10501,7 @@
       <c r="AC244" s="1"/>
       <c r="AD244" s="1"/>
     </row>
-    <row r="245" spans="2:30">
+    <row r="245" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B245" s="2"/>
       <c r="C245" s="2">
         <v>28</v>
@@ -10560,7 +10577,7 @@
       <c r="AC245" s="1"/>
       <c r="AD245" s="1"/>
     </row>
-    <row r="246" spans="2:30">
+    <row r="246" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B246" s="2"/>
       <c r="C246" s="2">
         <v>14</v>
@@ -10636,7 +10653,7 @@
       <c r="AC246" s="1"/>
       <c r="AD246" s="1"/>
     </row>
-    <row r="247" spans="2:30">
+    <row r="247" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B247" s="2"/>
       <c r="C247" s="2">
         <v>14</v>
@@ -10712,7 +10729,7 @@
       <c r="AC247" s="1"/>
       <c r="AD247" s="1"/>
     </row>
-    <row r="248" spans="2:30">
+    <row r="248" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B248" s="2"/>
       <c r="C248" s="2">
         <v>14</v>
@@ -10788,7 +10805,7 @@
       <c r="AC248" s="1"/>
       <c r="AD248" s="1"/>
     </row>
-    <row r="249" spans="2:30">
+    <row r="249" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B249" s="2"/>
       <c r="C249" s="2">
         <v>7</v>
@@ -10864,7 +10881,7 @@
       <c r="AC249" s="1"/>
       <c r="AD249" s="1"/>
     </row>
-    <row r="250" spans="2:30">
+    <row r="250" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B250" s="2"/>
       <c r="C250" s="2">
         <v>7</v>
@@ -10940,7 +10957,7 @@
       <c r="AC250" s="1"/>
       <c r="AD250" s="1"/>
     </row>
-    <row r="251" spans="2:30">
+    <row r="251" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B251" s="2"/>
       <c r="C251" s="2">
         <v>14</v>
@@ -11016,7 +11033,7 @@
       <c r="AC251" s="1"/>
       <c r="AD251" s="1"/>
     </row>
-    <row r="252" spans="2:30">
+    <row r="252" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B252" s="2"/>
       <c r="C252" s="2">
         <v>7</v>
@@ -11092,7 +11109,7 @@
       <c r="AC252" s="1"/>
       <c r="AD252" s="1"/>
     </row>
-    <row r="253" spans="2:30">
+    <row r="253" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B253" s="2"/>
       <c r="C253">
         <v>112</v>
@@ -11168,7 +11185,7 @@
       <c r="AC253" s="1"/>
       <c r="AD253" s="1"/>
     </row>
-    <row r="254" spans="2:30">
+    <row r="254" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B254" s="2"/>
       <c r="C254">
         <v>56</v>
@@ -11244,7 +11261,7 @@
       <c r="AC254" s="1"/>
       <c r="AD254" s="1"/>
     </row>
-    <row r="255" spans="2:30">
+    <row r="255" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B255" s="2"/>
       <c r="C255">
         <v>56</v>
@@ -11320,7 +11337,7 @@
       <c r="AC255" s="1"/>
       <c r="AD255" s="1"/>
     </row>
-    <row r="256" spans="2:30">
+    <row r="256" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B256" s="2"/>
       <c r="C256">
         <v>56</v>
@@ -11396,7 +11413,7 @@
       <c r="AC256" s="1"/>
       <c r="AD256" s="1"/>
     </row>
-    <row r="257" spans="2:30">
+    <row r="257" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B257" s="2"/>
       <c r="C257" s="2">
         <v>28</v>
@@ -11472,7 +11489,7 @@
       <c r="AC257" s="1"/>
       <c r="AD257" s="1"/>
     </row>
-    <row r="258" spans="2:30">
+    <row r="258" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B258" s="2"/>
       <c r="C258" s="2">
         <v>28</v>
@@ -11548,7 +11565,7 @@
       <c r="AC258" s="1"/>
       <c r="AD258" s="1"/>
     </row>
-    <row r="259" spans="2:30">
+    <row r="259" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B259" s="2"/>
       <c r="C259" s="2">
         <v>28</v>
@@ -11624,7 +11641,7 @@
       <c r="AC259" s="1"/>
       <c r="AD259" s="1"/>
     </row>
-    <row r="260" spans="2:30">
+    <row r="260" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B260" s="2"/>
       <c r="C260" s="2">
         <v>14</v>
@@ -11700,7 +11717,7 @@
       <c r="AC260" s="1"/>
       <c r="AD260" s="1"/>
     </row>
-    <row r="261" spans="2:30">
+    <row r="261" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B261" s="2"/>
       <c r="C261" s="2">
         <v>28</v>
@@ -11776,7 +11793,7 @@
       <c r="AC261" s="1"/>
       <c r="AD261" s="1"/>
     </row>
-    <row r="262" spans="2:30">
+    <row r="262" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B262" s="2"/>
       <c r="C262" s="2">
         <v>14</v>
@@ -11852,7 +11869,7 @@
       <c r="AC262" s="1"/>
       <c r="AD262" s="1"/>
     </row>
-    <row r="263" spans="2:30">
+    <row r="263" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B263" s="2"/>
       <c r="C263" s="2">
         <v>14</v>
@@ -11928,7 +11945,7 @@
       <c r="AC263" s="1"/>
       <c r="AD263" s="1"/>
     </row>
-    <row r="264" spans="2:30">
+    <row r="264" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B264" s="2"/>
       <c r="C264" s="2">
         <v>14</v>
@@ -12004,7 +12021,7 @@
       <c r="AC264" s="1"/>
       <c r="AD264" s="1"/>
     </row>
-    <row r="265" spans="2:30">
+    <row r="265" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B265" s="2"/>
       <c r="C265" s="2">
         <v>7</v>
@@ -12080,7 +12097,7 @@
       <c r="AC265" s="1"/>
       <c r="AD265" s="1"/>
     </row>
-    <row r="266" spans="2:30">
+    <row r="266" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B266" s="2"/>
       <c r="C266" s="2">
         <v>7</v>
@@ -12156,7 +12173,7 @@
       <c r="AC266" s="1"/>
       <c r="AD266" s="1"/>
     </row>
-    <row r="267" spans="2:30">
+    <row r="267" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B267" s="2"/>
       <c r="C267" s="2">
         <v>14</v>
@@ -12232,7 +12249,7 @@
       <c r="AC267" s="1"/>
       <c r="AD267" s="1"/>
     </row>
-    <row r="268" spans="2:30">
+    <row r="268" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B268" s="2"/>
       <c r="C268" s="2">
         <v>7</v>
@@ -12308,12 +12325,12 @@
       <c r="AC268" s="1"/>
       <c r="AD268" s="1"/>
     </row>
-    <row r="271" spans="2:30">
+    <row r="271" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -12333,13 +12350,13 @@
         <v>25</v>
       </c>
       <c r="I273" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J273" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C275">
         <v>1760</v>
       </c>
@@ -12364,7 +12381,7 @@
         <v>0.66544536912751673</v>
       </c>
     </row>
-    <row r="276" spans="1:10">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C276">
         <v>1760</v>
       </c>
@@ -12389,7 +12406,7 @@
         <v>0.99699708396178977</v>
       </c>
     </row>
-    <row r="277" spans="1:10">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C277">
         <v>1760</v>
       </c>
@@ -12414,7 +12431,7 @@
         <v>1.5538530010970066</v>
       </c>
     </row>
-    <row r="278" spans="1:10">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C278">
         <v>1760</v>
       </c>
@@ -12439,7 +12456,7 @@
         <v>2.4792488591610926</v>
       </c>
     </row>
-    <row r="279" spans="1:10">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C279">
         <v>2048</v>
       </c>
@@ -12464,7 +12481,7 @@
         <v>0.81512140862173654</v>
       </c>
     </row>
-    <row r="280" spans="1:10">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C280">
         <v>2048</v>
       </c>
@@ -12489,7 +12506,7 @@
         <v>1.5247075070982394</v>
       </c>
     </row>
-    <row r="281" spans="1:10">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C281">
         <v>2048</v>
       </c>
@@ -12514,7 +12531,7 @@
         <v>2.2843371788327378</v>
       </c>
     </row>
-    <row r="282" spans="1:10">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C282">
         <v>2048</v>
       </c>
@@ -12539,7 +12556,7 @@
         <v>2.9928216240316559</v>
       </c>
     </row>
-    <row r="283" spans="1:10">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C283">
         <v>2560</v>
       </c>
@@ -12564,7 +12581,7 @@
         <v>0.83402051689860834</v>
       </c>
     </row>
-    <row r="284" spans="1:10">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C284">
         <v>2560</v>
       </c>
@@ -12589,7 +12606,7 @@
         <v>1.87466404504424</v>
       </c>
     </row>
-    <row r="285" spans="1:10">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C285">
         <v>2560</v>
       </c>
@@ -12614,7 +12631,7 @@
         <v>2.722161572902472</v>
       </c>
     </row>
-    <row r="286" spans="1:10">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C286">
         <v>2560</v>
       </c>
@@ -12639,10 +12656,10 @@
         <v>3.2874564689287675</v>
       </c>
     </row>
-    <row r="288" spans="1:10">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I288" s="3"/>
     </row>
-    <row r="290" spans="1:10">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>26</v>
       </c>
@@ -12662,13 +12679,13 @@
         <v>28</v>
       </c>
       <c r="I290" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J290" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C291">
         <v>512</v>
       </c>
@@ -12693,7 +12710,7 @@
         <v>0.27603185258308655</v>
       </c>
     </row>
-    <row r="292" spans="1:10">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C292">
         <v>512</v>
       </c>
@@ -12718,7 +12735,7 @@
         <v>0.52874932240781591</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C293">
         <v>512</v>
       </c>
@@ -12743,7 +12760,7 @@
         <v>0.85120324708269912</v>
       </c>
     </row>
-    <row r="294" spans="1:10">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C294">
         <v>512</v>
       </c>
@@ -12768,7 +12785,7 @@
         <v>0.94960894297438792</v>
       </c>
     </row>
-    <row r="295" spans="1:10">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C295">
         <v>1024</v>
       </c>
@@ -12793,7 +12810,7 @@
         <v>0.63489937559129617</v>
       </c>
     </row>
-    <row r="296" spans="1:10">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C296">
         <v>1024</v>
       </c>
@@ -12818,7 +12835,7 @@
         <v>0.54133148342340887</v>
       </c>
     </row>
-    <row r="297" spans="1:10">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C297">
         <v>1024</v>
       </c>
@@ -12843,7 +12860,7 @@
         <v>0.92005571702769406</v>
       </c>
     </row>
-    <row r="298" spans="1:10">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C298">
         <v>1024</v>
       </c>
@@ -12868,7 +12885,7 @@
         <v>2.798243052225581</v>
       </c>
     </row>
-    <row r="299" spans="1:10">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C299">
         <v>2048</v>
       </c>
@@ -12893,7 +12910,7 @@
         <v>1.0577486641973362</v>
       </c>
     </row>
-    <row r="300" spans="1:10">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C300">
         <v>2048</v>
       </c>
@@ -12918,7 +12935,7 @@
         <v>2.345643621111499</v>
       </c>
     </row>
-    <row r="301" spans="1:10">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C301">
         <v>2048</v>
       </c>
@@ -12943,7 +12960,7 @@
         <v>3.3103398199531386</v>
       </c>
     </row>
-    <row r="302" spans="1:10">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C302">
         <v>2048</v>
       </c>
@@ -12968,7 +12985,7 @@
         <v>3.4833473609083541</v>
       </c>
     </row>
-    <row r="303" spans="1:10">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C303">
         <v>4096</v>
       </c>
@@ -12993,7 +13010,7 @@
         <v>0.95840711212667573</v>
       </c>
     </row>
-    <row r="304" spans="1:10">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C304">
         <v>4096</v>
       </c>
@@ -13018,7 +13035,7 @@
         <v>2.7991913866367732</v>
       </c>
     </row>
-    <row r="305" spans="1:10">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C305">
         <v>4096</v>
       </c>
@@ -13043,7 +13060,7 @@
         <v>3.7917290204110454</v>
       </c>
     </row>
-    <row r="306" spans="1:10">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C306">
         <v>4096</v>
       </c>
@@ -13068,7 +13085,7 @@
         <v>3.8282295493439826</v>
       </c>
     </row>
-    <row r="307" spans="1:10">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C307">
         <v>1536</v>
       </c>
@@ -13093,7 +13110,7 @@
         <v>0.61903469990160709</v>
       </c>
     </row>
-    <row r="308" spans="1:10">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C308">
         <v>1536</v>
       </c>
@@ -13118,7 +13135,7 @@
         <v>1.1082197724770642</v>
       </c>
     </row>
-    <row r="309" spans="1:10">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C309">
         <v>1536</v>
       </c>
@@ -13143,7 +13160,7 @@
         <v>1.9561464438398755</v>
       </c>
     </row>
-    <row r="310" spans="1:10">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C310">
         <v>256</v>
       </c>
@@ -13168,7 +13185,7 @@
         <v>0.11551374277058661</v>
       </c>
     </row>
-    <row r="311" spans="1:10">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C311">
         <v>256</v>
       </c>
@@ -13193,7 +13210,7 @@
         <v>0.215019002050581</v>
       </c>
     </row>
-    <row r="312" spans="1:10">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C312">
         <v>256</v>
       </c>
@@ -13218,12 +13235,12 @@
         <v>0.38465149407718757</v>
       </c>
     </row>
-    <row r="315" spans="1:10">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C315" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
@@ -13238,13 +13255,13 @@
         <v>28</v>
       </c>
       <c r="I315" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J315" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C316">
         <v>2816</v>
       </c>
@@ -13269,7 +13286,7 @@
         <v>3.0860265632495323</v>
       </c>
     </row>
-    <row r="317" spans="1:10">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C317">
         <v>2816</v>
       </c>
@@ -13294,7 +13311,7 @@
         <v>3.064777351927598</v>
       </c>
     </row>
-    <row r="318" spans="1:10">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C318">
         <v>2816</v>
       </c>
@@ -13319,7 +13336,7 @@
         <v>3.0457956949667921</v>
       </c>
     </row>
-    <row r="319" spans="1:10">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C319">
         <v>2816</v>
       </c>
@@ -13344,7 +13361,7 @@
         <v>3.0183354870664063</v>
       </c>
     </row>
-    <row r="320" spans="1:10">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C320">
         <v>2048</v>
       </c>
@@ -13369,7 +13386,7 @@
         <v>2.440618159776943</v>
       </c>
     </row>
-    <row r="321" spans="3:10">
+    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C321">
         <v>2048</v>
       </c>
@@ -13394,7 +13411,7 @@
         <v>2.4156871980289889</v>
       </c>
     </row>
-    <row r="322" spans="3:10">
+    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C322">
         <v>2048</v>
       </c>
@@ -13419,7 +13436,7 @@
         <v>2.3905600430631861</v>
       </c>
     </row>
-    <row r="323" spans="3:10">
+    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C323">
         <v>2048</v>
       </c>
@@ -13444,7 +13461,7 @@
         <v>2.3459300985465705</v>
       </c>
     </row>
-    <row r="324" spans="3:10">
+    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C324">
         <v>1536</v>
       </c>
@@ -13469,7 +13486,7 @@
         <v>1.9296807272541385</v>
       </c>
     </row>
-    <row r="325" spans="3:10">
+    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C325">
         <v>1536</v>
       </c>
@@ -13494,7 +13511,7 @@
         <v>1.9135460730861082</v>
       </c>
     </row>
-    <row r="326" spans="3:10">
+    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C326">
         <v>1536</v>
       </c>
@@ -13519,7 +13536,7 @@
         <v>1.8744406779661018</v>
       </c>
     </row>
-    <row r="327" spans="3:10">
+    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C327">
         <v>1536</v>
       </c>
@@ -13544,7 +13561,7 @@
         <v>1.8042975970009369</v>
       </c>
     </row>
-    <row r="328" spans="3:10">
+    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C328">
         <v>2560</v>
       </c>
@@ -13569,7 +13586,7 @@
         <v>2.8212638489455966</v>
       </c>
     </row>
-    <row r="329" spans="3:10">
+    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C329">
         <v>2560</v>
       </c>
@@ -13594,7 +13611,7 @@
         <v>2.8100070866657538</v>
       </c>
     </row>
-    <row r="330" spans="3:10">
+    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C330">
         <v>2560</v>
       </c>
@@ -13619,7 +13636,7 @@
         <v>2.7851446110258529</v>
       </c>
     </row>
-    <row r="331" spans="3:10">
+    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C331">
         <v>2560</v>
       </c>
@@ -13644,7 +13661,7 @@
         <v>2.7353838527801351</v>
       </c>
     </row>
-    <row r="332" spans="3:10">
+    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C332">
         <v>512</v>
       </c>
@@ -13669,7 +13686,7 @@
         <v>0.51358824489795907</v>
       </c>
     </row>
-    <row r="333" spans="3:10">
+    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C333">
         <v>1024</v>
       </c>
@@ -13694,7 +13711,7 @@
         <v>0.97685515858254213</v>
       </c>
     </row>
-    <row r="334" spans="3:10">
+    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C334">
         <v>1024</v>
       </c>
@@ -13719,22 +13736,22 @@
         <v>1.2336843378120568</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="L339" s="3">
         <f>1000/(SUM(U175:U210))</f>
         <v>7.0430868729944143</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I341" s="3"/>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="K342" s="1"/>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>29</v>
       </c>
@@ -13745,19 +13762,19 @@
         <v>31</v>
       </c>
       <c r="G343" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I343" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J343" t="s">
         <v>32</v>
       </c>
       <c r="K343" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="345" spans="1:15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C345">
         <v>100000</v>
       </c>
@@ -13765,24 +13782,23 @@
         <v>2</v>
       </c>
       <c r="G345" s="1">
-        <v>6.6979999999999998E-2</v>
+        <v>0.10887105000000001</v>
       </c>
       <c r="H345" s="1"/>
       <c r="I345" s="1">
-        <f>C345*4*D345/(G345/1000)/10^9</f>
-        <v>11.943863839952225</v>
+        <v>7.3481425962181852</v>
       </c>
       <c r="J345" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K345" s="1">
-        <v>1.0097524449099999E-3</v>
+        <v>1.3804178419670817E-3</v>
       </c>
       <c r="L345" s="10"/>
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C346">
         <v>100000</v>
       </c>
@@ -13790,24 +13806,23 @@
         <v>4</v>
       </c>
       <c r="G346" s="1">
-        <v>0.111649122807</v>
+        <v>0.17607199999999998</v>
       </c>
       <c r="H346" s="1"/>
       <c r="I346" s="1">
-        <f t="shared" ref="I346:I369" si="33">C346*4*D346/(G346/1000)/10^9</f>
-        <v>14.330609679449141</v>
+        <v>9.0871916034349596</v>
       </c>
       <c r="J346" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K346" s="1">
-        <v>1.4807682699000001E-3</v>
+        <v>3.1078821186071208E-3</v>
       </c>
       <c r="L346" s="10"/>
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C347">
         <v>100000</v>
       </c>
@@ -13815,24 +13830,23 @@
         <v>8</v>
       </c>
       <c r="G347" s="1">
-        <v>0.26722000000000001</v>
+        <v>0.25154819999999989</v>
       </c>
       <c r="H347" s="1"/>
       <c r="I347" s="1">
-        <f t="shared" si="33"/>
-        <v>11.975151560511936</v>
+        <v>12.721220028606849</v>
       </c>
       <c r="J347" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K347" s="1">
-        <v>5.7351198766899996E-3</v>
+        <v>2.2250778720849518E-3</v>
       </c>
       <c r="L347" s="10"/>
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C348">
         <v>100000</v>
       </c>
@@ -13843,21 +13857,21 @@
         <v>2</v>
       </c>
       <c r="G348" s="1">
-        <v>0.56442119999999996</v>
-      </c>
+        <v>0.44909309999999991</v>
+      </c>
+      <c r="H348" s="1"/>
       <c r="I348" s="1">
-        <f t="shared" si="33"/>
-        <v>11.33904963172893</v>
+        <v>14.250942621919602</v>
       </c>
       <c r="J348" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="K348" s="1">
-        <v>5.1821745884900003E-2</v>
+        <v>2.6766395054443302E-3</v>
       </c>
       <c r="L348" s="10"/>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C349">
         <v>100000</v>
       </c>
@@ -13868,21 +13882,21 @@
         <v>4</v>
       </c>
       <c r="G349" s="1">
-        <v>0.73854220000000004</v>
-      </c>
+        <v>0.75843590000000005</v>
+      </c>
+      <c r="H349" s="1"/>
       <c r="I349" s="1">
-        <f t="shared" si="33"/>
-        <v>17.331440234559377</v>
+        <v>16.876838240383925</v>
       </c>
       <c r="J349" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="K349" s="1">
-        <v>2.53004000988E-2</v>
+        <v>2.3317675197606046E-2</v>
       </c>
       <c r="L349" s="10"/>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C350">
         <v>3097600</v>
       </c>
@@ -13890,76 +13904,71 @@
         <v>2</v>
       </c>
       <c r="G350" s="1">
-        <v>1.1003000000000001</v>
+        <v>2.0044619999999997</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1">
-        <f t="shared" si="33"/>
-        <v>22.521857675179497</v>
+        <v>12.362818551810911</v>
       </c>
       <c r="J350" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K350" s="1">
-        <v>3.33616546352E-3</v>
+        <v>1.6285583744365367E-2</v>
       </c>
       <c r="L350" s="10"/>
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C351">
-        <f>1760*1760</f>
         <v>3097600</v>
       </c>
       <c r="D351">
         <v>4</v>
       </c>
       <c r="G351" s="1">
-        <v>2.0490701754399998</v>
+        <v>3.0853074999999999</v>
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1">
-        <f t="shared" si="33"/>
-        <v>24.187360976720854</v>
+        <v>16.06374729261184</v>
       </c>
       <c r="J351" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K351" s="1">
-        <v>6.0146820364799999E-3</v>
+        <v>8.2917326454220504E-3</v>
       </c>
       <c r="L351" s="10"/>
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C352">
-        <f>1760*1760</f>
         <v>3097600</v>
       </c>
       <c r="D352">
         <v>8</v>
       </c>
       <c r="G352" s="1">
-        <v>4.0845200000000004</v>
+        <v>3.6251909999999996</v>
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1">
-        <f t="shared" si="33"/>
-        <v>24.268016804912204</v>
+        <v>27.342890347018962</v>
       </c>
       <c r="J352" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K352" s="1">
-        <v>4.0627694987499997E-2</v>
+        <v>4.1017158155556071E-3</v>
       </c>
       <c r="L352" s="10"/>
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
     </row>
-    <row r="353" spans="3:15">
+    <row r="353" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C353">
         <v>3097600</v>
       </c>
@@ -13970,21 +13979,21 @@
         <v>2</v>
       </c>
       <c r="G353" s="1">
-        <v>18.420000000000002</v>
-      </c>
+        <v>5.7371950000000007</v>
+      </c>
+      <c r="H353" s="1"/>
       <c r="I353" s="1">
-        <f t="shared" si="33"/>
-        <v>10.762562432138978</v>
+        <v>34.554586344023512</v>
       </c>
       <c r="J353" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K353" s="1">
-        <v>0.76</v>
+        <v>6.6356884424498996E-2</v>
       </c>
       <c r="L353" s="10"/>
     </row>
-    <row r="354" spans="3:15">
+    <row r="354" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C354">
         <v>3097600</v>
       </c>
@@ -13995,21 +14004,21 @@
         <v>4</v>
       </c>
       <c r="G354" s="1">
-        <v>24.965580200000002</v>
-      </c>
+        <v>5.622383000000001</v>
+      </c>
+      <c r="H354" s="1"/>
       <c r="I354" s="1">
-        <f t="shared" si="33"/>
-        <v>15.881577629027023</v>
+        <v>70.520418121639878</v>
       </c>
       <c r="J354" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K354" s="1">
-        <v>2.1195506209600001</v>
+        <v>1.1096246449279973E-2</v>
       </c>
       <c r="L354" s="10"/>
     </row>
-    <row r="355" spans="3:15">
+    <row r="355" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C355">
         <v>4194304</v>
       </c>
@@ -14017,76 +14026,71 @@
         <v>2</v>
       </c>
       <c r="G355" s="1">
-        <v>1.47322</v>
+        <v>2.6727184999999998</v>
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1">
-        <f t="shared" si="33"/>
-        <v>22.7762533769566</v>
+        <v>12.554420527264655</v>
       </c>
       <c r="J355" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K355" s="1">
-        <v>4.9448559129699997E-3</v>
+        <v>2.0395344999081973E-2</v>
       </c>
       <c r="L355" s="10"/>
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
     </row>
-    <row r="356" spans="3:15">
+    <row r="356" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C356">
-        <f>2048*2048</f>
         <v>4194304</v>
       </c>
       <c r="D356">
         <v>4</v>
       </c>
       <c r="G356" s="1">
-        <v>2.7597368421100001</v>
+        <v>4.1671040000000001</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1">
-        <f t="shared" si="33"/>
-        <v>24.317124363455925</v>
+        <v>16.104437038288459</v>
       </c>
       <c r="J356" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K356" s="1">
-        <v>6.9975592631799999E-3</v>
+        <v>6.6014092594329464E-3</v>
       </c>
       <c r="L356" s="10"/>
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
     </row>
-    <row r="357" spans="3:15">
+    <row r="357" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C357">
-        <f>2048*2048</f>
         <v>4194304</v>
       </c>
       <c r="D357">
         <v>8</v>
       </c>
       <c r="G357" s="1">
-        <v>5.5025199999999996</v>
+        <v>4.7041909999999998</v>
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1">
-        <f t="shared" si="33"/>
-        <v>24.392047280155278</v>
+        <v>28.531521785573759</v>
       </c>
       <c r="J357" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K357" s="1">
-        <v>5.9642012038500003E-2</v>
+        <v>4.2399303618909446E-3</v>
       </c>
       <c r="L357" s="10"/>
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
     </row>
-    <row r="358" spans="3:15">
+    <row r="358" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C358">
         <v>4194304</v>
       </c>
@@ -14097,21 +14101,21 @@
         <v>2</v>
       </c>
       <c r="G358" s="1">
-        <v>24.01</v>
-      </c>
+        <v>7.8523394999999994</v>
+      </c>
+      <c r="H358" s="1"/>
       <c r="I358" s="1">
-        <f t="shared" si="33"/>
-        <v>11.180152269887547</v>
+        <v>34.18541136689263</v>
       </c>
       <c r="J358" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K358" s="1">
-        <v>1.38</v>
+        <v>7.6115842494740932E-2</v>
       </c>
       <c r="L358" s="10"/>
     </row>
-    <row r="359" spans="3:15">
+    <row r="359" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C359">
         <v>4194304</v>
       </c>
@@ -14122,21 +14126,21 @@
         <v>4</v>
       </c>
       <c r="G359" s="1">
-        <v>32.338022199999997</v>
-      </c>
+        <v>7.8752809999999993</v>
+      </c>
+      <c r="H359" s="1"/>
       <c r="I359" s="1">
-        <f t="shared" si="33"/>
-        <v>16.601847468581429</v>
+        <v>68.17165152583128</v>
       </c>
       <c r="J359" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K359" s="1">
-        <v>3.5118360108600002</v>
+        <v>1.0123666851803976E-2</v>
       </c>
       <c r="L359" s="10"/>
     </row>
-    <row r="360" spans="3:15">
+    <row r="360" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C360">
         <v>6553600</v>
       </c>
@@ -14144,76 +14148,71 @@
         <v>2</v>
       </c>
       <c r="G360" s="1">
-        <v>2.2895799999999999</v>
+        <v>4.1856325000000005</v>
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1">
-        <f t="shared" si="33"/>
-        <v>22.898872282252643</v>
+        <v>12.525896623748022</v>
       </c>
       <c r="J360" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K360" s="1">
-        <v>7.5128955802699999E-3</v>
+        <v>6.7438400498841311E-2</v>
       </c>
       <c r="L360" s="10"/>
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
     </row>
-    <row r="361" spans="3:15">
+    <row r="361" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C361">
-        <f>2560*2560</f>
         <v>6553600</v>
       </c>
       <c r="D361">
         <v>4</v>
       </c>
       <c r="G361" s="1">
-        <v>4.2844035087699996</v>
+        <v>6.522828500000001</v>
       </c>
       <c r="H361" s="1"/>
       <c r="I361" s="1">
-        <f t="shared" si="33"/>
-        <v>24.474258735285034</v>
+        <v>16.075480138715893</v>
       </c>
       <c r="J361" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K361" s="1">
-        <v>1.16330739163E-2</v>
+        <v>1.1873688858365043E-2</v>
       </c>
       <c r="L361" s="10"/>
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
     </row>
-    <row r="362" spans="3:15">
+    <row r="362" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C362">
-        <f>2560*2560</f>
         <v>6553600</v>
       </c>
       <c r="D362">
         <v>8</v>
       </c>
       <c r="G362" s="1">
-        <v>8.6408400000000007</v>
+        <v>7.4086125000000012</v>
       </c>
       <c r="H362" s="1"/>
       <c r="I362" s="1">
-        <f t="shared" si="33"/>
-        <v>24.270232986607784</v>
+        <v>28.306946813590258</v>
       </c>
       <c r="J362" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="K362" s="1">
-        <v>0.109034739418</v>
+        <v>6.4864067378187533E-3</v>
       </c>
       <c r="L362" s="10"/>
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
     </row>
-    <row r="363" spans="3:15">
+    <row r="363" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C363">
         <v>6553600</v>
       </c>
@@ -14224,21 +14223,21 @@
         <v>2</v>
       </c>
       <c r="G363" s="1">
-        <v>37.090000000000003</v>
-      </c>
+        <v>10.996269999999999</v>
+      </c>
+      <c r="H363" s="1"/>
       <c r="I363" s="1">
-        <f t="shared" si="33"/>
-        <v>11.308449716904825</v>
+        <v>38.142970298110185</v>
       </c>
       <c r="J363" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K363" s="1">
-        <v>1.85</v>
+        <v>0.1399931956993099</v>
       </c>
       <c r="L363" s="10"/>
     </row>
-    <row r="364" spans="3:15">
+    <row r="364" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C364">
         <v>6553600</v>
       </c>
@@ -14249,99 +14248,93 @@
         <v>4</v>
       </c>
       <c r="G364" s="1">
-        <v>50.6483974</v>
-      </c>
+        <v>12.395355000000002</v>
+      </c>
+      <c r="H364" s="1"/>
       <c r="I364" s="1">
-        <f t="shared" si="33"/>
-        <v>16.562435201552891</v>
+        <v>67.675415508470707</v>
       </c>
       <c r="J364" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="K364" s="1">
-        <v>4.7669534463199996</v>
+        <v>1.4121744152006805E-2</v>
       </c>
       <c r="L364" s="10"/>
     </row>
-    <row r="365" spans="3:15">
+    <row r="365" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C365">
-        <f>4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D365">
         <v>2</v>
       </c>
       <c r="G365" s="1">
-        <v>5.8036000000000003</v>
+        <v>13.500150000000001</v>
       </c>
       <c r="H365" s="1"/>
       <c r="I365" s="1">
-        <f t="shared" si="33"/>
-        <v>23.126633124267695</v>
+        <v>9.9419434598874812</v>
       </c>
       <c r="J365" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="K365" s="1">
-        <v>1.9686543627600001E-2</v>
+        <v>0.39904442108617427</v>
       </c>
       <c r="L365" s="10"/>
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
     </row>
-    <row r="366" spans="3:15">
+    <row r="366" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C366">
-        <f>4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D366">
         <v>4</v>
       </c>
       <c r="G366" s="1">
-        <v>10.943</v>
+        <v>20.757100000000001</v>
       </c>
       <c r="H366" s="1"/>
       <c r="I366" s="1">
-        <f t="shared" si="33"/>
-        <v>24.530335008681352</v>
+        <v>12.932223480158596</v>
       </c>
       <c r="J366" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="K366" s="1">
-        <v>2.38886304896E-2</v>
+        <v>0.31819952363588672</v>
       </c>
       <c r="L366" s="10"/>
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
     </row>
-    <row r="367" spans="3:15">
+    <row r="367" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C367">
-        <f>4096*4096</f>
         <v>16777216</v>
       </c>
       <c r="D367">
         <v>8</v>
       </c>
       <c r="G367" s="1">
-        <v>22.057259999999999</v>
+        <v>22.233550000000001</v>
       </c>
       <c r="H367" s="1"/>
       <c r="I367" s="1">
-        <f t="shared" si="33"/>
-        <v>24.339873220880566</v>
+        <v>24.146882166815463</v>
       </c>
       <c r="J367" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="K367" s="1">
-        <v>0.32316675633500003</v>
+        <v>0.60005924926758625</v>
       </c>
       <c r="L367" s="10"/>
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
     </row>
-    <row r="368" spans="3:15">
+    <row r="368" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C368">
         <v>16777216</v>
       </c>
@@ -14352,21 +14345,21 @@
         <v>2</v>
       </c>
       <c r="G368" s="1">
-        <v>97.46</v>
-      </c>
+        <v>46.530535</v>
+      </c>
+      <c r="H368" s="1"/>
       <c r="I368" s="1">
-        <f t="shared" si="33"/>
-        <v>11.017256556536017</v>
+        <v>23.076068736368494</v>
       </c>
       <c r="J368" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="K368" s="1">
-        <v>5.51</v>
+        <v>0.21802394430308161</v>
       </c>
       <c r="L368" s="10"/>
     </row>
-    <row r="369" spans="3:12">
+    <row r="369" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C369">
         <v>16777216</v>
       </c>
@@ -14377,34 +14370,245 @@
         <v>4</v>
       </c>
       <c r="G369" s="1">
-        <v>130.12367280000001</v>
-      </c>
+        <v>49.541995</v>
+      </c>
+      <c r="H369" s="1"/>
       <c r="I369" s="1">
-        <f t="shared" si="33"/>
-        <v>16.503404813209361</v>
+        <v>43.346733372364199</v>
       </c>
       <c r="J369" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="K369" s="1">
-        <v>14.1448934816</v>
+        <v>0.10958297252959107</v>
       </c>
       <c r="L369" s="10"/>
     </row>
-    <row r="371" spans="3:12">
-      <c r="G371" s="3"/>
-    </row>
-    <row r="377" spans="3:12">
-      <c r="G377" s="3"/>
+    <row r="370" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C370">
+        <v>38360000</v>
+      </c>
+      <c r="D370">
+        <v>2</v>
+      </c>
+      <c r="G370" s="1">
+        <v>24.793805000000003</v>
+      </c>
+      <c r="H370" s="1"/>
+      <c r="I370" s="1">
+        <v>12.377285374310235</v>
+      </c>
+      <c r="J370" t="s">
+        <v>81</v>
+      </c>
+      <c r="K370" s="1">
+        <v>0.85568900614466403</v>
+      </c>
+    </row>
+    <row r="371" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C371">
+        <v>38360000</v>
+      </c>
+      <c r="D371">
+        <v>4</v>
+      </c>
+      <c r="G371" s="1">
+        <v>38.017364999999998</v>
+      </c>
+      <c r="H371" s="1"/>
+      <c r="I371" s="1">
+        <v>16.14420147214306</v>
+      </c>
+      <c r="J371" t="s">
+        <v>81</v>
+      </c>
+      <c r="K371" s="1">
+        <v>4.2031445308683371E-2</v>
+      </c>
+    </row>
+    <row r="372" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C372">
+        <v>38360000</v>
+      </c>
+      <c r="D372">
+        <v>8</v>
+      </c>
+      <c r="G372" s="1">
+        <v>43.163269999999997</v>
+      </c>
+      <c r="H372" s="1"/>
+      <c r="I372" s="1">
+        <v>28.43899454327719</v>
+      </c>
+      <c r="J372" t="s">
+        <v>81</v>
+      </c>
+      <c r="K372" s="1">
+        <v>0.11901414820803592</v>
+      </c>
+    </row>
+    <row r="373" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C373">
+        <v>38360000</v>
+      </c>
+      <c r="D373">
+        <v>16</v>
+      </c>
+      <c r="E373">
+        <v>2</v>
+      </c>
+      <c r="G373" s="1">
+        <v>70.22521500000002</v>
+      </c>
+      <c r="H373" s="1"/>
+      <c r="I373" s="1">
+        <v>34.959522729834283</v>
+      </c>
+      <c r="J373" t="s">
+        <v>81</v>
+      </c>
+      <c r="K373" s="1">
+        <v>0.54053777926782409</v>
+      </c>
+    </row>
+    <row r="374" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C374">
+        <v>38360000</v>
+      </c>
+      <c r="D374">
+        <v>32</v>
+      </c>
+      <c r="E374">
+        <v>4</v>
+      </c>
+      <c r="G374" s="1">
+        <v>73.673969999999997</v>
+      </c>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1">
+        <v>66.646062374540165</v>
+      </c>
+      <c r="J374" t="s">
+        <v>81</v>
+      </c>
+      <c r="K374" s="1">
+        <v>0.49199500650012062</v>
+      </c>
+    </row>
+    <row r="375" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C375">
+        <v>64500000</v>
+      </c>
+      <c r="D375">
+        <v>2</v>
+      </c>
+      <c r="G375" s="1">
+        <v>41.905809999999995</v>
+      </c>
+      <c r="H375" s="1"/>
+      <c r="I375" s="1">
+        <v>12.313328390502416</v>
+      </c>
+      <c r="J375" t="s">
+        <v>81</v>
+      </c>
+      <c r="K375" s="1">
+        <v>1.5954155053250489</v>
+      </c>
+    </row>
+    <row r="376" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C376">
+        <v>64500000</v>
+      </c>
+      <c r="D376">
+        <v>4</v>
+      </c>
+      <c r="G376" s="1">
+        <v>63.90946499999999</v>
+      </c>
+      <c r="H376" s="1"/>
+      <c r="I376" s="1">
+        <v>16.147842889938136</v>
+      </c>
+      <c r="J376" t="s">
+        <v>81</v>
+      </c>
+      <c r="K376" s="1">
+        <v>7.0436259165739742E-2</v>
+      </c>
+    </row>
+    <row r="377" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C377">
+        <v>64500000</v>
+      </c>
+      <c r="D377">
+        <v>8</v>
+      </c>
+      <c r="G377" s="1">
+        <v>72.389619999999994</v>
+      </c>
+      <c r="H377" s="1"/>
+      <c r="I377" s="1">
+        <v>28.512375116763984</v>
+      </c>
+      <c r="J377" t="s">
+        <v>81</v>
+      </c>
+      <c r="K377" s="1">
+        <v>0.10955323916035807</v>
+      </c>
+    </row>
+    <row r="378" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C378">
+        <v>64500000</v>
+      </c>
+      <c r="D378">
+        <v>16</v>
+      </c>
+      <c r="E378">
+        <v>2</v>
+      </c>
+      <c r="G378" s="1">
+        <v>117.4374</v>
+      </c>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1">
+        <v>35.150641959035191</v>
+      </c>
+      <c r="J378" t="s">
+        <v>81</v>
+      </c>
+      <c r="K378" s="1">
+        <v>0.93175394312356663</v>
+      </c>
+    </row>
+    <row r="379" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C379">
+        <v>64500000</v>
+      </c>
+      <c r="D379">
+        <v>32</v>
+      </c>
+      <c r="E379">
+        <v>4</v>
+      </c>
+      <c r="G379" s="1">
+        <v>123.22370000000001</v>
+      </c>
+      <c r="H379" s="1"/>
+      <c r="I379" s="1">
+        <v>67.00009819539585</v>
+      </c>
+      <c r="J379" t="s">
+        <v>81</v>
+      </c>
+      <c r="K379" s="1">
+        <v>1.0334295535280884</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14416,113 +14620,108 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8">
         <v>352.79</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="7" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="B12" t="s">
         <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/results/train/DeepBench_NV_TitanX.xlsx
+++ b/results/train/DeepBench_NV_TitanX.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10319"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patwarymostofa/Documents/mostofa/deepbench-internal/DeepBench-internal/results/train/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharan/Desktop/svail_mnt/DeepBench-ext/results/train/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A1FC4392-EE10-BB49-A4B7-0385FE391D14}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results - FP32" sheetId="1" r:id="rId1"/>
     <sheet name="Specs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="93">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -105,16 +106,10 @@
     <t>Time Forward (msec)</t>
   </si>
   <si>
-    <t>Time Backward (msec)</t>
-  </si>
-  <si>
     <t>Recurrent Layers - LSTM</t>
   </si>
   <si>
     <t xml:space="preserve">Time Forward (msec) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time Backward (msec) </t>
   </si>
   <si>
     <t>All-Reduce</t>
@@ -284,11 +279,41 @@
   <si>
     <t>Baidu RingAllReduce</t>
   </si>
+  <si>
+    <t>Time Backward wrt inputs (msec)</t>
+  </si>
+  <si>
+    <t>Time Backward wrt weights (msec)</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Inputs</t>
+  </si>
+  <si>
+    <t>TERAFLOPS BWD Params</t>
+  </si>
+  <si>
+    <t>Total Time</t>
+  </si>
+  <si>
+    <t>DeepSpeech</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Machine Translation</t>
+  </si>
+  <si>
+    <t>Language Modelling</t>
+  </si>
+  <si>
+    <t>Speaker ID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -601,6 +626,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -927,11 +955,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="L369" sqref="L369"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A339" sqref="A339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,10 +982,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -983,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5186,22 +5214,22 @@
         <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I174" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J174" t="s">
+        <v>33</v>
+      </c>
+      <c r="K174" t="s">
+        <v>32</v>
+      </c>
+      <c r="L174" t="s">
         <v>35</v>
       </c>
-      <c r="K174" t="s">
+      <c r="M174" t="s">
         <v>34</v>
-      </c>
-      <c r="L174" t="s">
-        <v>37</v>
-      </c>
-      <c r="M174" t="s">
-        <v>36</v>
       </c>
       <c r="N174" t="s">
         <v>14</v>
@@ -5213,22 +5241,22 @@
         <v>16</v>
       </c>
       <c r="R174" t="s">
+        <v>36</v>
+      </c>
+      <c r="S174" t="s">
+        <v>37</v>
+      </c>
+      <c r="T174" t="s">
+        <v>69</v>
+      </c>
+      <c r="U174" t="s">
         <v>38</v>
       </c>
-      <c r="S174" t="s">
+      <c r="V174" t="s">
         <v>39</v>
       </c>
-      <c r="T174" t="s">
-        <v>71</v>
-      </c>
-      <c r="U174" t="s">
+      <c r="W174" t="s">
         <v>40</v>
-      </c>
-      <c r="V174" t="s">
-        <v>41</v>
-      </c>
-      <c r="W174" t="s">
-        <v>42</v>
       </c>
       <c r="X174" t="s">
         <v>17</v>
@@ -5272,7 +5300,7 @@
         <v>0.21099999999999999</v>
       </c>
       <c r="O175" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P175" s="1">
         <v>0.36199999999999999</v>
@@ -5294,7 +5322,7 @@
         <v>3.2684284360189571</v>
       </c>
       <c r="V175" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W175" s="1">
         <f t="shared" ref="W175:W206" si="10">(2*$R175*$S175*$F175*$G175*$E175*$I175*$H175)/(P175/1000)/10^12</f>
@@ -5346,7 +5374,7 @@
         <v>0.39900000000000002</v>
       </c>
       <c r="O176" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P176" s="1">
         <v>0.67300000000000004</v>
@@ -5368,7 +5396,7 @@
         <v>3.4568340852130328</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W176" s="1">
         <f t="shared" si="10"/>
@@ -5420,7 +5448,7 @@
         <v>0.76800000000000002</v>
       </c>
       <c r="O177" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P177" s="1">
         <v>1.296</v>
@@ -5442,7 +5470,7 @@
         <v>3.5918666666666663</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W177" s="1">
         <f t="shared" si="10"/>
@@ -5494,7 +5522,7 @@
         <v>1.506</v>
       </c>
       <c r="O178" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P178" s="1">
         <v>2.7850000000000001</v>
@@ -5516,7 +5544,7 @@
         <v>3.6634177954847282</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W178" s="1">
         <f t="shared" si="10"/>
@@ -5868,7 +5896,7 @@
         <v>0.23300000000000001</v>
       </c>
       <c r="O183" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P183" s="1">
         <v>0.751</v>
@@ -5890,7 +5918,7 @@
         <v>0.45565802575107295</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W183" s="1">
         <f t="shared" si="10"/>
@@ -6167,7 +6195,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="O187" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P187" s="1">
         <v>0.17499999999999999</v>
@@ -6189,7 +6217,7 @@
         <v>1.3216650491803279</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W187" s="1">
         <f t="shared" si="10"/>
@@ -6541,7 +6569,7 @@
         <v>0.67300000000000004</v>
       </c>
       <c r="O192" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P192" s="1">
         <v>1.899</v>
@@ -6563,7 +6591,7 @@
         <v>2.0613165646359581</v>
       </c>
       <c r="V192" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W192" s="1">
         <f t="shared" si="10"/>
@@ -6992,7 +7020,7 @@
         <v>1.3169999999999999</v>
       </c>
       <c r="O198" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P198" s="1">
         <v>3.665</v>
@@ -7014,7 +7042,7 @@
         <v>2.1067062232346241</v>
       </c>
       <c r="V198" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W198" s="1">
         <f t="shared" si="10"/>
@@ -7443,7 +7471,7 @@
         <v>1.016</v>
       </c>
       <c r="O204" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P204" s="1">
         <v>2.2530000000000001</v>
@@ -7465,7 +7493,7 @@
         <v>3.7169748661417326</v>
       </c>
       <c r="V204" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W204" s="1">
         <f t="shared" si="10"/>
@@ -8901,7 +8929,7 @@
         <v>1.835008</v>
       </c>
       <c r="X223" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
@@ -9325,7 +9353,7 @@
         <v>0.72</v>
       </c>
       <c r="O229" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P229">
         <v>2.11</v>
@@ -9347,7 +9375,7 @@
         <v>1.9854222222222224</v>
       </c>
       <c r="V229" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="W229" s="1">
         <f t="shared" si="21"/>
@@ -9582,7 +9610,7 @@
         <v>4.4689682045731303</v>
       </c>
       <c r="X232" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
@@ -9734,7 +9762,7 @@
         <v>5.0483901034867058</v>
       </c>
       <c r="X234" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
@@ -9886,7 +9914,7 @@
         <v>10.907787492260063</v>
       </c>
       <c r="X236" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
@@ -12327,10 +12355,10 @@
     </row>
     <row r="271" spans="2:30" x14ac:dyDescent="0.2">
       <c r="D271" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>21</v>
       </c>
@@ -12347,16 +12375,28 @@
         <v>24</v>
       </c>
       <c r="H273" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I273" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="J273" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K273" t="s">
+        <v>85</v>
+      </c>
+      <c r="L273" t="s">
+        <v>86</v>
+      </c>
+      <c r="M273" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
+        <v>88</v>
+      </c>
       <c r="C275">
         <v>1760</v>
       </c>
@@ -12367,21 +12407,35 @@
         <v>50</v>
       </c>
       <c r="G275" s="1">
-        <v>7.7089999999999996</v>
+        <v>7.7690000000000001</v>
       </c>
       <c r="H275" s="1">
-        <v>7.45</v>
+        <v>7.2969999999999997</v>
       </c>
       <c r="I275" s="1">
+        <v>1.544</v>
+      </c>
+      <c r="J275" s="1">
         <f>(2*$E275*$D275*$C275*$C275+$E275*$D275*$C275)/(G275/1000)/10^12</f>
-        <v>0.64308833830587619</v>
-      </c>
-      <c r="J275" s="1">
+        <v>0.63812176599304926</v>
+      </c>
+      <c r="K275" s="1">
         <f>(2*$E275*$D275*$C275*$C275+$E275*$D275*$C275)/(H275/1000)/10^12</f>
-        <v>0.66544536912751673</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.67939810881184048</v>
+      </c>
+      <c r="L275" s="1">
+        <f>(2*$E275*$D275*$C275*$C275+$E275*$D275*$C275)/(I275/1000)/10^12</f>
+        <v>3.2108601036269429</v>
+      </c>
+      <c r="M275" s="1">
+        <f>G275+H275+I275</f>
+        <v>16.61</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>88</v>
+      </c>
       <c r="C276">
         <v>1760</v>
       </c>
@@ -12392,21 +12446,35 @@
         <v>50</v>
       </c>
       <c r="G276" s="1">
-        <v>10.538</v>
+        <v>11.064</v>
       </c>
       <c r="H276" s="1">
-        <v>9.9450000000000003</v>
+        <v>10.861000000000001</v>
       </c>
       <c r="I276" s="1">
-        <f t="shared" ref="I276:J286" si="28">(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(G276/1000)/10^12</f>
-        <v>0.94089352818371608</v>
+        <v>2.54</v>
       </c>
       <c r="J276" s="1">
-        <f t="shared" si="28"/>
-        <v>0.99699708396178977</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(G276/1000)/10^12</f>
+        <v>0.89616196673897319</v>
+      </c>
+      <c r="K276" s="1">
+        <f>(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(H276/1000)/10^12</f>
+        <v>0.91291188656661437</v>
+      </c>
+      <c r="L276" s="1">
+        <f t="shared" ref="L276:L286" si="28">(2*$E276*$D276*$C276*$C276+$E276*$D276*$C276)/(I276/1000)/10^12</f>
+        <v>3.9035968503937006</v>
+      </c>
+      <c r="M276" s="1">
+        <f t="shared" ref="M276:M286" si="29">G276+H276+I276</f>
+        <v>24.465</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>88</v>
+      </c>
       <c r="C277">
         <v>1760</v>
       </c>
@@ -12417,21 +12485,35 @@
         <v>50</v>
       </c>
       <c r="G277" s="1">
-        <v>13.161</v>
+        <v>13.151</v>
       </c>
       <c r="H277" s="1">
-        <v>12.762</v>
+        <v>12.936</v>
       </c>
       <c r="I277" s="1">
+        <v>4.7130000000000001</v>
+      </c>
+      <c r="J277" s="1">
+        <f>(2*$E277*$D277*$C277*$C277+$E277*$D277*$C277)/(G277/1000)/10^12</f>
+        <v>1.5078908067827541</v>
+      </c>
+      <c r="K277" s="1">
+        <f>(2*$E277*$D277*$C277*$C277+$E277*$D277*$C277)/(H277/1000)/10^12</f>
+        <v>1.5329523809523811</v>
+      </c>
+      <c r="L277" s="1">
         <f t="shared" si="28"/>
-        <v>1.506745080161082</v>
-      </c>
-      <c r="J277" s="1">
-        <f t="shared" si="28"/>
-        <v>1.5538530010970066</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.2075688521111818</v>
+      </c>
+      <c r="M277" s="1">
+        <f t="shared" si="29"/>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>88</v>
+      </c>
       <c r="C278">
         <v>1760</v>
       </c>
@@ -12442,21 +12524,35 @@
         <v>50</v>
       </c>
       <c r="G278" s="1">
-        <v>16.603999999999999</v>
+        <v>16.488</v>
       </c>
       <c r="H278" s="1">
-        <v>15.997</v>
+        <v>16.030999999999999</v>
       </c>
       <c r="I278" s="1">
+        <v>9.5310000000000006</v>
+      </c>
+      <c r="J278" s="1">
+        <f>(2*$E278*$D278*$C278*$C278+$E278*$D278*$C278)/(G278/1000)/10^12</f>
+        <v>2.4054187287724411</v>
+      </c>
+      <c r="K278" s="1">
+        <f>(2*$E278*$D278*$C278*$C278+$E278*$D278*$C278)/(H278/1000)/10^12</f>
+        <v>2.4739906431289374</v>
+      </c>
+      <c r="L278" s="1">
         <f t="shared" si="28"/>
-        <v>2.3886138279932543</v>
-      </c>
-      <c r="J278" s="1">
-        <f t="shared" si="28"/>
-        <v>2.4792488591610926</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.1612154023712087</v>
+      </c>
+      <c r="M278" s="1">
+        <f t="shared" si="29"/>
+        <v>42.05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>88</v>
+      </c>
       <c r="C279">
         <v>2048</v>
       </c>
@@ -12467,21 +12563,35 @@
         <v>50</v>
       </c>
       <c r="G279" s="1">
-        <v>8.7390000000000008</v>
+        <v>8.625</v>
       </c>
       <c r="H279" s="1">
         <v>8.2349999999999994</v>
       </c>
       <c r="I279" s="1">
+        <v>1.923</v>
+      </c>
+      <c r="J279" s="1">
+        <f>(2*$E279*$D279*$C279*$C279+$E279*$D279*$C279)/(G279/1000)/10^12</f>
+        <v>0.77826374492753614</v>
+      </c>
+      <c r="K279" s="1">
+        <f>(2*$E279*$D279*$C279*$C279+$E279*$D279*$C279)/(H279/1000)/10^12</f>
+        <v>0.81512140862173654</v>
+      </c>
+      <c r="L279" s="1">
         <f t="shared" si="28"/>
-        <v>0.76811131708433456</v>
-      </c>
-      <c r="J279" s="1">
-        <f t="shared" si="28"/>
-        <v>0.81512140862173654</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.4906525221008837</v>
+      </c>
+      <c r="M279" s="1">
+        <f t="shared" si="29"/>
+        <v>18.783000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
+        <v>88</v>
+      </c>
       <c r="C280">
         <v>2048</v>
       </c>
@@ -12492,21 +12602,35 @@
         <v>50</v>
       </c>
       <c r="G280" s="1">
-        <v>9.202</v>
+        <v>10.147</v>
       </c>
       <c r="H280" s="1">
-        <v>8.8049999999999997</v>
+        <v>9.7810000000000006</v>
       </c>
       <c r="I280" s="1">
+        <v>3.2229999999999999</v>
+      </c>
+      <c r="J280" s="1">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(G280/1000)/10^12</f>
+        <v>1.3230560362668768</v>
+      </c>
+      <c r="K280" s="1">
+        <f>(2*$E280*$D280*$C280*$C280+$E280*$D280*$C280)/(H280/1000)/10^12</f>
+        <v>1.372564114098763</v>
+      </c>
+      <c r="L280" s="1">
         <f t="shared" si="28"/>
-        <v>1.4589273636166049</v>
-      </c>
-      <c r="J280" s="1">
-        <f t="shared" si="28"/>
-        <v>1.5247075070982394</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.1653892646602548</v>
+      </c>
+      <c r="M280" s="1">
+        <f t="shared" si="29"/>
+        <v>23.151</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>88</v>
+      </c>
       <c r="C281">
         <v>2048</v>
       </c>
@@ -12517,21 +12641,35 @@
         <v>50</v>
       </c>
       <c r="G281" s="1">
-        <v>12.27</v>
+        <v>12.55</v>
       </c>
       <c r="H281" s="1">
-        <v>11.754</v>
+        <v>12.199</v>
       </c>
       <c r="I281" s="1">
+        <v>6.016</v>
+      </c>
+      <c r="J281" s="1">
+        <f>(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(G281/1000)/10^12</f>
+        <v>2.1394501354581674</v>
+      </c>
+      <c r="K281" s="1">
+        <f>(2*$E281*$D281*$C281*$C281+$E281*$D281*$C281)/(H281/1000)/10^12</f>
+        <v>2.2010082137880156</v>
+      </c>
+      <c r="L281" s="1">
         <f t="shared" si="28"/>
-        <v>2.1882721434392831</v>
-      </c>
-      <c r="J281" s="1">
-        <f t="shared" si="28"/>
-        <v>2.2843371788327378</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.4631148936170213</v>
+      </c>
+      <c r="M281" s="1">
+        <f t="shared" si="29"/>
+        <v>30.765000000000001</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>88</v>
+      </c>
       <c r="C282">
         <v>2048</v>
       </c>
@@ -12542,21 +12680,35 @@
         <v>50</v>
       </c>
       <c r="G282" s="1">
-        <v>19.122</v>
+        <v>18.632000000000001</v>
       </c>
       <c r="H282" s="1">
-        <v>17.943000000000001</v>
+        <v>18.009</v>
       </c>
       <c r="I282" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="J282" s="1">
+        <f>(2*$E282*$D282*$C282*$C282+$E282*$D282*$C282)/(G282/1000)/10^12</f>
+        <v>2.8821489051094886</v>
+      </c>
+      <c r="K282" s="1">
+        <f>(2*$E282*$D282*$C282*$C282+$E282*$D282*$C282)/(H282/1000)/10^12</f>
+        <v>2.9818534288411347</v>
+      </c>
+      <c r="L282" s="1">
         <f t="shared" si="28"/>
-        <v>2.8082940278213573</v>
-      </c>
-      <c r="J282" s="1">
-        <f t="shared" si="28"/>
-        <v>2.9928216240316559</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.6695824695652179</v>
+      </c>
+      <c r="M282" s="1">
+        <f t="shared" si="29"/>
+        <v>48.141000000000005</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
+        <v>88</v>
+      </c>
       <c r="C283">
         <v>2560</v>
       </c>
@@ -12567,21 +12719,35 @@
         <v>50</v>
       </c>
       <c r="G283" s="1">
-        <v>12.943</v>
+        <v>12.589</v>
       </c>
       <c r="H283" s="1">
-        <v>12.574999999999999</v>
+        <v>12.269</v>
       </c>
       <c r="I283" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="J283" s="1">
+        <f>(2*$E283*$D283*$C283*$C283+$E283*$D283*$C283)/(G283/1000)/10^12</f>
+        <v>0.83309301771387712</v>
+      </c>
+      <c r="K283" s="1">
+        <f>(2*$E283*$D283*$C283*$C283+$E283*$D283*$C283)/(H283/1000)/10^12</f>
+        <v>0.85482174586355864</v>
+      </c>
+      <c r="L283" s="1">
         <f t="shared" si="28"/>
-        <v>0.81030734760101986</v>
-      </c>
-      <c r="J283" s="1">
-        <f t="shared" si="28"/>
-        <v>0.83402051689860834</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.0029801526717561</v>
+      </c>
+      <c r="M283" s="1">
+        <f t="shared" si="29"/>
+        <v>27.478000000000002</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>88</v>
+      </c>
       <c r="C284">
         <v>2560</v>
       </c>
@@ -12592,21 +12758,35 @@
         <v>50</v>
       </c>
       <c r="G284" s="1">
-        <v>11.904999999999999</v>
+        <v>12.103999999999999</v>
       </c>
       <c r="H284" s="1">
-        <v>11.189</v>
+        <v>11.624000000000001</v>
       </c>
       <c r="I284" s="1">
+        <v>4.6859999999999999</v>
+      </c>
+      <c r="J284" s="1">
+        <f>(2*$E284*$D284*$C284*$C284+$E284*$D284*$C284)/(G284/1000)/10^12</f>
+        <v>1.7329491077329811</v>
+      </c>
+      <c r="K284" s="1">
+        <f>(2*$E284*$D284*$C284*$C284+$E284*$D284*$C284)/(H284/1000)/10^12</f>
+        <v>1.8045092911218168</v>
+      </c>
+      <c r="L284" s="1">
         <f t="shared" si="28"/>
-        <v>1.7619165056698867</v>
-      </c>
-      <c r="J284" s="1">
-        <f t="shared" si="28"/>
-        <v>1.87466404504424</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.4762304737516008</v>
+      </c>
+      <c r="M284" s="1">
+        <f t="shared" si="29"/>
+        <v>28.414000000000001</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
+        <v>88</v>
+      </c>
       <c r="C285">
         <v>2560</v>
       </c>
@@ -12617,21 +12797,35 @@
         <v>50</v>
       </c>
       <c r="G285" s="1">
-        <v>15.794</v>
+        <v>15.75</v>
       </c>
       <c r="H285" s="1">
-        <v>15.411</v>
+        <v>15.694000000000001</v>
       </c>
       <c r="I285" s="1">
+        <v>8.7729999999999997</v>
+      </c>
+      <c r="J285" s="1">
+        <f>(2*$E285*$D285*$C285*$C285+$E285*$D285*$C285)/(G285/1000)/10^12</f>
+        <v>2.6635702857142856</v>
+      </c>
+      <c r="K285" s="1">
+        <f>(2*$E285*$D285*$C285*$C285+$E285*$D285*$C285)/(H285/1000)/10^12</f>
+        <v>2.6730745507837392</v>
+      </c>
+      <c r="L285" s="1">
         <f t="shared" si="28"/>
-        <v>2.6561499303532989</v>
-      </c>
-      <c r="J285" s="1">
-        <f t="shared" si="28"/>
-        <v>2.722161572902472</v>
-      </c>
-    </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.7818570614385045</v>
+      </c>
+      <c r="M285" s="1">
+        <f t="shared" si="29"/>
+        <v>40.216999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>88</v>
+      </c>
       <c r="C286">
         <v>2560</v>
       </c>
@@ -12642,26 +12836,40 @@
         <v>50</v>
       </c>
       <c r="G286" s="1">
-        <v>25.934000000000001</v>
+        <v>25.507999999999999</v>
       </c>
       <c r="H286" s="1">
-        <v>25.521999999999998</v>
+        <v>25.193999999999999</v>
       </c>
       <c r="I286" s="1">
+        <v>17.122</v>
+      </c>
+      <c r="J286" s="1">
+        <f>(2*$E286*$D286*$C286*$C286+$E286*$D286*$C286)/(G286/1000)/10^12</f>
+        <v>3.2892607809314724</v>
+      </c>
+      <c r="K286" s="1">
+        <f>(2*$E286*$D286*$C286*$C286+$E286*$D286*$C286)/(H286/1000)/10^12</f>
+        <v>3.3302557751845678</v>
+      </c>
+      <c r="L286" s="1">
         <f t="shared" si="28"/>
-        <v>3.2352303539754761</v>
-      </c>
-      <c r="J286" s="1">
-        <f t="shared" si="28"/>
-        <v>3.2874564689287675</v>
-      </c>
-    </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4.9002723980843363</v>
+      </c>
+      <c r="M286" s="1">
+        <f t="shared" si="29"/>
+        <v>67.823999999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I288" s="3"/>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="B290" t="s">
+        <v>89</v>
       </c>
       <c r="C290" t="s">
         <v>22</v>
@@ -12673,19 +12881,31 @@
         <v>23</v>
       </c>
       <c r="G290" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H290" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I290" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="J290" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K290" t="s">
+        <v>42</v>
+      </c>
+      <c r="L290" t="s">
+        <v>86</v>
+      </c>
+      <c r="M290" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>90</v>
+      </c>
       <c r="C291">
         <v>512</v>
       </c>
@@ -12696,21 +12916,35 @@
         <v>25</v>
       </c>
       <c r="G291" s="1">
-        <v>2.6139999999999999</v>
+        <v>2.56</v>
       </c>
       <c r="H291" s="1">
-        <v>3.0390000000000001</v>
+        <v>2.8170000000000002</v>
       </c>
       <c r="I291" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="J291" s="1">
         <f>(8*$E291*$D291*$C291*$C291)/(G291/1000)/10^12</f>
-        <v>0.32091078806426937</v>
-      </c>
-      <c r="J291" s="1">
+        <v>0.32768000000000003</v>
+      </c>
+      <c r="K291" s="1">
         <f>(8*$E291*$D291*$C291*$C291)/(H291/1000)/10^12</f>
-        <v>0.27603185258308655</v>
-      </c>
-    </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.29778516151934681</v>
+      </c>
+      <c r="L291" s="1">
+        <f>(8*$E291*$D291*$C291*$C291)/(I291/1000)/10^12</f>
+        <v>1.959955140186916</v>
+      </c>
+      <c r="M291" s="1">
+        <f t="shared" ref="M291:M312" si="30">G291+H291+I291</f>
+        <v>5.8050000000000006</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>90</v>
+      </c>
       <c r="C292">
         <v>512</v>
       </c>
@@ -12721,21 +12955,35 @@
         <v>25</v>
       </c>
       <c r="G292" s="1">
-        <v>3.4340000000000002</v>
+        <v>3.4169999999999998</v>
       </c>
       <c r="H292" s="1">
-        <v>3.173</v>
+        <v>3.5219999999999998</v>
       </c>
       <c r="I292" s="1">
-        <f t="shared" ref="I292:J307" si="29">(8*$E292*$D292*$C292*$C292)/(G292/1000)/10^12</f>
-        <v>0.4885619103086779</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="J292" s="1">
-        <f t="shared" si="29"/>
-        <v>0.52874932240781591</v>
-      </c>
-    </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E292*$D292*$C292*$C292)/(G292/1000)/10^12</f>
+        <v>0.49099256657887036</v>
+      </c>
+      <c r="K292" s="1">
+        <f>(8*$E292*$D292*$C292*$C292)/(H292/1000)/10^12</f>
+        <v>0.47635479840999434</v>
+      </c>
+      <c r="L292" s="1">
+        <f t="shared" ref="L292:L312" si="31">(8*$E292*$D292*$C292*$C292)/(I292/1000)/10^12</f>
+        <v>2.5381567322239031</v>
+      </c>
+      <c r="M292" s="1">
+        <f t="shared" si="30"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
+        <v>90</v>
+      </c>
       <c r="C293">
         <v>512</v>
       </c>
@@ -12746,21 +12994,35 @@
         <v>25</v>
       </c>
       <c r="G293" s="1">
-        <v>3.476</v>
+        <v>3.91</v>
       </c>
       <c r="H293" s="1">
-        <v>3.9420000000000002</v>
+        <v>4.1779999999999999</v>
       </c>
       <c r="I293" s="1">
-        <f t="shared" si="29"/>
-        <v>0.96531737629459158</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="J293" s="1">
-        <f t="shared" si="29"/>
-        <v>0.85120324708269912</v>
-      </c>
-    </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E293*$D293*$C293*$C293)/(G293/1000)/10^12</f>
+        <v>0.85816961636828637</v>
+      </c>
+      <c r="K293" s="1">
+        <f>(8*$E293*$D293*$C293*$C293)/(H293/1000)/10^12</f>
+        <v>0.80312187649593103</v>
+      </c>
+      <c r="L293" s="1">
+        <f t="shared" si="31"/>
+        <v>3.118441635687732</v>
+      </c>
+      <c r="M293" s="1">
+        <f t="shared" si="30"/>
+        <v>9.1640000000000015</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>90</v>
+      </c>
       <c r="C294">
         <v>512</v>
       </c>
@@ -12771,21 +13033,35 @@
         <v>25</v>
       </c>
       <c r="G294" s="1">
-        <v>4.2140000000000004</v>
+        <v>4.2110000000000003</v>
       </c>
       <c r="H294" s="1">
-        <v>7.0670000000000002</v>
+        <v>6.7809999999999997</v>
       </c>
       <c r="I294" s="1">
-        <f t="shared" si="29"/>
-        <v>1.5925216896060748</v>
+        <v>1.994</v>
       </c>
       <c r="J294" s="1">
-        <f t="shared" si="29"/>
-        <v>0.94960894297438792</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E294*$D294*$C294*$C294)/(G294/1000)/10^12</f>
+        <v>1.5936562336737117</v>
+      </c>
+      <c r="K294" s="1">
+        <f>(8*$E294*$D294*$C294*$C294)/(H294/1000)/10^12</f>
+        <v>0.98966028609349654</v>
+      </c>
+      <c r="L294" s="1">
+        <f t="shared" si="31"/>
+        <v>3.365539819458375</v>
+      </c>
+      <c r="M294" s="1">
+        <f t="shared" si="30"/>
+        <v>12.986000000000001</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
+        <v>90</v>
+      </c>
       <c r="C295">
         <v>1024</v>
       </c>
@@ -12796,21 +13072,35 @@
         <v>25</v>
       </c>
       <c r="G295" s="1">
-        <v>5.4610000000000003</v>
+        <v>5.2859999999999996</v>
       </c>
       <c r="H295" s="1">
-        <v>5.2850000000000001</v>
+        <v>5.133</v>
       </c>
       <c r="I295" s="1">
-        <f t="shared" si="29"/>
-        <v>0.61443750228895799</v>
+        <v>1.1739999999999999</v>
       </c>
       <c r="J295" s="1">
-        <f t="shared" si="29"/>
-        <v>0.63489937559129617</v>
-      </c>
-    </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E295*$D295*$C295*$C295)/(G295/1000)/10^12</f>
+        <v>0.6347792659856224</v>
+      </c>
+      <c r="K295" s="1">
+        <f>(8*$E295*$D295*$C295*$C295)/(H295/1000)/10^12</f>
+        <v>0.65370021429962977</v>
+      </c>
+      <c r="L295" s="1">
+        <f t="shared" si="31"/>
+        <v>2.8581287904599662</v>
+      </c>
+      <c r="M295" s="1">
+        <f t="shared" si="30"/>
+        <v>11.593</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B296" t="s">
+        <v>90</v>
+      </c>
       <c r="C296">
         <v>1024</v>
       </c>
@@ -12821,21 +13111,35 @@
         <v>25</v>
       </c>
       <c r="G296" s="1">
-        <v>5.0949999999999998</v>
+        <v>5.226</v>
       </c>
       <c r="H296" s="1">
-        <v>12.397</v>
+        <v>12.039</v>
       </c>
       <c r="I296" s="1">
-        <f t="shared" si="29"/>
-        <v>1.3171514033366045</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="J296" s="1">
-        <f t="shared" si="29"/>
-        <v>0.54133148342340887</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E296*$D296*$C296*$C296)/(G296/1000)/10^12</f>
+        <v>1.2841344048985839</v>
+      </c>
+      <c r="K296" s="1">
+        <f>(8*$E296*$D296*$C296*$C296)/(H296/1000)/10^12</f>
+        <v>0.55742888944264479</v>
+      </c>
+      <c r="L296" s="1">
+        <f t="shared" si="31"/>
+        <v>3.6196798274002155</v>
+      </c>
+      <c r="M296" s="1">
+        <f t="shared" si="30"/>
+        <v>19.119</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B297" t="s">
+        <v>90</v>
+      </c>
       <c r="C297">
         <v>1024</v>
       </c>
@@ -12846,21 +13150,35 @@
         <v>25</v>
       </c>
       <c r="G297" s="1">
-        <v>6.2869999999999999</v>
+        <v>6.4950000000000001</v>
       </c>
       <c r="H297" s="1">
-        <v>14.587999999999999</v>
+        <v>14.129</v>
       </c>
       <c r="I297" s="1">
-        <f t="shared" si="29"/>
-        <v>2.1348453634483855</v>
+        <v>3.2389999999999999</v>
       </c>
       <c r="J297" s="1">
-        <f t="shared" si="29"/>
-        <v>0.92005571702769406</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E297*$D297*$C297*$C297)/(G297/1000)/10^12</f>
+        <v>2.0664777213240955</v>
+      </c>
+      <c r="K297" s="1">
+        <f>(8*$E297*$D297*$C297*$C297)/(H297/1000)/10^12</f>
+        <v>0.9499449925684762</v>
+      </c>
+      <c r="L297" s="1">
+        <f t="shared" si="31"/>
+        <v>4.1438014201914175</v>
+      </c>
+      <c r="M297" s="1">
+        <f t="shared" si="30"/>
+        <v>23.863</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B298" t="s">
+        <v>90</v>
+      </c>
       <c r="C298">
         <v>1024</v>
       </c>
@@ -12871,21 +13189,35 @@
         <v>25</v>
       </c>
       <c r="G298" s="1">
-        <v>9.0920000000000005</v>
+        <v>9.02</v>
       </c>
       <c r="H298" s="1">
-        <v>9.593</v>
+        <v>9.3510000000000009</v>
       </c>
       <c r="I298" s="1">
-        <f t="shared" si="29"/>
-        <v>2.9524357237131542</v>
+        <v>6.0179999999999998</v>
       </c>
       <c r="J298" s="1">
-        <f t="shared" si="29"/>
-        <v>2.798243052225581</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E298*$D298*$C298*$C298)/(G298/1000)/10^12</f>
+        <v>2.9760028381374721</v>
+      </c>
+      <c r="K298" s="1">
+        <f>(8*$E298*$D298*$C298*$C298)/(H298/1000)/10^12</f>
+        <v>2.8706604213453102</v>
+      </c>
+      <c r="L298" s="1">
+        <f t="shared" si="31"/>
+        <v>4.4605426387504155</v>
+      </c>
+      <c r="M298" s="1">
+        <f t="shared" si="30"/>
+        <v>24.389000000000003</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>90</v>
+      </c>
       <c r="C299">
         <v>2048</v>
       </c>
@@ -12896,21 +13228,35 @@
         <v>25</v>
       </c>
       <c r="G299" s="1">
-        <v>16.803999999999998</v>
+        <v>15.956</v>
       </c>
       <c r="H299" s="1">
-        <v>12.689</v>
+        <v>12.082000000000001</v>
       </c>
       <c r="I299" s="1">
-        <f t="shared" si="29"/>
-        <v>0.79872487502975487</v>
+        <v>3.5419999999999998</v>
       </c>
       <c r="J299" s="1">
-        <f t="shared" si="29"/>
-        <v>1.0577486641973362</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E299*$D299*$C299*$C299)/(G299/1000)/10^12</f>
+        <v>0.84117402857859114</v>
+      </c>
+      <c r="K299" s="1">
+        <f>(8*$E299*$D299*$C299*$C299)/(H299/1000)/10^12</f>
+        <v>1.1108899851018041</v>
+      </c>
+      <c r="L299" s="1">
+        <f t="shared" si="31"/>
+        <v>3.7893203839638625</v>
+      </c>
+      <c r="M299" s="1">
+        <f t="shared" si="30"/>
+        <v>31.58</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
+        <v>90</v>
+      </c>
       <c r="C300">
         <v>2048</v>
       </c>
@@ -12921,21 +13267,35 @@
         <v>25</v>
       </c>
       <c r="G300" s="1">
-        <v>11.252000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="H300" s="1">
-        <v>11.444000000000001</v>
+        <v>11.173999999999999</v>
       </c>
       <c r="I300" s="1">
-        <f t="shared" si="29"/>
-        <v>2.3856688233202989</v>
+        <v>6.0149999999999997</v>
       </c>
       <c r="J300" s="1">
-        <f t="shared" si="29"/>
-        <v>2.345643621111499</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E300*$D300*$C300*$C300)/(G300/1000)/10^12</f>
+        <v>2.4786284025854113</v>
+      </c>
+      <c r="K300" s="1">
+        <f>(8*$E300*$D300*$C300*$C300)/(H300/1000)/10^12</f>
+        <v>2.4023219616967966</v>
+      </c>
+      <c r="L300" s="1">
+        <f t="shared" si="31"/>
+        <v>4.4627673482959267</v>
+      </c>
+      <c r="M300" s="1">
+        <f t="shared" si="30"/>
+        <v>28.018999999999998</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>90</v>
+      </c>
       <c r="C301">
         <v>2048</v>
       </c>
@@ -12946,21 +13306,35 @@
         <v>25</v>
       </c>
       <c r="G301" s="1">
-        <v>16.46</v>
+        <v>15.712999999999999</v>
       </c>
       <c r="H301" s="1">
-        <v>16.218</v>
+        <v>15.516</v>
       </c>
       <c r="I301" s="1">
-        <f t="shared" si="29"/>
-        <v>3.261670182260024</v>
+        <v>11.048</v>
       </c>
       <c r="J301" s="1">
-        <f t="shared" si="29"/>
-        <v>3.3103398199531386</v>
-      </c>
-    </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E301*$D301*$C301*$C301)/(G301/1000)/10^12</f>
+        <v>3.4167308088843638</v>
+      </c>
+      <c r="K301" s="1">
+        <f>(8*$E301*$D301*$C301*$C301)/(H301/1000)/10^12</f>
+        <v>3.4601115751482339</v>
+      </c>
+      <c r="L301" s="1">
+        <f t="shared" si="31"/>
+        <v>4.8594398262128884</v>
+      </c>
+      <c r="M301" s="1">
+        <f t="shared" si="30"/>
+        <v>42.277000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>90</v>
+      </c>
       <c r="C302">
         <v>2048</v>
       </c>
@@ -12971,21 +13345,35 @@
         <v>25</v>
       </c>
       <c r="G302" s="1">
-        <v>31.541</v>
+        <v>30.146999999999998</v>
       </c>
       <c r="H302" s="1">
-        <v>30.824999999999999</v>
+        <v>28.960999999999999</v>
       </c>
       <c r="I302" s="1">
-        <f t="shared" si="29"/>
-        <v>3.4042732443486257</v>
+        <v>21.283999999999999</v>
       </c>
       <c r="J302" s="1">
-        <f t="shared" si="29"/>
-        <v>3.4833473609083541</v>
-      </c>
-    </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E302*$D302*$C302*$C302)/(G302/1000)/10^12</f>
+        <v>3.5616871463163826</v>
+      </c>
+      <c r="K302" s="1">
+        <f>(8*$E302*$D302*$C302*$C302)/(H302/1000)/10^12</f>
+        <v>3.7075440212699844</v>
+      </c>
+      <c r="L302" s="1">
+        <f t="shared" si="31"/>
+        <v>5.0448309716218755</v>
+      </c>
+      <c r="M302" s="1">
+        <f t="shared" si="30"/>
+        <v>80.391999999999996</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>91</v>
+      </c>
       <c r="C303">
         <v>4096</v>
       </c>
@@ -12996,21 +13384,35 @@
         <v>25</v>
       </c>
       <c r="G303" s="1">
-        <v>60.247999999999998</v>
+        <v>56.228999999999999</v>
       </c>
       <c r="H303" s="1">
-        <v>56.017000000000003</v>
+        <v>52.389000000000003</v>
       </c>
       <c r="I303" s="1">
-        <f t="shared" si="29"/>
-        <v>0.89110163324923652</v>
+        <v>12.946999999999999</v>
       </c>
       <c r="J303" s="1">
-        <f t="shared" si="29"/>
-        <v>0.95840711212667573</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E303*$D303*$C303*$C303)/(G303/1000)/10^12</f>
+        <v>0.95479363317860888</v>
+      </c>
+      <c r="K303" s="1">
+        <f>(8*$E303*$D303*$C303*$C303)/(H303/1000)/10^12</f>
+        <v>1.0247779342991847</v>
+      </c>
+      <c r="L303" s="1">
+        <f t="shared" si="31"/>
+        <v>4.1466819494863678</v>
+      </c>
+      <c r="M303" s="1">
+        <f t="shared" si="30"/>
+        <v>121.565</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
+        <v>91</v>
+      </c>
       <c r="C304">
         <v>4096</v>
       </c>
@@ -13021,21 +13423,35 @@
         <v>25</v>
       </c>
       <c r="G304" s="1">
-        <v>104.898</v>
+        <v>99.18</v>
       </c>
       <c r="H304" s="1">
-        <v>38.359000000000002</v>
+        <v>36.390999999999998</v>
       </c>
       <c r="I304" s="1">
-        <f t="shared" si="29"/>
-        <v>1.023605620698202</v>
+        <v>22.530999999999999</v>
       </c>
       <c r="J304" s="1">
-        <f t="shared" si="29"/>
-        <v>2.7991913866367732</v>
-      </c>
-    </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E304*$D304*$C304*$C304)/(G304/1000)/10^12</f>
+        <v>1.0826193022786852</v>
+      </c>
+      <c r="K304" s="1">
+        <f>(8*$E304*$D304*$C304*$C304)/(H304/1000)/10^12</f>
+        <v>2.9505697122915007</v>
+      </c>
+      <c r="L304" s="1">
+        <f t="shared" si="31"/>
+        <v>4.7656199192224049</v>
+      </c>
+      <c r="M304" s="1">
+        <f t="shared" si="30"/>
+        <v>158.102</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B305" t="s">
+        <v>91</v>
+      </c>
       <c r="C305">
         <v>4096</v>
       </c>
@@ -13046,21 +13462,35 @@
         <v>25</v>
       </c>
       <c r="G305" s="1">
-        <v>106.22499999999999</v>
+        <v>100.14400000000001</v>
       </c>
       <c r="H305" s="1">
-        <v>56.636000000000003</v>
+        <v>53.5</v>
       </c>
       <c r="I305" s="1">
-        <f t="shared" si="29"/>
-        <v>2.0216367597081666</v>
+        <v>42.274999999999999</v>
       </c>
       <c r="J305" s="1">
-        <f t="shared" si="29"/>
-        <v>3.7917290204110454</v>
-      </c>
-    </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E305*$D305*$C305*$C305)/(G305/1000)/10^12</f>
+        <v>2.1443957181658408</v>
+      </c>
+      <c r="K305" s="1">
+        <f>(8*$E305*$D305*$C305*$C305)/(H305/1000)/10^12</f>
+        <v>4.0139881271028033</v>
+      </c>
+      <c r="L305" s="1">
+        <f t="shared" si="31"/>
+        <v>5.0797957374334715</v>
+      </c>
+      <c r="M305" s="1">
+        <f t="shared" si="30"/>
+        <v>195.91900000000001</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>91</v>
+      </c>
       <c r="C306">
         <v>4096</v>
       </c>
@@ -13071,21 +13501,35 @@
         <v>25</v>
       </c>
       <c r="G306" s="1">
-        <v>108.715</v>
+        <v>102.682</v>
       </c>
       <c r="H306" s="1">
-        <v>112.19199999999999</v>
+        <v>104.61</v>
       </c>
       <c r="I306" s="1">
-        <f t="shared" si="29"/>
-        <v>3.9506666936485302</v>
+        <v>82.366</v>
       </c>
       <c r="J306" s="1">
-        <f t="shared" si="29"/>
-        <v>3.8282295493439826</v>
-      </c>
-    </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E306*$D306*$C306*$C306)/(G306/1000)/10^12</f>
+        <v>4.1827850022399256</v>
+      </c>
+      <c r="K306" s="1">
+        <f>(8*$E306*$D306*$C306*$C306)/(H306/1000)/10^12</f>
+        <v>4.1056947672306663</v>
+      </c>
+      <c r="L306" s="1">
+        <f t="shared" si="31"/>
+        <v>5.2144905616395114</v>
+      </c>
+      <c r="M306" s="1">
+        <f t="shared" si="30"/>
+        <v>289.65800000000002</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>91</v>
+      </c>
       <c r="C307">
         <v>1536</v>
       </c>
@@ -13096,21 +13540,35 @@
         <v>50</v>
       </c>
       <c r="G307">
-        <v>10.901</v>
-      </c>
-      <c r="H307">
-        <v>12.196</v>
+        <v>11.523</v>
+      </c>
+      <c r="H307" s="1">
+        <v>12.289</v>
       </c>
       <c r="I307" s="1">
-        <f t="shared" si="29"/>
-        <v>0.6925738189156958</v>
+        <v>2.1320000000000001</v>
       </c>
       <c r="J307" s="1">
-        <f t="shared" si="29"/>
-        <v>0.61903469990160709</v>
-      </c>
-    </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(8*$E307*$D307*$C307*$C307)/(G307/1000)/10^12</f>
+        <v>0.65518937776620667</v>
+      </c>
+      <c r="K307" s="1">
+        <f>(8*$E307*$D307*$C307*$C307)/(H307/1000)/10^12</f>
+        <v>0.61435000406867935</v>
+      </c>
+      <c r="L307" s="1">
+        <f t="shared" si="31"/>
+        <v>3.5411572232645399</v>
+      </c>
+      <c r="M307" s="1">
+        <f t="shared" si="30"/>
+        <v>25.943999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>91</v>
+      </c>
       <c r="C308">
         <v>1536</v>
       </c>
@@ -13121,21 +13579,35 @@
         <v>50</v>
       </c>
       <c r="G308">
-        <v>18.103000000000002</v>
-      </c>
-      <c r="H308">
-        <v>13.625</v>
+        <v>18.71</v>
+      </c>
+      <c r="H308" s="1">
+        <v>14.157</v>
       </c>
       <c r="I308" s="1">
-        <f t="shared" ref="I308:J312" si="30">(8*$E308*$D308*$C308*$C308)/(G308/1000)/10^12</f>
-        <v>0.83408796332099644</v>
+        <v>3.5910000000000002</v>
       </c>
       <c r="J308" s="1">
+        <f>(8*$E308*$D308*$C308*$C308)/(G308/1000)/10^12</f>
+        <v>0.80702802779262428</v>
+      </c>
+      <c r="K308" s="1">
+        <f>(8*$E308*$D308*$C308*$C308)/(H308/1000)/10^12</f>
+        <v>1.0665744437380802</v>
+      </c>
+      <c r="L308" s="1">
+        <f t="shared" si="31"/>
+        <v>4.2048160401002503</v>
+      </c>
+      <c r="M308" s="1">
         <f t="shared" si="30"/>
-        <v>1.1082197724770642</v>
-      </c>
-    </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36.458000000000006</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
+        <v>91</v>
+      </c>
       <c r="C309">
         <v>1536</v>
       </c>
@@ -13146,21 +13618,35 @@
         <v>50</v>
       </c>
       <c r="G309">
-        <v>13.185</v>
-      </c>
-      <c r="H309">
-        <v>15.438000000000001</v>
+        <v>13.991</v>
+      </c>
+      <c r="H309" s="1">
+        <v>16.149999999999999</v>
       </c>
       <c r="I309" s="1">
+        <v>6.4249999999999998</v>
+      </c>
+      <c r="J309" s="1">
+        <f>(8*$E309*$D309*$C309*$C309)/(G309/1000)/10^12</f>
+        <v>2.1584582088485456</v>
+      </c>
+      <c r="K309" s="1">
+        <f>(8*$E309*$D309*$C309*$C309)/(H309/1000)/10^12</f>
+        <v>1.8699064272445822</v>
+      </c>
+      <c r="L309" s="1">
+        <f t="shared" si="31"/>
+        <v>4.7002317198443571</v>
+      </c>
+      <c r="M309" s="1">
         <f t="shared" si="30"/>
-        <v>2.2904049146757681</v>
-      </c>
-      <c r="J309" s="1">
-        <f t="shared" si="30"/>
-        <v>1.9561464438398755</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+        <v>36.565999999999995</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B310" t="s">
+        <v>91</v>
+      </c>
       <c r="C310">
         <v>256</v>
       </c>
@@ -13171,21 +13657,35 @@
         <v>150</v>
       </c>
       <c r="G310">
-        <v>8.8230000000000004</v>
-      </c>
-      <c r="H310">
-        <v>10.893000000000001</v>
+        <v>10.635</v>
+      </c>
+      <c r="H310" s="1">
+        <v>10.881</v>
       </c>
       <c r="I310" s="1">
+        <v>0.624</v>
+      </c>
+      <c r="J310" s="1">
+        <f>(8*$E310*$D310*$C310*$C310)/(G310/1000)/10^12</f>
+        <v>0.11831605077574048</v>
+      </c>
+      <c r="K310" s="1">
+        <f>(8*$E310*$D310*$C310*$C310)/(H310/1000)/10^12</f>
+        <v>0.1156411359250069</v>
+      </c>
+      <c r="L310" s="1">
+        <f t="shared" si="31"/>
+        <v>2.0164923076923076</v>
+      </c>
+      <c r="M310" s="1">
         <f t="shared" si="30"/>
-        <v>0.1426148928935736</v>
-      </c>
-      <c r="J310" s="1">
-        <f t="shared" si="30"/>
-        <v>0.11551374277058661</v>
-      </c>
-    </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22.139999999999997</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B311" t="s">
+        <v>91</v>
+      </c>
       <c r="C311">
         <v>256</v>
       </c>
@@ -13196,21 +13696,35 @@
         <v>150</v>
       </c>
       <c r="G311">
-        <v>8.4440000000000008</v>
-      </c>
-      <c r="H311">
-        <v>11.704000000000001</v>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="H311" s="1">
+        <v>11.289</v>
       </c>
       <c r="I311" s="1">
+        <v>1.097</v>
+      </c>
+      <c r="J311" s="1">
+        <f>(8*$E311*$D311*$C311*$C311)/(G311/1000)/10^12</f>
+        <v>0.28055545150501671</v>
+      </c>
+      <c r="K311" s="1">
+        <f>(8*$E311*$D311*$C311*$C311)/(H311/1000)/10^12</f>
+        <v>0.22292341217114003</v>
+      </c>
+      <c r="L311" s="1">
+        <f t="shared" si="31"/>
+        <v>2.2940587055606203</v>
+      </c>
+      <c r="M311" s="1">
         <f t="shared" si="30"/>
-        <v>0.2980320227380388</v>
-      </c>
-      <c r="J311" s="1">
-        <f t="shared" si="30"/>
-        <v>0.215019002050581</v>
-      </c>
-    </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+        <v>21.356000000000002</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B312" t="s">
+        <v>91</v>
+      </c>
       <c r="C312">
         <v>256</v>
       </c>
@@ -13221,26 +13735,40 @@
         <v>150</v>
       </c>
       <c r="G312">
-        <v>11.196999999999999</v>
-      </c>
-      <c r="H312">
-        <v>13.085000000000001</v>
+        <v>12.768000000000001</v>
+      </c>
+      <c r="H312" s="1">
+        <v>15.879</v>
       </c>
       <c r="I312" s="1">
+        <v>1.899</v>
+      </c>
+      <c r="J312" s="1">
+        <f>(8*$E312*$D312*$C312*$C312)/(G312/1000)/10^12</f>
+        <v>0.3942015037593985</v>
+      </c>
+      <c r="K312" s="1">
+        <f>(8*$E312*$D312*$C312*$C312)/(H312/1000)/10^12</f>
+        <v>0.31696988475344795</v>
+      </c>
+      <c r="L312" s="1">
+        <f t="shared" si="31"/>
+        <v>2.6504290679304896</v>
+      </c>
+      <c r="M312" s="1">
         <f t="shared" si="30"/>
-        <v>0.44951011878181657</v>
-      </c>
-      <c r="J312" s="1">
-        <f t="shared" si="30"/>
-        <v>0.38465149407718757</v>
-      </c>
-    </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+        <v>30.545999999999999</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="B315" t="s">
+        <v>89</v>
       </c>
       <c r="C315" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D315" t="s">
         <v>2</v>
@@ -13249,19 +13777,31 @@
         <v>23</v>
       </c>
       <c r="G315" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H315" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I315" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="J315" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="K315" t="s">
+        <v>42</v>
+      </c>
+      <c r="L315" t="s">
+        <v>86</v>
+      </c>
+      <c r="M315" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>88</v>
+      </c>
       <c r="C316">
         <v>2816</v>
       </c>
@@ -13271,22 +13811,36 @@
       <c r="E316">
         <v>1500</v>
       </c>
-      <c r="G316">
-        <v>755.19899999999996</v>
-      </c>
-      <c r="H316">
-        <v>740.04499999999996</v>
+      <c r="G316" s="1">
+        <v>773.13800000000003</v>
+      </c>
+      <c r="H316" s="1">
+        <v>759.79499999999996</v>
       </c>
       <c r="I316" s="1">
+        <v>448.37</v>
+      </c>
+      <c r="J316" s="1">
         <f>(6*$E316*$D316*$C316*$C316)/(G316/1000)/10^12</f>
-        <v>3.0241016314905078</v>
-      </c>
-      <c r="J316" s="1">
+        <v>2.9539338746769657</v>
+      </c>
+      <c r="K316" s="1">
         <f>(6*$E316*$D316*$C316*$C316)/(H316/1000)/10^12</f>
-        <v>3.0860265632495323</v>
-      </c>
-    </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.0058088405425147</v>
+      </c>
+      <c r="L316" s="1">
+        <f>(6*$E316*$D316*$C316*$C316)/(I316/1000)/10^12</f>
+        <v>5.0935578383923996</v>
+      </c>
+      <c r="M316" s="1">
+        <f>H316+I316</f>
+        <v>1208.165</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>88</v>
+      </c>
       <c r="C317">
         <v>2816</v>
       </c>
@@ -13296,22 +13850,36 @@
       <c r="E317">
         <v>750</v>
       </c>
-      <c r="G317">
-        <v>382.45</v>
-      </c>
-      <c r="H317">
-        <v>372.58800000000002</v>
+      <c r="G317" s="1">
+        <v>383.48899999999998</v>
+      </c>
+      <c r="H317" s="1">
+        <v>382.55900000000003</v>
       </c>
       <c r="I317" s="1">
-        <f t="shared" ref="I317:I334" si="31">(6*$E317*$D317*$C317*$C317)/(G317/1000)/10^12</f>
-        <v>2.9857478467773566</v>
+        <v>224.34700000000001</v>
       </c>
       <c r="J317" s="1">
-        <f t="shared" ref="J317:J334" si="32">(6*$E317*$D317*$C317*$C317)/(H317/1000)/10^12</f>
-        <v>3.064777351927598</v>
-      </c>
-    </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+        <f>(6*$E317*$D317*$C317*$C317)/(G317/1000)/10^12</f>
+        <v>2.9776584569570446</v>
+      </c>
+      <c r="K317" s="1">
+        <f>(6*$E317*$D317*$C317*$C317)/(H317/1000)/10^12</f>
+        <v>2.9848971374350097</v>
+      </c>
+      <c r="L317" s="1">
+        <f t="shared" ref="L317:L334" si="32">(6*$E317*$D317*$C317*$C317)/(I317/1000)/10^12</f>
+        <v>5.0898798022705884</v>
+      </c>
+      <c r="M317" s="1">
+        <f>H317+I317</f>
+        <v>606.90600000000006</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>88</v>
+      </c>
       <c r="C318">
         <v>2816</v>
       </c>
@@ -13321,22 +13889,36 @@
       <c r="E318">
         <v>375</v>
       </c>
-      <c r="G318">
-        <v>198.12700000000001</v>
-      </c>
-      <c r="H318">
-        <v>187.45500000000001</v>
+      <c r="G318" s="1">
+        <v>195.58</v>
+      </c>
+      <c r="H318" s="1">
+        <v>192.45</v>
       </c>
       <c r="I318" s="1">
-        <f t="shared" si="31"/>
-        <v>2.8817356140253478</v>
+        <v>112.488</v>
       </c>
       <c r="J318" s="1">
+        <f>(6*$E318*$D318*$C318*$C318)/(G318/1000)/10^12</f>
+        <v>2.9192638920134981</v>
+      </c>
+      <c r="K318" s="1">
+        <f>(6*$E318*$D318*$C318*$C318)/(H318/1000)/10^12</f>
+        <v>2.9667426968043653</v>
+      </c>
+      <c r="L318" s="1">
         <f t="shared" si="32"/>
-        <v>3.0457956949667921</v>
-      </c>
-    </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0756492425858761</v>
+      </c>
+      <c r="M318" s="1">
+        <f>H318+I318</f>
+        <v>304.93799999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>88</v>
+      </c>
       <c r="C319">
         <v>2816</v>
       </c>
@@ -13346,22 +13928,36 @@
       <c r="E319">
         <v>187</v>
       </c>
-      <c r="G319">
-        <v>98.415999999999997</v>
-      </c>
-      <c r="H319">
-        <v>94.328000000000003</v>
+      <c r="G319" s="1">
+        <v>95.304000000000002</v>
+      </c>
+      <c r="H319" s="1">
+        <v>97.521000000000001</v>
       </c>
       <c r="I319" s="1">
-        <f t="shared" si="31"/>
-        <v>2.8929599843927818</v>
+        <v>56.466999999999999</v>
       </c>
       <c r="J319" s="1">
+        <f>(6*$E319*$D319*$C319*$C319)/(G319/1000)/10^12</f>
+        <v>2.9874249750692519</v>
+      </c>
+      <c r="K319" s="1">
+        <f>(6*$E319*$D319*$C319*$C319)/(H319/1000)/10^12</f>
+        <v>2.9195101549820039</v>
+      </c>
+      <c r="L319" s="1">
         <f t="shared" si="32"/>
-        <v>3.0183354870664063</v>
-      </c>
-    </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5.0421228296881369</v>
+      </c>
+      <c r="M319" s="1">
+        <f>H319+I319</f>
+        <v>153.988</v>
+      </c>
+    </row>
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>88</v>
+      </c>
       <c r="C320">
         <v>2048</v>
       </c>
@@ -13371,22 +13967,36 @@
       <c r="E320">
         <v>1500</v>
       </c>
-      <c r="G320">
-        <v>403.69099999999997</v>
-      </c>
-      <c r="H320">
-        <v>494.94</v>
+      <c r="G320" s="1">
+        <v>417.79899999999998</v>
+      </c>
+      <c r="H320" s="1">
+        <v>513.48099999999999</v>
       </c>
       <c r="I320" s="1">
-        <f t="shared" si="31"/>
-        <v>2.992287546663166</v>
+        <v>239.404</v>
       </c>
       <c r="J320" s="1">
+        <f>(6*$E320*$D320*$C320*$C320)/(G320/1000)/10^12</f>
+        <v>2.8912456755521196</v>
+      </c>
+      <c r="K320" s="1">
+        <f>(6*$E320*$D320*$C320*$C320)/(H320/1000)/10^12</f>
+        <v>2.3524912353134781</v>
+      </c>
+      <c r="L320" s="1">
         <f t="shared" si="32"/>
-        <v>2.440618159776943</v>
-      </c>
-    </row>
-    <row r="321" spans="3:10" x14ac:dyDescent="0.2">
+        <v>5.0456949424403934</v>
+      </c>
+      <c r="M320" s="1">
+        <f>H320+I320</f>
+        <v>752.88499999999999</v>
+      </c>
+    </row>
+    <row r="321" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>88</v>
+      </c>
       <c r="C321">
         <v>2048</v>
       </c>
@@ -13396,22 +14006,36 @@
       <c r="E321">
         <v>750</v>
       </c>
-      <c r="G321">
-        <v>204.114</v>
-      </c>
-      <c r="H321">
-        <v>250.024</v>
+      <c r="G321" s="1">
+        <v>212.84399999999999</v>
+      </c>
+      <c r="H321" s="1">
+        <v>254.321</v>
       </c>
       <c r="I321" s="1">
-        <f t="shared" si="31"/>
-        <v>2.9590315999882417</v>
+        <v>120.07299999999999</v>
       </c>
       <c r="J321" s="1">
+        <f>(6*$E321*$D321*$C321*$C321)/(G321/1000)/10^12</f>
+        <v>2.8376640920110501</v>
+      </c>
+      <c r="K321" s="1">
+        <f>(6*$E321*$D321*$C321*$C321)/(H321/1000)/10^12</f>
+        <v>2.3748718194722418</v>
+      </c>
+      <c r="L321" s="1">
         <f t="shared" si="32"/>
-        <v>2.4156871980289889</v>
-      </c>
-    </row>
-    <row r="322" spans="3:10" x14ac:dyDescent="0.2">
+        <v>5.0301048195680957</v>
+      </c>
+      <c r="M321" s="1">
+        <f>H321+I321</f>
+        <v>374.39400000000001</v>
+      </c>
+    </row>
+    <row r="322" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>88</v>
+      </c>
       <c r="C322">
         <v>2048</v>
       </c>
@@ -13421,22 +14045,36 @@
       <c r="E322">
         <v>375</v>
       </c>
-      <c r="G322">
-        <v>103.861</v>
-      </c>
-      <c r="H322">
-        <v>126.32599999999999</v>
+      <c r="G322" s="1">
+        <v>107.363</v>
+      </c>
+      <c r="H322" s="1">
+        <v>129.32400000000001</v>
       </c>
       <c r="I322" s="1">
-        <f t="shared" si="31"/>
-        <v>2.907635089205765</v>
+        <v>60.404000000000003</v>
       </c>
       <c r="J322" s="1">
+        <f>(6*$E322*$D322*$C322*$C322)/(G322/1000)/10^12</f>
+        <v>2.8127929361139312</v>
+      </c>
+      <c r="K322" s="1">
+        <f>(6*$E322*$D322*$C322*$C322)/(H322/1000)/10^12</f>
+        <v>2.3351418762178713</v>
+      </c>
+      <c r="L322" s="1">
         <f t="shared" si="32"/>
-        <v>2.3905600430631861</v>
-      </c>
-    </row>
-    <row r="323" spans="3:10" x14ac:dyDescent="0.2">
+        <v>4.9995014899675514</v>
+      </c>
+      <c r="M322" s="1">
+        <f>H322+I322</f>
+        <v>189.72800000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>88</v>
+      </c>
       <c r="C323">
         <v>2048</v>
       </c>
@@ -13446,22 +14084,36 @@
       <c r="E323">
         <v>187</v>
       </c>
-      <c r="G323">
-        <v>53.94</v>
-      </c>
-      <c r="H323">
-        <v>64.192999999999998</v>
+      <c r="G323" s="1">
+        <v>56.311</v>
+      </c>
+      <c r="H323" s="1">
+        <v>65.924999999999997</v>
       </c>
       <c r="I323" s="1">
-        <f t="shared" si="31"/>
-        <v>2.7918481797552839</v>
+        <v>30.404</v>
       </c>
       <c r="J323" s="1">
+        <f>(6*$E323*$D323*$C323*$C323)/(G323/1000)/10^12</f>
+        <v>2.6742961555646323</v>
+      </c>
+      <c r="K323" s="1">
+        <f>(6*$E323*$D323*$C323*$C323)/(H323/1000)/10^12</f>
+        <v>2.2842971682366326</v>
+      </c>
+      <c r="L323" s="1">
         <f t="shared" si="32"/>
-        <v>2.3459300985465705</v>
-      </c>
-    </row>
-    <row r="324" spans="3:10" x14ac:dyDescent="0.2">
+        <v>4.9530420607814758</v>
+      </c>
+      <c r="M323" s="1">
+        <f>H323+I323</f>
+        <v>96.328999999999994</v>
+      </c>
+    </row>
+    <row r="324" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>88</v>
+      </c>
       <c r="C324">
         <v>1536</v>
       </c>
@@ -13471,22 +14123,36 @@
       <c r="E324">
         <v>1500</v>
       </c>
-      <c r="G324">
-        <v>294.14800000000002</v>
-      </c>
-      <c r="H324">
-        <v>352.11900000000003</v>
+      <c r="G324" s="1">
+        <v>298.93700000000001</v>
+      </c>
+      <c r="H324" s="1">
+        <v>366.11700000000002</v>
       </c>
       <c r="I324" s="1">
-        <f t="shared" si="31"/>
-        <v>2.3099842528251084</v>
+        <v>136.82599999999999</v>
       </c>
       <c r="J324" s="1">
+        <f>(6*$E324*$D324*$C324*$C324)/(G324/1000)/10^12</f>
+        <v>2.2729780789932326</v>
+      </c>
+      <c r="K324" s="1">
+        <f>(6*$E324*$D324*$C324*$C324)/(H324/1000)/10^12</f>
+        <v>1.8559019329886348</v>
+      </c>
+      <c r="L324" s="1">
         <f t="shared" si="32"/>
-        <v>1.9296807272541385</v>
-      </c>
-    </row>
-    <row r="325" spans="3:10" x14ac:dyDescent="0.2">
+        <v>4.9659951178869512</v>
+      </c>
+      <c r="M324" s="1">
+        <f>H324+I324</f>
+        <v>502.94299999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>88</v>
+      </c>
       <c r="C325">
         <v>1536</v>
       </c>
@@ -13496,22 +14162,36 @@
       <c r="E325">
         <v>750</v>
       </c>
-      <c r="G325">
-        <v>148.05799999999999</v>
-      </c>
-      <c r="H325">
-        <v>177.54400000000001</v>
+      <c r="G325" s="1">
+        <v>151.858</v>
+      </c>
+      <c r="H325" s="1">
+        <v>184.82499999999999</v>
       </c>
       <c r="I325" s="1">
-        <f t="shared" si="31"/>
-        <v>2.2946319955693042</v>
+        <v>68.319000000000003</v>
       </c>
       <c r="J325" s="1">
+        <f>(6*$E325*$D325*$C325*$C325)/(G325/1000)/10^12</f>
+        <v>2.2372125538331864</v>
+      </c>
+      <c r="K325" s="1">
+        <f>(6*$E325*$D325*$C325*$C325)/(H325/1000)/10^12</f>
+        <v>1.8381637981874748</v>
+      </c>
+      <c r="L325" s="1">
         <f t="shared" si="32"/>
-        <v>1.9135460730861082</v>
-      </c>
-    </row>
-    <row r="326" spans="3:10" x14ac:dyDescent="0.2">
+        <v>4.9728278224212881</v>
+      </c>
+      <c r="M325" s="1">
+        <f>H325+I325</f>
+        <v>253.14400000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
+        <v>88</v>
+      </c>
       <c r="C326">
         <v>1536</v>
       </c>
@@ -13521,22 +14201,36 @@
       <c r="E326">
         <v>375</v>
       </c>
-      <c r="G326">
-        <v>75.652000000000001</v>
-      </c>
-      <c r="H326">
-        <v>90.623999999999995</v>
+      <c r="G326" s="1">
+        <v>77.884</v>
+      </c>
+      <c r="H326" s="1">
+        <v>94.07</v>
       </c>
       <c r="I326" s="1">
-        <f t="shared" si="31"/>
-        <v>2.245404113572675</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="J326" s="1">
+        <f>(6*$E326*$D326*$C326*$C326)/(G326/1000)/10^12</f>
+        <v>2.181055313029634</v>
+      </c>
+      <c r="K326" s="1">
+        <f>(6*$E326*$D326*$C326*$C326)/(H326/1000)/10^12</f>
+        <v>1.8057756139045393</v>
+      </c>
+      <c r="L326" s="1">
         <f t="shared" si="32"/>
-        <v>1.8744406779661018</v>
-      </c>
-    </row>
-    <row r="327" spans="3:10" x14ac:dyDescent="0.2">
+        <v>4.9625858019281335</v>
+      </c>
+      <c r="M326" s="1">
+        <f>H326+I326</f>
+        <v>128.29999999999998</v>
+      </c>
+    </row>
+    <row r="327" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B327" t="s">
+        <v>88</v>
+      </c>
       <c r="C327">
         <v>1536</v>
       </c>
@@ -13546,22 +14240,36 @@
       <c r="E327">
         <v>187</v>
       </c>
-      <c r="G327">
-        <v>39.558999999999997</v>
-      </c>
-      <c r="H327">
-        <v>46.948</v>
+      <c r="G327" s="1">
+        <v>41.209000000000003</v>
+      </c>
+      <c r="H327" s="1">
+        <v>48.509</v>
       </c>
       <c r="I327" s="1">
-        <f t="shared" si="31"/>
-        <v>2.1413120550064462</v>
+        <v>17.2</v>
       </c>
       <c r="J327" s="1">
+        <f>(6*$E327*$D327*$C327*$C327)/(G327/1000)/10^12</f>
+        <v>2.0555743547283361</v>
+      </c>
+      <c r="K327" s="1">
+        <f>(6*$E327*$D327*$C327*$C327)/(H327/1000)/10^12</f>
+        <v>1.7462360300975075</v>
+      </c>
+      <c r="L327" s="1">
         <f t="shared" si="32"/>
-        <v>1.8042975970009369</v>
-      </c>
-    </row>
-    <row r="328" spans="3:10" x14ac:dyDescent="0.2">
+        <v>4.924893231627907</v>
+      </c>
+      <c r="M327" s="1">
+        <f>H327+I327</f>
+        <v>65.709000000000003</v>
+      </c>
+    </row>
+    <row r="328" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B328" t="s">
+        <v>88</v>
+      </c>
       <c r="C328">
         <v>2560</v>
       </c>
@@ -13571,22 +14279,36 @@
       <c r="E328" s="2">
         <v>1500</v>
       </c>
-      <c r="G328">
-        <v>657.31299999999999</v>
-      </c>
-      <c r="H328">
-        <v>669.00400000000002</v>
+      <c r="G328" s="1">
+        <v>690.66399999999999</v>
+      </c>
+      <c r="H328" s="1">
+        <v>683.64800000000002</v>
       </c>
       <c r="I328" s="1">
-        <f t="shared" si="31"/>
-        <v>2.8714429807412905</v>
+        <v>371.91199999999998</v>
       </c>
       <c r="J328" s="1">
+        <f>(6*$E328*$D328*$C328*$C328)/(G328/1000)/10^12</f>
+        <v>2.7327858408719727</v>
+      </c>
+      <c r="K328" s="1">
+        <f>(6*$E328*$D328*$C328*$C328)/(H328/1000)/10^12</f>
+        <v>2.7608313049990634</v>
+      </c>
+      <c r="L328" s="1">
         <f t="shared" si="32"/>
-        <v>2.8212638489455966</v>
-      </c>
-    </row>
-    <row r="329" spans="3:10" x14ac:dyDescent="0.2">
+        <v>5.0749553657854554</v>
+      </c>
+      <c r="M328" s="1">
+        <f>H328+I328</f>
+        <v>1055.56</v>
+      </c>
+    </row>
+    <row r="329" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B329" t="s">
+        <v>88</v>
+      </c>
       <c r="C329">
         <v>2560</v>
       </c>
@@ -13596,22 +14318,36 @@
       <c r="E329" s="2">
         <v>750</v>
       </c>
-      <c r="G329">
-        <v>335.54700000000003</v>
-      </c>
-      <c r="H329">
-        <v>335.84199999999998</v>
+      <c r="G329" s="1">
+        <v>341.06099999999998</v>
+      </c>
+      <c r="H329" s="1">
+        <v>343.51100000000002</v>
       </c>
       <c r="I329" s="1">
-        <f t="shared" si="31"/>
-        <v>2.812477536678915</v>
+        <v>186.41200000000001</v>
       </c>
       <c r="J329" s="1">
+        <f>(6*$E329*$D329*$C329*$C329)/(G329/1000)/10^12</f>
+        <v>2.7670076613860863</v>
+      </c>
+      <c r="K329" s="1">
+        <f>(6*$E329*$D329*$C329*$C329)/(H329/1000)/10^12</f>
+        <v>2.7472727219797912</v>
+      </c>
+      <c r="L329" s="1">
         <f t="shared" si="32"/>
-        <v>2.8100070866657538</v>
-      </c>
-    </row>
-    <row r="330" spans="3:10" x14ac:dyDescent="0.2">
+        <v>5.0625410381305924</v>
+      </c>
+      <c r="M329" s="1">
+        <f>H329+I329</f>
+        <v>529.923</v>
+      </c>
+    </row>
+    <row r="330" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B330" t="s">
+        <v>88</v>
+      </c>
       <c r="C330">
         <v>2560</v>
       </c>
@@ -13621,22 +14357,36 @@
       <c r="E330" s="2">
         <v>375</v>
       </c>
-      <c r="G330">
-        <v>170.06299999999999</v>
-      </c>
-      <c r="H330">
-        <v>169.42</v>
+      <c r="G330" s="1">
+        <v>176.518</v>
+      </c>
+      <c r="H330" s="1">
+        <v>173.589</v>
       </c>
       <c r="I330" s="1">
-        <f t="shared" si="31"/>
-        <v>2.7746141135931977</v>
+        <v>93.418000000000006</v>
       </c>
       <c r="J330" s="1">
+        <f>(6*$E330*$D330*$C330*$C330)/(G330/1000)/10^12</f>
+        <v>2.6731506135351637</v>
+      </c>
+      <c r="K330" s="1">
+        <f>(6*$E330*$D330*$C330*$C330)/(H330/1000)/10^12</f>
+        <v>2.7182551889808688</v>
+      </c>
+      <c r="L330" s="1">
         <f t="shared" si="32"/>
-        <v>2.7851446110258529</v>
-      </c>
-    </row>
-    <row r="331" spans="3:10" x14ac:dyDescent="0.2">
+        <v>5.051052259735811</v>
+      </c>
+      <c r="M330" s="1">
+        <f>H330+I330</f>
+        <v>267.00700000000001</v>
+      </c>
+    </row>
+    <row r="331" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B331" t="s">
+        <v>88</v>
+      </c>
       <c r="C331">
         <v>2560</v>
       </c>
@@ -13646,22 +14396,36 @@
       <c r="E331" s="2">
         <v>187</v>
       </c>
-      <c r="G331">
-        <v>84.882000000000005</v>
-      </c>
-      <c r="H331">
-        <v>86.021000000000001</v>
+      <c r="G331" s="1">
+        <v>83.906000000000006</v>
+      </c>
+      <c r="H331" s="1">
+        <v>88.206999999999994</v>
       </c>
       <c r="I331" s="1">
-        <f t="shared" si="31"/>
-        <v>2.7720889517212131</v>
+        <v>46.926000000000002</v>
       </c>
       <c r="J331" s="1">
+        <f>(6*$E331*$D331*$C331*$C331)/(G331/1000)/10^12</f>
+        <v>2.8043340690773002</v>
+      </c>
+      <c r="K331" s="1">
+        <f>(6*$E331*$D331*$C331*$C331)/(H331/1000)/10^12</f>
+        <v>2.6675938916412529</v>
+      </c>
+      <c r="L331" s="1">
         <f t="shared" si="32"/>
-        <v>2.7353838527801351</v>
-      </c>
-    </row>
-    <row r="332" spans="3:10" x14ac:dyDescent="0.2">
+        <v>5.0142874824191281</v>
+      </c>
+      <c r="M331" s="1">
+        <f>H331+I331</f>
+        <v>135.13299999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B332" t="s">
+        <v>88</v>
+      </c>
       <c r="C332">
         <v>512</v>
       </c>
@@ -13671,22 +14435,36 @@
       <c r="E332" s="2">
         <v>1</v>
       </c>
-      <c r="G332">
-        <v>0.123</v>
-      </c>
-      <c r="H332">
-        <v>9.8000000000000004E-2</v>
+      <c r="G332" s="1">
+        <v>0.124</v>
+      </c>
+      <c r="H332" s="1">
+        <v>0.09</v>
       </c>
       <c r="I332" s="1">
-        <f t="shared" si="31"/>
-        <v>0.40920039024390242</v>
+        <v>0.112</v>
       </c>
       <c r="J332" s="1">
+        <f>(6*$E332*$D332*$C332*$C332)/(G332/1000)/10^12</f>
+        <v>0.40590038709677417</v>
+      </c>
+      <c r="K332" s="1">
+        <f>(6*$E332*$D332*$C332*$C332)/(H332/1000)/10^12</f>
+        <v>0.55924053333333335</v>
+      </c>
+      <c r="L332" s="1">
         <f t="shared" si="32"/>
-        <v>0.51358824489795907</v>
-      </c>
-    </row>
-    <row r="333" spans="3:10" x14ac:dyDescent="0.2">
+        <v>0.44938971428571428</v>
+      </c>
+      <c r="M332" s="1">
+        <f>H332+I332</f>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="333" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B333" t="s">
+        <v>92</v>
+      </c>
       <c r="C333">
         <v>1024</v>
       </c>
@@ -13696,22 +14474,36 @@
       <c r="E333" s="2">
         <v>1500</v>
       </c>
-      <c r="G333">
-        <v>188.64099999999999</v>
-      </c>
-      <c r="H333">
-        <v>309.14499999999998</v>
+      <c r="G333" s="1">
+        <v>197.25</v>
+      </c>
+      <c r="H333" s="1">
+        <v>310.827</v>
       </c>
       <c r="I333" s="1">
-        <f t="shared" si="31"/>
-        <v>1.6008709029320245</v>
+        <v>60.673999999999999</v>
       </c>
       <c r="J333" s="1">
+        <f>(6*$E333*$D333*$C333*$C333)/(G333/1000)/10^12</f>
+        <v>1.5310006996197718</v>
+      </c>
+      <c r="K333" s="1">
+        <f>(6*$E333*$D333*$C333*$C333)/(H333/1000)/10^12</f>
+        <v>0.97156903357816393</v>
+      </c>
+      <c r="L333" s="1">
         <f t="shared" si="32"/>
-        <v>0.97685515858254213</v>
-      </c>
-    </row>
-    <row r="334" spans="3:10" x14ac:dyDescent="0.2">
+        <v>4.9772536506576133</v>
+      </c>
+      <c r="M333" s="1">
+        <f>H333+I333</f>
+        <v>371.50099999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B334" t="s">
+        <v>92</v>
+      </c>
       <c r="C334">
         <v>1024</v>
       </c>
@@ -13721,26 +14513,34 @@
       <c r="E334" s="2">
         <v>1500</v>
       </c>
-      <c r="G334">
-        <v>245.512</v>
-      </c>
-      <c r="H334">
-        <v>489.57400000000001</v>
+      <c r="G334" s="1">
+        <v>252.922</v>
+      </c>
+      <c r="H334" s="1">
+        <v>487.33600000000001</v>
       </c>
       <c r="I334" s="1">
-        <f t="shared" si="31"/>
-        <v>2.460082505132132</v>
+        <v>121.60299999999999</v>
       </c>
       <c r="J334" s="1">
+        <f>(6*$E334*$D334*$C334*$C334)/(G334/1000)/10^12</f>
+        <v>2.388008065727774</v>
+      </c>
+      <c r="K334" s="1">
+        <f>(6*$E334*$D334*$C334*$C334)/(H334/1000)/10^12</f>
+        <v>1.2393498038314428</v>
+      </c>
+      <c r="L334" s="1">
         <f t="shared" si="32"/>
-        <v>1.2336843378120568</v>
+        <v>4.96681641077934</v>
+      </c>
+      <c r="M334" s="1">
+        <f>H334+I334</f>
+        <v>608.93899999999996</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="L339" s="3">
-        <f>1000/(SUM(U175:U210))</f>
-        <v>7.0430868729944143</v>
-      </c>
+      <c r="L339" s="3"/>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I341" s="3"/>
@@ -13753,25 +14553,25 @@
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
+        <v>27</v>
+      </c>
+      <c r="C343" t="s">
+        <v>28</v>
+      </c>
+      <c r="D343" t="s">
         <v>29</v>
       </c>
-      <c r="C343" t="s">
+      <c r="G343" t="s">
+        <v>45</v>
+      </c>
+      <c r="I343" t="s">
+        <v>43</v>
+      </c>
+      <c r="J343" t="s">
         <v>30</v>
       </c>
-      <c r="D343" t="s">
-        <v>31</v>
-      </c>
-      <c r="G343" t="s">
-        <v>47</v>
-      </c>
-      <c r="I343" t="s">
-        <v>45</v>
-      </c>
-      <c r="J343" t="s">
-        <v>32</v>
-      </c>
       <c r="K343" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.2">
@@ -13789,7 +14589,7 @@
         <v>7.3481425962181852</v>
       </c>
       <c r="J345" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K345" s="1">
         <v>1.3804178419670817E-3</v>
@@ -13813,7 +14613,7 @@
         <v>9.0871916034349596</v>
       </c>
       <c r="J346" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K346" s="1">
         <v>3.1078821186071208E-3</v>
@@ -13837,7 +14637,7 @@
         <v>12.721220028606849</v>
       </c>
       <c r="J347" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K347" s="1">
         <v>2.2250778720849518E-3</v>
@@ -13864,7 +14664,7 @@
         <v>14.250942621919602</v>
       </c>
       <c r="J348" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K348" s="1">
         <v>2.6766395054443302E-3</v>
@@ -13889,7 +14689,7 @@
         <v>16.876838240383925</v>
       </c>
       <c r="J349" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K349" s="1">
         <v>2.3317675197606046E-2</v>
@@ -13911,7 +14711,7 @@
         <v>12.362818551810911</v>
       </c>
       <c r="J350" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K350" s="1">
         <v>1.6285583744365367E-2</v>
@@ -13935,7 +14735,7 @@
         <v>16.06374729261184</v>
       </c>
       <c r="J351" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K351" s="1">
         <v>8.2917326454220504E-3</v>
@@ -13959,7 +14759,7 @@
         <v>27.342890347018962</v>
       </c>
       <c r="J352" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K352" s="1">
         <v>4.1017158155556071E-3</v>
@@ -13986,7 +14786,7 @@
         <v>34.554586344023512</v>
       </c>
       <c r="J353" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K353" s="1">
         <v>6.6356884424498996E-2</v>
@@ -14011,7 +14811,7 @@
         <v>70.520418121639878</v>
       </c>
       <c r="J354" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K354" s="1">
         <v>1.1096246449279973E-2</v>
@@ -14033,7 +14833,7 @@
         <v>12.554420527264655</v>
       </c>
       <c r="J355" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K355" s="1">
         <v>2.0395344999081973E-2</v>
@@ -14057,7 +14857,7 @@
         <v>16.104437038288459</v>
       </c>
       <c r="J356" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K356" s="1">
         <v>6.6014092594329464E-3</v>
@@ -14081,7 +14881,7 @@
         <v>28.531521785573759</v>
       </c>
       <c r="J357" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K357" s="1">
         <v>4.2399303618909446E-3</v>
@@ -14108,7 +14908,7 @@
         <v>34.18541136689263</v>
       </c>
       <c r="J358" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K358" s="1">
         <v>7.6115842494740932E-2</v>
@@ -14133,7 +14933,7 @@
         <v>68.17165152583128</v>
       </c>
       <c r="J359" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K359" s="1">
         <v>1.0123666851803976E-2</v>
@@ -14155,7 +14955,7 @@
         <v>12.525896623748022</v>
       </c>
       <c r="J360" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K360" s="1">
         <v>6.7438400498841311E-2</v>
@@ -14179,7 +14979,7 @@
         <v>16.075480138715893</v>
       </c>
       <c r="J361" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K361" s="1">
         <v>1.1873688858365043E-2</v>
@@ -14203,7 +15003,7 @@
         <v>28.306946813590258</v>
       </c>
       <c r="J362" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K362" s="1">
         <v>6.4864067378187533E-3</v>
@@ -14230,7 +15030,7 @@
         <v>38.142970298110185</v>
       </c>
       <c r="J363" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K363" s="1">
         <v>0.1399931956993099</v>
@@ -14255,7 +15055,7 @@
         <v>67.675415508470707</v>
       </c>
       <c r="J364" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K364" s="1">
         <v>1.4121744152006805E-2</v>
@@ -14277,7 +15077,7 @@
         <v>9.9419434598874812</v>
       </c>
       <c r="J365" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K365" s="1">
         <v>0.39904442108617427</v>
@@ -14301,7 +15101,7 @@
         <v>12.932223480158596</v>
       </c>
       <c r="J366" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K366" s="1">
         <v>0.31819952363588672</v>
@@ -14325,7 +15125,7 @@
         <v>24.146882166815463</v>
       </c>
       <c r="J367" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K367" s="1">
         <v>0.60005924926758625</v>
@@ -14352,7 +15152,7 @@
         <v>23.076068736368494</v>
       </c>
       <c r="J368" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K368" s="1">
         <v>0.21802394430308161</v>
@@ -14377,7 +15177,7 @@
         <v>43.346733372364199</v>
       </c>
       <c r="J369" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K369" s="1">
         <v>0.10958297252959107</v>
@@ -14399,7 +15199,7 @@
         <v>12.377285374310235</v>
       </c>
       <c r="J370" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K370" s="1">
         <v>0.85568900614466403</v>
@@ -14420,7 +15220,7 @@
         <v>16.14420147214306</v>
       </c>
       <c r="J371" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K371" s="1">
         <v>4.2031445308683371E-2</v>
@@ -14441,7 +15241,7 @@
         <v>28.43899454327719</v>
       </c>
       <c r="J372" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K372" s="1">
         <v>0.11901414820803592</v>
@@ -14465,7 +15265,7 @@
         <v>34.959522729834283</v>
       </c>
       <c r="J373" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K373" s="1">
         <v>0.54053777926782409</v>
@@ -14489,7 +15289,7 @@
         <v>66.646062374540165</v>
       </c>
       <c r="J374" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K374" s="1">
         <v>0.49199500650012062</v>
@@ -14510,7 +15310,7 @@
         <v>12.313328390502416</v>
       </c>
       <c r="J375" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K375" s="1">
         <v>1.5954155053250489</v>
@@ -14531,7 +15331,7 @@
         <v>16.147842889938136</v>
       </c>
       <c r="J376" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K376" s="1">
         <v>7.0436259165739742E-2</v>
@@ -14552,7 +15352,7 @@
         <v>28.512375116763984</v>
       </c>
       <c r="J377" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K377" s="1">
         <v>0.10955323916035807</v>
@@ -14576,7 +15376,7 @@
         <v>35.150641959035191</v>
       </c>
       <c r="J378" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K378" s="1">
         <v>0.93175394312356663</v>
@@ -14600,7 +15400,7 @@
         <v>67.00009819539585</v>
       </c>
       <c r="J379" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K379" s="1">
         <v>1.0334295535280884</v>
@@ -14613,7 +15413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14627,39 +15427,39 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="9">
         <v>5</v>
@@ -14667,15 +15467,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8">
         <v>352.79</v>
@@ -14683,42 +15483,42 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
